--- a/left_knee_Data.xlsx
+++ b/left_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>491.9469909667969</v>
+        <v>406.2979736328125</v>
       </c>
       <c r="C2" t="n">
-        <v>487.8992309570312</v>
+        <v>397.9762573242188</v>
       </c>
       <c r="D2" t="n">
-        <v>485.4366455078125</v>
+        <v>397.4781799316406</v>
       </c>
       <c r="E2" t="n">
-        <v>484.1882934570312</v>
+        <v>396.545654296875</v>
       </c>
       <c r="F2" t="n">
-        <v>482.668212890625</v>
+        <v>396.8755493164062</v>
       </c>
       <c r="G2" t="n">
-        <v>481.3570556640625</v>
+        <v>397.4492797851562</v>
       </c>
       <c r="H2" t="n">
-        <v>472.2382202148438</v>
+        <v>397.8313598632812</v>
       </c>
       <c r="I2" t="n">
-        <v>466.0169067382812</v>
+        <v>398.1913452148438</v>
       </c>
       <c r="J2" t="n">
-        <v>465.1195678710938</v>
+        <v>398.6260375976562</v>
       </c>
       <c r="K2" t="n">
-        <v>462.40869140625</v>
+        <v>398.0794677734375</v>
       </c>
       <c r="L2" t="n">
-        <v>461.1293334960938</v>
+        <v>397.6067810058594</v>
       </c>
       <c r="M2" t="n">
-        <v>476.7039794921875</v>
+        <v>397.2315979003906</v>
       </c>
       <c r="N2" t="n">
-        <v>491.0079345703125</v>
+        <v>396.7768859863281</v>
       </c>
       <c r="O2" t="n">
-        <v>492.1014404296875</v>
+        <v>396.50244140625</v>
       </c>
       <c r="P2" t="n">
-        <v>493.8119506835938</v>
+        <v>396.1583862304688</v>
       </c>
       <c r="Q2" t="n">
-        <v>495.6973266601562</v>
+        <v>395.8448486328125</v>
       </c>
       <c r="R2" t="n">
-        <v>497.8088073730469</v>
+        <v>395.5880737304688</v>
       </c>
       <c r="S2" t="n">
-        <v>465.2275390625</v>
+        <v>395.3680725097656</v>
       </c>
       <c r="T2" t="n">
-        <v>464.5535278320312</v>
+        <v>395.1585693359375</v>
       </c>
       <c r="U2" t="n">
-        <v>462.9486694335938</v>
+        <v>394.96630859375</v>
       </c>
       <c r="V2" t="n">
-        <v>459.861328125</v>
+        <v>394.806640625</v>
       </c>
       <c r="W2" t="n">
-        <v>458.0807495117188</v>
+        <v>394.6769409179688</v>
       </c>
       <c r="X2" t="n">
-        <v>456.8323364257812</v>
+        <v>394.5726318359375</v>
       </c>
       <c r="Y2" t="n">
-        <v>455.5771484375</v>
+        <v>394.487060546875</v>
       </c>
       <c r="Z2" t="n">
-        <v>454.9534606933594</v>
+        <v>394.4102172851562</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.1219482421875</v>
+        <v>394.304931640625</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.5763549804688</v>
+        <v>394.1277465820312</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.1024475097656</v>
+        <v>394.0032653808594</v>
       </c>
       <c r="AD2" t="n">
-        <v>471.679931640625</v>
+        <v>393.9871826171875</v>
       </c>
       <c r="AE2" t="n">
-        <v>461.5394287109375</v>
+        <v>393.8752746582031</v>
       </c>
       <c r="AF2" t="n">
-        <v>444.9951782226562</v>
+        <v>393.7408142089844</v>
       </c>
       <c r="AG2" t="n">
-        <v>438.2894592285156</v>
+        <v>393.5472412109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>445.400390625</v>
+        <v>393.3751220703125</v>
       </c>
       <c r="AI2" t="n">
-        <v>450.25732421875</v>
+        <v>393.1976318359375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>452.9065551757812</v>
+        <v>393.0389404296875</v>
       </c>
       <c r="AK2" t="n">
-        <v>454.8603820800781</v>
+        <v>392.876220703125</v>
       </c>
       <c r="AL2" t="n">
-        <v>453.6978759765625</v>
+        <v>392.5148315429688</v>
       </c>
       <c r="AM2" t="n">
-        <v>448.1795959472656</v>
+        <v>392.37060546875</v>
       </c>
       <c r="AN2" t="n">
-        <v>434.8018188476562</v>
+        <v>392.3155517578125</v>
       </c>
       <c r="AO2" t="n">
-        <v>405.9944458007812</v>
+        <v>392.2687377929688</v>
       </c>
       <c r="AP2" t="n">
-        <v>447.5036010742188</v>
+        <v>392.136962890625</v>
       </c>
       <c r="AQ2" t="n">
-        <v>446.4739685058594</v>
+        <v>393.7698364257812</v>
       </c>
       <c r="AR2" t="n">
-        <v>445.3814086914062</v>
+        <v>400.542236328125</v>
       </c>
       <c r="AS2" t="n">
-        <v>445.3965454101562</v>
+        <v>404.8074951171875</v>
       </c>
       <c r="AT2" t="n">
-        <v>445.2854614257812</v>
+        <v>416.8765869140625</v>
       </c>
       <c r="AU2" t="n">
-        <v>445.3943481445312</v>
+        <v>422.2095336914062</v>
       </c>
       <c r="AV2" t="n">
-        <v>445.7620239257812</v>
+        <v>425.0031127929688</v>
       </c>
       <c r="AW2" t="n">
-        <v>446.1363220214844</v>
+        <v>428.220458984375</v>
       </c>
       <c r="AX2" t="n">
-        <v>446.3177185058594</v>
+        <v>431.7645874023438</v>
       </c>
       <c r="AY2" t="n">
-        <v>446.361328125</v>
+        <v>437.0352783203125</v>
       </c>
       <c r="AZ2" t="n">
-        <v>446.3158569335938</v>
+        <v>444.3481750488281</v>
       </c>
       <c r="BA2" t="n">
-        <v>446.0079956054688</v>
+        <v>449.8859252929688</v>
       </c>
       <c r="BB2" t="n">
-        <v>445.3424377441406</v>
+        <v>453.3447875976562</v>
       </c>
       <c r="BC2" t="n">
-        <v>444.6460571289062</v>
+        <v>456.64697265625</v>
       </c>
       <c r="BD2" t="n">
-        <v>443.9956970214844</v>
+        <v>459.6520385742188</v>
       </c>
       <c r="BE2" t="n">
-        <v>443.7445373535156</v>
+        <v>462.880615234375</v>
       </c>
       <c r="BF2" t="n">
-        <v>443.4431457519531</v>
+        <v>464.4462280273438</v>
       </c>
       <c r="BG2" t="n">
-        <v>443.0506591796875</v>
+        <v>464.3485107421875</v>
       </c>
       <c r="BH2" t="n">
-        <v>442.4305725097656</v>
+        <v>462.6997375488281</v>
       </c>
       <c r="BI2" t="n">
-        <v>441.6501159667969</v>
+        <v>460.55615234375</v>
       </c>
       <c r="BJ2" t="n">
-        <v>440.7440795898438</v>
+        <v>446.9792175292969</v>
       </c>
       <c r="BK2" t="n">
-        <v>438.9433288574219</v>
+        <v>435.3753051757812</v>
       </c>
       <c r="BL2" t="n">
-        <v>436.83935546875</v>
+        <v>427.8417663574219</v>
       </c>
       <c r="BM2" t="n">
-        <v>434.2608947753906</v>
+        <v>415.2249755859375</v>
       </c>
       <c r="BN2" t="n">
-        <v>431.4340209960938</v>
+        <v>409.0946655273438</v>
       </c>
       <c r="BO2" t="n">
-        <v>428.3628540039062</v>
+        <v>402.5860290527344</v>
       </c>
       <c r="BP2" t="n">
-        <v>425.3705444335938</v>
+        <v>394.4623107910156</v>
       </c>
       <c r="BQ2" t="n">
-        <v>422.983642578125</v>
+        <v>386.7353820800781</v>
       </c>
       <c r="BR2" t="n">
-        <v>421.5301208496094</v>
+        <v>379.1583251953125</v>
       </c>
       <c r="BS2" t="n">
-        <v>420.6176452636719</v>
+        <v>372.1743469238281</v>
       </c>
       <c r="BT2" t="n">
-        <v>417.23974609375</v>
+        <v>364.3123779296875</v>
       </c>
       <c r="BU2" t="n">
-        <v>412.070556640625</v>
+        <v>356.5614013671875</v>
       </c>
       <c r="BV2" t="n">
-        <v>407.0867309570312</v>
+        <v>349.1391296386719</v>
       </c>
       <c r="BW2" t="n">
-        <v>403.0284118652344</v>
+        <v>343.0166015625</v>
       </c>
       <c r="BX2" t="n">
-        <v>399.0584716796875</v>
+        <v>335.8815002441406</v>
       </c>
       <c r="BY2" t="n">
-        <v>394.7721557617188</v>
+        <v>331.0440063476562</v>
       </c>
       <c r="BZ2" t="n">
-        <v>386.8121948242188</v>
+        <v>325.4523010253906</v>
       </c>
       <c r="CA2" t="n">
-        <v>375.7073974609375</v>
+        <v>319.9807434082031</v>
       </c>
       <c r="CB2" t="n">
-        <v>367.7081298828125</v>
+        <v>314.4186096191406</v>
       </c>
       <c r="CC2" t="n">
-        <v>363.7172241210938</v>
+        <v>309.3945007324219</v>
       </c>
       <c r="CD2" t="n">
-        <v>359.7735290527344</v>
+        <v>305.8499450683594</v>
       </c>
       <c r="CE2" t="n">
-        <v>355.2041015625</v>
+        <v>302.7714233398438</v>
       </c>
       <c r="CF2" t="n">
-        <v>346.9898071289062</v>
+        <v>300.9403991699219</v>
       </c>
       <c r="CG2" t="n">
-        <v>343.5689697265625</v>
+        <v>299.3948059082031</v>
       </c>
       <c r="CH2" t="n">
-        <v>342.9251098632812</v>
+        <v>298.5540161132812</v>
       </c>
       <c r="CI2" t="n">
-        <v>342.1773986816406</v>
+        <v>298.5471496582031</v>
       </c>
       <c r="CJ2" t="n">
-        <v>341.23681640625</v>
+        <v>298.6991271972656</v>
       </c>
       <c r="CK2" t="n">
-        <v>339.71337890625</v>
+        <v>298.7821350097656</v>
       </c>
       <c r="CL2" t="n">
-        <v>335.348388671875</v>
+        <v>300.7178344726562</v>
       </c>
       <c r="CM2" t="n">
-        <v>334.645751953125</v>
+        <v>304.4495849609375</v>
       </c>
       <c r="CN2" t="n">
-        <v>334.3438415527344</v>
+        <v>311.1258239746094</v>
       </c>
       <c r="CO2" t="n">
-        <v>334.1901245117188</v>
+        <v>317.842041015625</v>
       </c>
       <c r="CP2" t="n">
-        <v>334.1547241210938</v>
+        <v>323.9906311035156</v>
       </c>
       <c r="CQ2" t="n">
-        <v>334.1322326660156</v>
+        <v>330.5226135253906</v>
       </c>
       <c r="CR2" t="n">
-        <v>334.141357421875</v>
+        <v>342.058349609375</v>
       </c>
       <c r="CS2" t="n">
-        <v>334.1901245117188</v>
+        <v>346.8788146972656</v>
       </c>
       <c r="CT2" t="n">
-        <v>332.2344665527344</v>
+        <v>351.7359619140625</v>
       </c>
       <c r="CU2" t="n">
-        <v>329.4915466308594</v>
+        <v>359.2173767089844</v>
       </c>
       <c r="CV2" t="n">
-        <v>326.2037963867188</v>
+        <v>369.2750549316406</v>
       </c>
       <c r="CW2" t="n">
-        <v>322.7772216796875</v>
+        <v>376.4344787597656</v>
       </c>
       <c r="CX2" t="n">
-        <v>322.9246215820312</v>
+        <v>382.431396484375</v>
       </c>
       <c r="CY2" t="n">
-        <v>323.8130493164062</v>
+        <v>386.8485717773438</v>
       </c>
       <c r="CZ2" t="n">
-        <v>324.2663879394531</v>
+        <v>390.8297119140625</v>
       </c>
       <c r="DA2" t="n">
-        <v>324.70751953125</v>
+        <v>396.5493774414062</v>
       </c>
       <c r="DB2" t="n">
-        <v>325.2019653320312</v>
+        <v>408.5664672851562</v>
       </c>
       <c r="DC2" t="n">
-        <v>326.6708068847656</v>
+        <v>414.0356140136719</v>
       </c>
       <c r="DD2" t="n">
-        <v>328.8762817382812</v>
+        <v>418.3147888183594</v>
       </c>
       <c r="DE2" t="n">
-        <v>331.1725463867188</v>
+        <v>422.1113891601562</v>
       </c>
       <c r="DF2" t="n">
-        <v>332.3907775878906</v>
+        <v>425.8499755859375</v>
       </c>
       <c r="DG2" t="n">
-        <v>332.698486328125</v>
+        <v>429.5000915527344</v>
       </c>
       <c r="DH2" t="n">
-        <v>332.7781372070312</v>
+        <v>432.5636596679688</v>
       </c>
       <c r="DI2" t="n">
-        <v>332.7258605957031</v>
+        <v>433.650634765625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>332.7270202636719</v>
+        <v>434.9359130859375</v>
       </c>
       <c r="DK2" t="n">
-        <v>332.6839599609375</v>
+        <v>435.9952392578125</v>
       </c>
       <c r="DL2" t="n">
-        <v>332.8664855957031</v>
+        <v>437.0040893554688</v>
       </c>
       <c r="DM2" t="n">
-        <v>333.0216064453125</v>
+        <v>436.1724243164062</v>
       </c>
       <c r="DN2" t="n">
-        <v>334.3622436523438</v>
+        <v>433.5200805664062</v>
       </c>
       <c r="DO2" t="n">
-        <v>335.8272705078125</v>
+        <v>428.9236450195312</v>
       </c>
       <c r="DP2" t="n">
-        <v>337.7250671386719</v>
+        <v>425.7944030761719</v>
       </c>
       <c r="DQ2" t="n">
-        <v>339.5105590820312</v>
+        <v>417.9314880371094</v>
       </c>
       <c r="DR2" t="n">
-        <v>339.6795654296875</v>
+        <v>415.5872192382812</v>
       </c>
       <c r="DS2" t="n">
-        <v>339.81298828125</v>
+        <v>413.2918090820312</v>
       </c>
       <c r="DT2" t="n">
-        <v>338.1939392089844</v>
+        <v>407.3126220703125</v>
       </c>
       <c r="DU2" t="n">
-        <v>335.4759216308594</v>
+        <v>403.17138671875</v>
       </c>
       <c r="DV2" t="n">
-        <v>331.1395874023438</v>
+        <v>399.3701782226562</v>
       </c>
       <c r="DW2" t="n">
-        <v>330.3017578125</v>
+        <v>394.4256896972656</v>
       </c>
       <c r="DX2" t="n">
-        <v>330.0799865722656</v>
+        <v>392.5863952636719</v>
       </c>
       <c r="DY2" t="n">
-        <v>328.4192504882812</v>
+        <v>388.4591369628906</v>
       </c>
       <c r="DZ2" t="n">
-        <v>327.8333129882812</v>
+        <v>388.257568359375</v>
       </c>
       <c r="EA2" t="n">
-        <v>328.2806091308594</v>
+        <v>388.5777282714844</v>
       </c>
       <c r="EB2" t="n">
-        <v>328.0960693359375</v>
+        <v>388.1600952148438</v>
       </c>
       <c r="EC2" t="n">
-        <v>327.6672058105469</v>
+        <v>387.0919189453125</v>
       </c>
       <c r="ED2" t="n">
-        <v>327.6717529296875</v>
+        <v>385.16796875</v>
       </c>
       <c r="EE2" t="n">
-        <v>327.7560119628906</v>
+        <v>384.0447998046875</v>
       </c>
       <c r="EF2" t="n">
-        <v>328.0809936523438</v>
+        <v>383.8329467773438</v>
       </c>
       <c r="EG2" t="n">
-        <v>328.5703125</v>
+        <v>385.3587036132812</v>
       </c>
       <c r="EH2" t="n">
-        <v>329.2459716796875</v>
+        <v>389.5158081054688</v>
       </c>
       <c r="EI2" t="n">
-        <v>329.7059631347656</v>
+        <v>391.7459106445312</v>
       </c>
       <c r="EJ2" t="n">
-        <v>330.5431518554688</v>
+        <v>392.3946533203125</v>
       </c>
       <c r="EK2" t="n">
-        <v>330.4439086914062</v>
+        <v>393.2169189453125</v>
       </c>
       <c r="EL2" t="n">
-        <v>329.8025817871094</v>
+        <v>395.3874206542969</v>
       </c>
       <c r="EM2" t="n">
-        <v>328.6512756347656</v>
+        <v>402.8602294921875</v>
       </c>
       <c r="EN2" t="n">
-        <v>325.7535400390625</v>
+        <v>405.1207885742188</v>
       </c>
       <c r="EO2" t="n">
-        <v>324.1461791992188</v>
+        <v>407.1991577148438</v>
       </c>
       <c r="EP2" t="n">
-        <v>323.6139526367188</v>
+        <v>408.442626953125</v>
       </c>
       <c r="EQ2" t="n">
-        <v>324.1624145507812</v>
+        <v>410.7721557617188</v>
       </c>
       <c r="ER2" t="n">
-        <v>325.0426635742188</v>
+        <v>411.8569641113281</v>
       </c>
       <c r="ES2" t="n">
-        <v>326.5060729980469</v>
+        <v>410.8678588867188</v>
       </c>
       <c r="ET2" t="n">
-        <v>327.0721130371094</v>
+        <v>398.5999755859375</v>
       </c>
       <c r="EU2" t="n">
-        <v>326.9864501953125</v>
+        <v>383.5400085449219</v>
       </c>
       <c r="EV2" t="n">
-        <v>325.9839477539062</v>
+        <v>372.4130859375</v>
       </c>
       <c r="EW2" t="n">
-        <v>325.2069091796875</v>
+        <v>361.9967041015625</v>
       </c>
       <c r="EX2" t="n">
-        <v>324.5581359863281</v>
+        <v>358.6593627929688</v>
       </c>
       <c r="EY2" t="n">
-        <v>324.3898315429688</v>
+        <v>352.3031005859375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>324.1965026855469</v>
+        <v>337.3764038085938</v>
       </c>
       <c r="FA2" t="n">
-        <v>324.18994140625</v>
+        <v>330.416259765625</v>
       </c>
       <c r="FB2" t="n">
-        <v>324.1625366210938</v>
+        <v>328.5650024414062</v>
       </c>
       <c r="FC2" t="n">
-        <v>324.0465698242188</v>
+        <v>331.6224365234375</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.8978576660156</v>
+        <v>333.9052124023438</v>
       </c>
       <c r="FE2" t="n">
-        <v>323.7154541015625</v>
+        <v>341.1700439453125</v>
       </c>
       <c r="FF2" t="n">
-        <v>323.6091613769531</v>
+        <v>346.1630554199219</v>
       </c>
       <c r="FG2" t="n">
-        <v>323.7615356445312</v>
+        <v>348.3023681640625</v>
       </c>
       <c r="FH2" t="n">
-        <v>323.847900390625</v>
+        <v>344.0377807617188</v>
       </c>
       <c r="FI2" t="n">
-        <v>324.0177001953125</v>
+        <v>344.0736083984375</v>
       </c>
       <c r="FJ2" t="n">
-        <v>324.1946411132812</v>
+        <v>347.2289428710938</v>
       </c>
       <c r="FK2" t="n">
-        <v>324.1602783203125</v>
+        <v>357.5651550292969</v>
       </c>
       <c r="FL2" t="n">
-        <v>324.4789428710938</v>
+        <v>362.7178955078125</v>
       </c>
       <c r="FM2" t="n">
-        <v>324.6406555175781</v>
+        <v>373.0743713378906</v>
       </c>
       <c r="FN2" t="n">
-        <v>325.8788757324219</v>
+        <v>383.3453674316406</v>
       </c>
       <c r="FO2" t="n">
-        <v>327.0221252441406</v>
+        <v>386.6898803710938</v>
       </c>
       <c r="FP2" t="n">
-        <v>332.673095703125</v>
+        <v>390.971923828125</v>
       </c>
       <c r="FQ2" t="n">
-        <v>337.7023315429688</v>
+        <v>402.8133544921875</v>
       </c>
       <c r="FR2" t="n">
-        <v>339.3060302734375</v>
+        <v>408.6678466796875</v>
       </c>
       <c r="FS2" t="n">
-        <v>343.8861083984375</v>
+        <v>414.95654296875</v>
       </c>
       <c r="FT2" t="n">
-        <v>357.1967163085938</v>
+        <v>419.6222534179688</v>
       </c>
       <c r="FU2" t="n">
-        <v>363.7615356445312</v>
+        <v>422.127197265625</v>
       </c>
       <c r="FV2" t="n">
-        <v>376.356201171875</v>
+        <v>414.8521728515625</v>
       </c>
       <c r="FW2" t="n">
-        <v>383.5159606933594</v>
+        <v>410.2412414550781</v>
       </c>
       <c r="FX2" t="n">
-        <v>394.0294799804688</v>
+        <v>406.3758544921875</v>
       </c>
       <c r="FY2" t="n">
-        <v>400.5193481445312</v>
+        <v>412.0198974609375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>404.7404479980469</v>
+        <v>420.5562133789062</v>
       </c>
       <c r="GA2" t="n">
-        <v>406.7061767578125</v>
+        <v>459.4681396484375</v>
       </c>
       <c r="GB2" t="n">
-        <v>409.14697265625</v>
+        <v>454.897705078125</v>
       </c>
       <c r="GC2" t="n">
-        <v>409.8993530273438</v>
+        <v>418.7083740234375</v>
       </c>
       <c r="GD2" t="n">
-        <v>412.0321044921875</v>
+        <v>399.7204284667969</v>
       </c>
       <c r="GE2" t="n">
-        <v>412.8102416992188</v>
+        <v>368.2762145996094</v>
       </c>
       <c r="GF2" t="n">
-        <v>405.716796875</v>
+        <v>355.7726440429688</v>
       </c>
       <c r="GG2" t="n">
-        <v>398.3809814453125</v>
+        <v>349.9096069335938</v>
       </c>
       <c r="GH2" t="n">
-        <v>388.7888793945312</v>
+        <v>348.6104125976562</v>
       </c>
       <c r="GI2" t="n">
-        <v>379.8827514648438</v>
+        <v>346.9801330566406</v>
       </c>
       <c r="GJ2" t="n">
-        <v>372.7246398925781</v>
+        <v>342.3970947265625</v>
       </c>
       <c r="GK2" t="n">
-        <v>369.2948608398438</v>
+        <v>316.8436584472656</v>
       </c>
       <c r="GL2" t="n">
-        <v>363.556884765625</v>
+        <v>312.1065979003906</v>
       </c>
       <c r="GM2" t="n">
-        <v>357.7889709472656</v>
+        <v>329.9971923828125</v>
       </c>
       <c r="GN2" t="n">
-        <v>350.5789184570312</v>
+        <v>331.4833984375</v>
       </c>
       <c r="GO2" t="n">
-        <v>351.3296508789062</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>352.6775512695312</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>352.7699279785156</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>353.6210632324219</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>354.3617248535156</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>381.0172119140625</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>406.7351684570312</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>427.3139038085938</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>440.711181640625</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>447.5105590820312</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>452.309814453125</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>466.4212646484375</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>356.5233764648438</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>361.7192077636719</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>376.6953125</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>400.4903869628906</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>410.1400146484375</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>413.72216796875</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>544.6642456054688</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>547.2708740234375</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>550.3108520507812</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>427.6849975585938</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>391.7901306152344</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>500.2980041503906</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>506.85205078125</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>491.5098266601562</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>460.0135498046875</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>445.7314758300781</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>448.7603149414062</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>462.009521484375</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>476.4233093261719</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>480.5626220703125</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>483.542236328125</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>372.449951171875</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>372.3080749511719</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>369.9042358398438</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>369.0669555664062</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>369.1309204101562</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>369.7332153320312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>485.4921264648438</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>482.9438781738281</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>481.3045654296875</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>480.8161010742188</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>502.3763732910156</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>506.0464172363281</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>505.865966796875</v>
-      </c>
-      <c r="II2" t="n">
-        <v>502.2291870117188</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>499.7881469726562</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>498.5140686035156</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>498.7439575195312</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>499.220947265625</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>499.0669250488281</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>500.9392700195312</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>502.2276306152344</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>503.3506774902344</v>
+        <v>322.546142578125</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>564.95556640625</v>
+        <v>645.5192260742188</v>
       </c>
       <c r="C3" t="n">
-        <v>556.6092529296875</v>
+        <v>625.0062255859375</v>
       </c>
       <c r="D3" t="n">
-        <v>550.012451171875</v>
+        <v>610.5797119140625</v>
       </c>
       <c r="E3" t="n">
-        <v>546.0462036132812</v>
+        <v>612.2556762695312</v>
       </c>
       <c r="F3" t="n">
-        <v>543.1615600585938</v>
+        <v>613.81982421875</v>
       </c>
       <c r="G3" t="n">
-        <v>542.2357177734375</v>
+        <v>616.7692260742188</v>
       </c>
       <c r="H3" t="n">
-        <v>559.958251953125</v>
+        <v>622.1420288085938</v>
       </c>
       <c r="I3" t="n">
-        <v>563.3973999023438</v>
+        <v>625.0164794921875</v>
       </c>
       <c r="J3" t="n">
-        <v>563.5100708007812</v>
+        <v>625.5823974609375</v>
       </c>
       <c r="K3" t="n">
-        <v>554.6237182617188</v>
+        <v>626.1196899414062</v>
       </c>
       <c r="L3" t="n">
-        <v>546.5549926757812</v>
+        <v>626.5150756835938</v>
       </c>
       <c r="M3" t="n">
-        <v>566.7303466796875</v>
+        <v>626.7928466796875</v>
       </c>
       <c r="N3" t="n">
-        <v>579.4798583984375</v>
+        <v>627.2813720703125</v>
       </c>
       <c r="O3" t="n">
-        <v>576.7941284179688</v>
+        <v>626.6986694335938</v>
       </c>
       <c r="P3" t="n">
-        <v>566.0789184570312</v>
+        <v>626.5501098632812</v>
       </c>
       <c r="Q3" t="n">
-        <v>553.3004760742188</v>
+        <v>626.3621215820312</v>
       </c>
       <c r="R3" t="n">
-        <v>539.119384765625</v>
+        <v>626.2791748046875</v>
       </c>
       <c r="S3" t="n">
-        <v>537.1111450195312</v>
+        <v>626.22607421875</v>
       </c>
       <c r="T3" t="n">
-        <v>537.5564575195312</v>
+        <v>626.088134765625</v>
       </c>
       <c r="U3" t="n">
-        <v>538.2691040039062</v>
+        <v>625.939453125</v>
       </c>
       <c r="V3" t="n">
-        <v>538.918212890625</v>
+        <v>625.7844848632812</v>
       </c>
       <c r="W3" t="n">
-        <v>539.0405883789062</v>
+        <v>625.3961791992188</v>
       </c>
       <c r="X3" t="n">
-        <v>538.3604125976562</v>
+        <v>625.0034790039062</v>
       </c>
       <c r="Y3" t="n">
-        <v>538.1427001953125</v>
+        <v>624.4998168945312</v>
       </c>
       <c r="Z3" t="n">
-        <v>538.3583984375</v>
+        <v>623.4993896484375</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.07373046875</v>
+        <v>622.4310302734375</v>
       </c>
       <c r="AB3" t="n">
-        <v>543.064697265625</v>
+        <v>621.4095458984375</v>
       </c>
       <c r="AC3" t="n">
-        <v>583.8809204101562</v>
+        <v>619.5501708984375</v>
       </c>
       <c r="AD3" t="n">
-        <v>583.892822265625</v>
+        <v>616.9840698242188</v>
       </c>
       <c r="AE3" t="n">
-        <v>582.9557495117188</v>
+        <v>616.2846069335938</v>
       </c>
       <c r="AF3" t="n">
-        <v>579.0042114257812</v>
+        <v>615.71240234375</v>
       </c>
       <c r="AG3" t="n">
-        <v>574.0516967773438</v>
+        <v>615.5831909179688</v>
       </c>
       <c r="AH3" t="n">
-        <v>578.91552734375</v>
+        <v>615.4490356445312</v>
       </c>
       <c r="AI3" t="n">
-        <v>585.55810546875</v>
+        <v>614.9552612304688</v>
       </c>
       <c r="AJ3" t="n">
-        <v>590.3344116210938</v>
+        <v>614.4935913085938</v>
       </c>
       <c r="AK3" t="n">
-        <v>591.12744140625</v>
+        <v>614.0665893554688</v>
       </c>
       <c r="AL3" t="n">
-        <v>586.7056274414062</v>
+        <v>613.1475219726562</v>
       </c>
       <c r="AM3" t="n">
-        <v>576.4957885742188</v>
+        <v>612.8794555664062</v>
       </c>
       <c r="AN3" t="n">
-        <v>554.6580810546875</v>
+        <v>612.6934814453125</v>
       </c>
       <c r="AO3" t="n">
-        <v>522.2001342773438</v>
+        <v>612.5300903320312</v>
       </c>
       <c r="AP3" t="n">
-        <v>549.9767456054688</v>
+        <v>612.3594970703125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>550.2317504882812</v>
+        <v>611.887939453125</v>
       </c>
       <c r="AR3" t="n">
-        <v>551.2223510742188</v>
+        <v>610.68212890625</v>
       </c>
       <c r="AS3" t="n">
-        <v>553.1339111328125</v>
+        <v>609.4566650390625</v>
       </c>
       <c r="AT3" t="n">
-        <v>554.7390747070312</v>
+        <v>606.1400146484375</v>
       </c>
       <c r="AU3" t="n">
-        <v>555.35986328125</v>
+        <v>603.1097412109375</v>
       </c>
       <c r="AV3" t="n">
-        <v>555.7330322265625</v>
+        <v>601.5999755859375</v>
       </c>
       <c r="AW3" t="n">
-        <v>556.2357177734375</v>
+        <v>600.478759765625</v>
       </c>
       <c r="AX3" t="n">
-        <v>556.9419555664062</v>
+        <v>600.2779541015625</v>
       </c>
       <c r="AY3" t="n">
-        <v>557.5418090820312</v>
+        <v>599.4445190429688</v>
       </c>
       <c r="AZ3" t="n">
-        <v>558.1954956054688</v>
+        <v>595.7469482421875</v>
       </c>
       <c r="BA3" t="n">
-        <v>558.9630737304688</v>
+        <v>589.9468383789062</v>
       </c>
       <c r="BB3" t="n">
-        <v>559.7281494140625</v>
+        <v>587.0812377929688</v>
       </c>
       <c r="BC3" t="n">
-        <v>560.530029296875</v>
+        <v>581.8324584960938</v>
       </c>
       <c r="BD3" t="n">
-        <v>560.977783203125</v>
+        <v>579.9949340820312</v>
       </c>
       <c r="BE3" t="n">
-        <v>561.020263671875</v>
+        <v>577.0601196289062</v>
       </c>
       <c r="BF3" t="n">
-        <v>561.0478515625</v>
+        <v>575.2422485351562</v>
       </c>
       <c r="BG3" t="n">
-        <v>561.1607055664062</v>
+        <v>574.4217529296875</v>
       </c>
       <c r="BH3" t="n">
-        <v>561.3701782226562</v>
+        <v>572.40625</v>
       </c>
       <c r="BI3" t="n">
-        <v>561.3019409179688</v>
+        <v>572.3936767578125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>561.6779174804688</v>
+        <v>573.0769653320312</v>
       </c>
       <c r="BK3" t="n">
-        <v>562.1635131835938</v>
+        <v>573.85693359375</v>
       </c>
       <c r="BL3" t="n">
-        <v>562.5612182617188</v>
+        <v>574.3408813476562</v>
       </c>
       <c r="BM3" t="n">
-        <v>563.1537475585938</v>
+        <v>577.0857543945312</v>
       </c>
       <c r="BN3" t="n">
-        <v>563.7006225585938</v>
+        <v>576.4815673828125</v>
       </c>
       <c r="BO3" t="n">
-        <v>564.18603515625</v>
+        <v>577.26513671875</v>
       </c>
       <c r="BP3" t="n">
-        <v>565.14794921875</v>
+        <v>582.7322387695312</v>
       </c>
       <c r="BQ3" t="n">
-        <v>566.34765625</v>
+        <v>586.248779296875</v>
       </c>
       <c r="BR3" t="n">
-        <v>565.1876220703125</v>
+        <v>587.9292602539062</v>
       </c>
       <c r="BS3" t="n">
-        <v>566.2459716796875</v>
+        <v>586.8843994140625</v>
       </c>
       <c r="BT3" t="n">
-        <v>567.5264892578125</v>
+        <v>586.2327270507812</v>
       </c>
       <c r="BU3" t="n">
-        <v>565.8873901367188</v>
+        <v>586.3264770507812</v>
       </c>
       <c r="BV3" t="n">
-        <v>564.4326782226562</v>
+        <v>586.2359008789062</v>
       </c>
       <c r="BW3" t="n">
-        <v>563.7626953125</v>
+        <v>586.4421997070312</v>
       </c>
       <c r="BX3" t="n">
-        <v>563.9421997070312</v>
+        <v>588.076171875</v>
       </c>
       <c r="BY3" t="n">
-        <v>564.7294921875</v>
+        <v>589.1029052734375</v>
       </c>
       <c r="BZ3" t="n">
-        <v>562.561767578125</v>
+        <v>590.4216918945312</v>
       </c>
       <c r="CA3" t="n">
-        <v>559.758544921875</v>
+        <v>590.099853515625</v>
       </c>
       <c r="CB3" t="n">
-        <v>559.5635375976562</v>
+        <v>589.4024658203125</v>
       </c>
       <c r="CC3" t="n">
-        <v>560.578125</v>
+        <v>588.4714965820312</v>
       </c>
       <c r="CD3" t="n">
-        <v>562.5020141601562</v>
+        <v>587.2280883789062</v>
       </c>
       <c r="CE3" t="n">
-        <v>567.2991333007812</v>
+        <v>585.9071044921875</v>
       </c>
       <c r="CF3" t="n">
-        <v>570.98291015625</v>
+        <v>582.9627685546875</v>
       </c>
       <c r="CG3" t="n">
-        <v>570.3729248046875</v>
+        <v>577.65283203125</v>
       </c>
       <c r="CH3" t="n">
-        <v>568.3463745117188</v>
+        <v>571.2376708984375</v>
       </c>
       <c r="CI3" t="n">
-        <v>564.8648681640625</v>
+        <v>562.4586791992188</v>
       </c>
       <c r="CJ3" t="n">
-        <v>559.1427612304688</v>
+        <v>557.314453125</v>
       </c>
       <c r="CK3" t="n">
-        <v>556.0928344726562</v>
+        <v>554.7669677734375</v>
       </c>
       <c r="CL3" t="n">
-        <v>551.8107299804688</v>
+        <v>554.2647705078125</v>
       </c>
       <c r="CM3" t="n">
-        <v>551.53271484375</v>
+        <v>555.3502197265625</v>
       </c>
       <c r="CN3" t="n">
-        <v>551.571533203125</v>
+        <v>556.6356811523438</v>
       </c>
       <c r="CO3" t="n">
-        <v>551.1863403320312</v>
+        <v>557.2986450195312</v>
       </c>
       <c r="CP3" t="n">
-        <v>550.901611328125</v>
+        <v>559.8767700195312</v>
       </c>
       <c r="CQ3" t="n">
-        <v>550.7175903320312</v>
+        <v>560.4201049804688</v>
       </c>
       <c r="CR3" t="n">
-        <v>550.502685546875</v>
+        <v>562.1643676757812</v>
       </c>
       <c r="CS3" t="n">
-        <v>550.332275390625</v>
+        <v>561.7191772460938</v>
       </c>
       <c r="CT3" t="n">
-        <v>549.9474487304688</v>
+        <v>561.2682495117188</v>
       </c>
       <c r="CU3" t="n">
-        <v>549.2466430664062</v>
+        <v>561.6051635742188</v>
       </c>
       <c r="CV3" t="n">
-        <v>548.3229370117188</v>
+        <v>561.5294189453125</v>
       </c>
       <c r="CW3" t="n">
-        <v>547.501953125</v>
+        <v>562.9053344726562</v>
       </c>
       <c r="CX3" t="n">
-        <v>547.5360717773438</v>
+        <v>562.2421875</v>
       </c>
       <c r="CY3" t="n">
-        <v>547.2123413085938</v>
+        <v>562.33251953125</v>
       </c>
       <c r="CZ3" t="n">
-        <v>546.9118041992188</v>
+        <v>562.2113647460938</v>
       </c>
       <c r="DA3" t="n">
-        <v>546.544189453125</v>
+        <v>561.7330322265625</v>
       </c>
       <c r="DB3" t="n">
-        <v>546.1787109375</v>
+        <v>562.1797485351562</v>
       </c>
       <c r="DC3" t="n">
-        <v>546.39794921875</v>
+        <v>562.4210815429688</v>
       </c>
       <c r="DD3" t="n">
-        <v>547.3590087890625</v>
+        <v>562.4732055664062</v>
       </c>
       <c r="DE3" t="n">
-        <v>548.4303588867188</v>
+        <v>561.9959106445312</v>
       </c>
       <c r="DF3" t="n">
-        <v>550.1307983398438</v>
+        <v>561.771240234375</v>
       </c>
       <c r="DG3" t="n">
-        <v>552.4679565429688</v>
+        <v>561.2960815429688</v>
       </c>
       <c r="DH3" t="n">
-        <v>553.4461669921875</v>
+        <v>561.4170532226562</v>
       </c>
       <c r="DI3" t="n">
-        <v>555.6823120117188</v>
+        <v>561.9580688476562</v>
       </c>
       <c r="DJ3" t="n">
-        <v>555.464599609375</v>
+        <v>562.9449462890625</v>
       </c>
       <c r="DK3" t="n">
-        <v>555.2047119140625</v>
+        <v>565.3202514648438</v>
       </c>
       <c r="DL3" t="n">
-        <v>554.176513671875</v>
+        <v>568.96337890625</v>
       </c>
       <c r="DM3" t="n">
-        <v>553.064453125</v>
+        <v>570.389892578125</v>
       </c>
       <c r="DN3" t="n">
-        <v>551.2335815429688</v>
+        <v>571.7833862304688</v>
       </c>
       <c r="DO3" t="n">
-        <v>550.3985595703125</v>
+        <v>575.6982421875</v>
       </c>
       <c r="DP3" t="n">
-        <v>549.4993896484375</v>
+        <v>577.0990600585938</v>
       </c>
       <c r="DQ3" t="n">
-        <v>549.9693603515625</v>
+        <v>570.50146484375</v>
       </c>
       <c r="DR3" t="n">
-        <v>550.0114135742188</v>
+        <v>559.6826171875</v>
       </c>
       <c r="DS3" t="n">
-        <v>550.0695190429688</v>
+        <v>551.5081787109375</v>
       </c>
       <c r="DT3" t="n">
-        <v>549.5000610351562</v>
+        <v>533.3138427734375</v>
       </c>
       <c r="DU3" t="n">
-        <v>548.5653076171875</v>
+        <v>524.8685913085938</v>
       </c>
       <c r="DV3" t="n">
-        <v>547.1600952148438</v>
+        <v>516.4208984375</v>
       </c>
       <c r="DW3" t="n">
-        <v>546.846435546875</v>
+        <v>500.3543395996094</v>
       </c>
       <c r="DX3" t="n">
-        <v>546.7194213867188</v>
+        <v>493.0848388671875</v>
       </c>
       <c r="DY3" t="n">
-        <v>546.1699829101562</v>
+        <v>488.7826538085938</v>
       </c>
       <c r="DZ3" t="n">
-        <v>546.0569458007812</v>
+        <v>487.9080505371094</v>
       </c>
       <c r="EA3" t="n">
-        <v>546.3712768554688</v>
+        <v>488.8786010742188</v>
       </c>
       <c r="EB3" t="n">
-        <v>546.771240234375</v>
+        <v>501.2606506347656</v>
       </c>
       <c r="EC3" t="n">
-        <v>546.6195068359375</v>
+        <v>508.8529052734375</v>
       </c>
       <c r="ED3" t="n">
-        <v>546.6162109375</v>
+        <v>523.22412109375</v>
       </c>
       <c r="EE3" t="n">
-        <v>546.648193359375</v>
+        <v>539.1798706054688</v>
       </c>
       <c r="EF3" t="n">
-        <v>546.8229370117188</v>
+        <v>542.8847045898438</v>
       </c>
       <c r="EG3" t="n">
-        <v>547.5751953125</v>
+        <v>559.479736328125</v>
       </c>
       <c r="EH3" t="n">
-        <v>548.7901611328125</v>
+        <v>577.8638305664062</v>
       </c>
       <c r="EI3" t="n">
-        <v>549.8008422851562</v>
+        <v>576.4559936523438</v>
       </c>
       <c r="EJ3" t="n">
-        <v>553.4471435546875</v>
+        <v>575.1085815429688</v>
       </c>
       <c r="EK3" t="n">
-        <v>557.4329833984375</v>
+        <v>574.758544921875</v>
       </c>
       <c r="EL3" t="n">
-        <v>563.4346923828125</v>
+        <v>572.1019897460938</v>
       </c>
       <c r="EM3" t="n">
-        <v>559.0849609375</v>
+        <v>565.5547485351562</v>
       </c>
       <c r="EN3" t="n">
-        <v>561.4996948242188</v>
+        <v>562.5975952148438</v>
       </c>
       <c r="EO3" t="n">
-        <v>564.5247192382812</v>
+        <v>560.4892578125</v>
       </c>
       <c r="EP3" t="n">
-        <v>565.6892700195312</v>
+        <v>560.844970703125</v>
       </c>
       <c r="EQ3" t="n">
-        <v>567.4458618164062</v>
+        <v>561.990234375</v>
       </c>
       <c r="ER3" t="n">
-        <v>566.9489135742188</v>
+        <v>562.987060546875</v>
       </c>
       <c r="ES3" t="n">
-        <v>566.403564453125</v>
+        <v>566.8740234375</v>
       </c>
       <c r="ET3" t="n">
-        <v>566.3724365234375</v>
+        <v>591.1638793945312</v>
       </c>
       <c r="EU3" t="n">
-        <v>566.1974487304688</v>
+        <v>609.5186767578125</v>
       </c>
       <c r="EV3" t="n">
-        <v>566.5491333007812</v>
+        <v>617.3794555664062</v>
       </c>
       <c r="EW3" t="n">
-        <v>567.2012939453125</v>
+        <v>624.1002197265625</v>
       </c>
       <c r="EX3" t="n">
-        <v>568.2853393554688</v>
+        <v>632.4191284179688</v>
       </c>
       <c r="EY3" t="n">
-        <v>569.406494140625</v>
+        <v>642.037353515625</v>
       </c>
       <c r="EZ3" t="n">
-        <v>572.3740234375</v>
+        <v>646.4727172851562</v>
       </c>
       <c r="FA3" t="n">
-        <v>574.2067260742188</v>
+        <v>644.3032836914062</v>
       </c>
       <c r="FB3" t="n">
-        <v>574.6514282226562</v>
+        <v>641.3842163085938</v>
       </c>
       <c r="FC3" t="n">
-        <v>575.0953979492188</v>
+        <v>635.69482421875</v>
       </c>
       <c r="FD3" t="n">
-        <v>574.8306884765625</v>
+        <v>631.136474609375</v>
       </c>
       <c r="FE3" t="n">
-        <v>573.491455078125</v>
+        <v>619.2240600585938</v>
       </c>
       <c r="FF3" t="n">
-        <v>572.4212036132812</v>
+        <v>618.46826171875</v>
       </c>
       <c r="FG3" t="n">
-        <v>570.8594360351562</v>
+        <v>615.6240234375</v>
       </c>
       <c r="FH3" t="n">
-        <v>570.1209716796875</v>
+        <v>604.15673828125</v>
       </c>
       <c r="FI3" t="n">
-        <v>568.5161743164062</v>
+        <v>603.6123046875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>567.2413330078125</v>
+        <v>606.4108276367188</v>
       </c>
       <c r="FK3" t="n">
-        <v>567.126953125</v>
+        <v>609.5145874023438</v>
       </c>
       <c r="FL3" t="n">
-        <v>565.4757080078125</v>
+        <v>612.3568725585938</v>
       </c>
       <c r="FM3" t="n">
-        <v>564.4260864257812</v>
+        <v>620.988525390625</v>
       </c>
       <c r="FN3" t="n">
-        <v>559.1371459960938</v>
+        <v>625.4688720703125</v>
       </c>
       <c r="FO3" t="n">
-        <v>560.095703125</v>
+        <v>628.0625</v>
       </c>
       <c r="FP3" t="n">
-        <v>566.5341796875</v>
+        <v>633.5358276367188</v>
       </c>
       <c r="FQ3" t="n">
-        <v>573.4060668945312</v>
+        <v>649.8588256835938</v>
       </c>
       <c r="FR3" t="n">
-        <v>575.8692016601562</v>
+        <v>654.8095703125</v>
       </c>
       <c r="FS3" t="n">
-        <v>582.782470703125</v>
+        <v>656.67626953125</v>
       </c>
       <c r="FT3" t="n">
-        <v>594.4622192382812</v>
+        <v>661.735107421875</v>
       </c>
       <c r="FU3" t="n">
-        <v>600.1864624023438</v>
+        <v>660.1768188476562</v>
       </c>
       <c r="FV3" t="n">
-        <v>601.908935546875</v>
+        <v>691.494873046875</v>
       </c>
       <c r="FW3" t="n">
-        <v>604.5292358398438</v>
+        <v>702.276123046875</v>
       </c>
       <c r="FX3" t="n">
-        <v>605.1118774414062</v>
+        <v>709.7772827148438</v>
       </c>
       <c r="FY3" t="n">
-        <v>603.5543212890625</v>
+        <v>736.0476684570312</v>
       </c>
       <c r="FZ3" t="n">
-        <v>599.8992309570312</v>
+        <v>736.6965942382812</v>
       </c>
       <c r="GA3" t="n">
-        <v>600.0938110351562</v>
+        <v>777.7136840820312</v>
       </c>
       <c r="GB3" t="n">
-        <v>601.5648193359375</v>
+        <v>796.764892578125</v>
       </c>
       <c r="GC3" t="n">
-        <v>603.0477905273438</v>
+        <v>818.5501708984375</v>
       </c>
       <c r="GD3" t="n">
-        <v>608.8076171875</v>
+        <v>819.8115844726562</v>
       </c>
       <c r="GE3" t="n">
-        <v>610.8500366210938</v>
+        <v>818.670166015625</v>
       </c>
       <c r="GF3" t="n">
-        <v>614.411865234375</v>
+        <v>779.5094604492188</v>
       </c>
       <c r="GG3" t="n">
-        <v>628.4105834960938</v>
+        <v>776.4691772460938</v>
       </c>
       <c r="GH3" t="n">
-        <v>637.3123168945312</v>
+        <v>790.8987426757812</v>
       </c>
       <c r="GI3" t="n">
-        <v>637.6298828125</v>
+        <v>795.8604736328125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>652.568603515625</v>
+        <v>798.0379028320312</v>
       </c>
       <c r="GK3" t="n">
-        <v>661.49951171875</v>
+        <v>797.3165283203125</v>
       </c>
       <c r="GL3" t="n">
-        <v>665.4821166992188</v>
+        <v>795.0199584960938</v>
       </c>
       <c r="GM3" t="n">
-        <v>674.3584594726562</v>
+        <v>794.8359985351562</v>
       </c>
       <c r="GN3" t="n">
-        <v>674.6080322265625</v>
+        <v>818.78076171875</v>
       </c>
       <c r="GO3" t="n">
-        <v>682.1010131835938</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>692.072265625</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>697.375244140625</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>713.4077758789062</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>728.09033203125</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>739.6677856445312</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>771.8906860351562</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>784.9202270507812</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>794.6598510742188</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>807.7891845703125</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>885.998779296875</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>923.6248779296875</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>1001.300903320312</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>1014.554077148438</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>1006.683227539062</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>980.2594604492188</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>962.8777465820312</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>955.8574829101562</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>936.0634155273438</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>980.643310546875</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>985.700927734375</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>950.80517578125</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>851.7197875976562</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>982.677734375</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>1053.267944335938</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>1076.7744140625</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>1067.877319335938</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>1070.6005859375</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>1083.614868164062</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>1098.777709960938</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>1088.349365234375</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>1092.640502929688</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>1095.435546875</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>956.0435791015625</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>955.9933471679688</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>954.8684692382812</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>954.3308715820312</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>954.3240356445312</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>954.4683227539062</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>1081.416625976562</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>1074.498657226562</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>1063.597900390625</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>1062.7236328125</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1053.610107421875</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>1045.42919921875</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>1045.0517578125</v>
-      </c>
-      <c r="II3" t="n">
-        <v>1040.288452148438</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>1037.303466796875</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>1035.749877929688</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>1035.968139648438</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>1036.436645507812</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1036.2197265625</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>1038.263305664062</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>1039.697387695312</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1040.962280273438</v>
+        <v>837.5286865234375</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1294.062255859375</v>
+        <v>1009.883666992188</v>
       </c>
       <c r="C4" t="n">
-        <v>1285.595336914062</v>
+        <v>1033.908813476562</v>
       </c>
       <c r="D4" t="n">
-        <v>1286.918579101562</v>
+        <v>1028.939697265625</v>
       </c>
       <c r="E4" t="n">
-        <v>1283.603149414062</v>
+        <v>1029.765869140625</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.989501953125</v>
+        <v>1028.98046875</v>
       </c>
       <c r="G4" t="n">
-        <v>1272.95654296875</v>
+        <v>1028.410400390625</v>
       </c>
       <c r="H4" t="n">
-        <v>948.9044799804688</v>
+        <v>1028.528442382812</v>
       </c>
       <c r="I4" t="n">
-        <v>946.5178833007812</v>
+        <v>1028.580932617188</v>
       </c>
       <c r="J4" t="n">
-        <v>933.0560913085938</v>
+        <v>1028.660400390625</v>
       </c>
       <c r="K4" t="n">
-        <v>917.5524291992188</v>
+        <v>1028.79248046875</v>
       </c>
       <c r="L4" t="n">
-        <v>899.755615234375</v>
+        <v>1029.01220703125</v>
       </c>
       <c r="M4" t="n">
-        <v>899.3411865234375</v>
+        <v>1029.151245117188</v>
       </c>
       <c r="N4" t="n">
-        <v>906.725341796875</v>
+        <v>1029.06396484375</v>
       </c>
       <c r="O4" t="n">
-        <v>915.36083984375</v>
+        <v>1028.977172851562</v>
       </c>
       <c r="P4" t="n">
-        <v>900.7516479492188</v>
+        <v>1029.099487304688</v>
       </c>
       <c r="Q4" t="n">
-        <v>878.9318237304688</v>
+        <v>1029.188598632812</v>
       </c>
       <c r="R4" t="n">
-        <v>853.4140014648438</v>
+        <v>1029.05029296875</v>
       </c>
       <c r="S4" t="n">
-        <v>1218.468994140625</v>
+        <v>1028.851806640625</v>
       </c>
       <c r="T4" t="n">
-        <v>1215.894653320312</v>
+        <v>1028.871337890625</v>
       </c>
       <c r="U4" t="n">
-        <v>1211.949951171875</v>
+        <v>1028.855346679688</v>
       </c>
       <c r="V4" t="n">
-        <v>1207.5009765625</v>
+        <v>1028.85400390625</v>
       </c>
       <c r="W4" t="n">
-        <v>1204.550903320312</v>
+        <v>1028.913452148438</v>
       </c>
       <c r="X4" t="n">
-        <v>1204.35107421875</v>
+        <v>1028.911865234375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1202.36279296875</v>
+        <v>1028.91015625</v>
       </c>
       <c r="Z4" t="n">
-        <v>1196.58251953125</v>
+        <v>1028.908325195312</v>
       </c>
       <c r="AA4" t="n">
-        <v>1185.9580078125</v>
+        <v>1028.943969726562</v>
       </c>
       <c r="AB4" t="n">
-        <v>1178.275390625</v>
+        <v>1028.991333007812</v>
       </c>
       <c r="AC4" t="n">
-        <v>912.6780395507812</v>
+        <v>1029.094482421875</v>
       </c>
       <c r="AD4" t="n">
-        <v>916.9849243164062</v>
+        <v>1029.371826171875</v>
       </c>
       <c r="AE4" t="n">
-        <v>915.516845703125</v>
+        <v>1029.713623046875</v>
       </c>
       <c r="AF4" t="n">
-        <v>908.6121826171875</v>
+        <v>1030.0439453125</v>
       </c>
       <c r="AG4" t="n">
-        <v>887.6934814453125</v>
+        <v>1030.413818359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>885.4732666015625</v>
+        <v>1030.698852539062</v>
       </c>
       <c r="AI4" t="n">
-        <v>879.1764526367188</v>
+        <v>1031.461059570312</v>
       </c>
       <c r="AJ4" t="n">
-        <v>875.4555053710938</v>
+        <v>1032.114135742188</v>
       </c>
       <c r="AK4" t="n">
-        <v>859.4000244140625</v>
+        <v>1032.798828125</v>
       </c>
       <c r="AL4" t="n">
-        <v>825.3677368164062</v>
+        <v>1034.533813476562</v>
       </c>
       <c r="AM4" t="n">
-        <v>796.894775390625</v>
+        <v>1034.383911132812</v>
       </c>
       <c r="AN4" t="n">
-        <v>780.8652954101562</v>
+        <v>1034.320556640625</v>
       </c>
       <c r="AO4" t="n">
-        <v>780.7315063476562</v>
+        <v>1034.199462890625</v>
       </c>
       <c r="AP4" t="n">
-        <v>1119.866333007812</v>
+        <v>1034.212280273438</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1115.578735351562</v>
+        <v>1034.633544921875</v>
       </c>
       <c r="AR4" t="n">
-        <v>1112.181274414062</v>
+        <v>1034.320434570312</v>
       </c>
       <c r="AS4" t="n">
-        <v>1106.609375</v>
+        <v>1034.224853515625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1102.114501953125</v>
+        <v>1035.202758789062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1100.950073242188</v>
+        <v>1035.77880859375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1100.287719726562</v>
+        <v>1035.743286132812</v>
       </c>
       <c r="AW4" t="n">
-        <v>1098.494750976562</v>
+        <v>1036.6015625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1096.928344726562</v>
+        <v>1036.611328125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1095.427612304688</v>
+        <v>1038.912719726562</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1093.72412109375</v>
+        <v>1045.605590820312</v>
       </c>
       <c r="BA4" t="n">
-        <v>1091.415893554688</v>
+        <v>1060.684204101562</v>
       </c>
       <c r="BB4" t="n">
-        <v>1088.69775390625</v>
+        <v>1073.336547851562</v>
       </c>
       <c r="BC4" t="n">
-        <v>1086.29638671875</v>
+        <v>1080.813720703125</v>
       </c>
       <c r="BD4" t="n">
-        <v>1084.296875</v>
+        <v>1082.906127929688</v>
       </c>
       <c r="BE4" t="n">
-        <v>1084.145141601562</v>
+        <v>1086.175048828125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1084.422729492188</v>
+        <v>1090.187744140625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1084.509887695312</v>
+        <v>1092.628051757812</v>
       </c>
       <c r="BH4" t="n">
-        <v>1084.500366210938</v>
+        <v>1099.774291992188</v>
       </c>
       <c r="BI4" t="n">
-        <v>1084.860229492188</v>
+        <v>1099.6806640625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1084.520751953125</v>
+        <v>1098.88916015625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1083.742309570312</v>
+        <v>1098.017944335938</v>
       </c>
       <c r="BL4" t="n">
-        <v>1082.506103515625</v>
+        <v>1098.535400390625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1080.56298828125</v>
+        <v>1099.172973632812</v>
       </c>
       <c r="BN4" t="n">
-        <v>1077.083251953125</v>
+        <v>1096.449951171875</v>
       </c>
       <c r="BO4" t="n">
-        <v>1071.071411132812</v>
+        <v>1094.737548828125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1063.203125</v>
+        <v>1088.790283203125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1054.256958007812</v>
+        <v>1085.283203125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1048.933349609375</v>
+        <v>1081.3837890625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1041.47119140625</v>
+        <v>1081.134643554688</v>
       </c>
       <c r="BT4" t="n">
-        <v>1038.143188476562</v>
+        <v>1077.619995117188</v>
       </c>
       <c r="BU4" t="n">
-        <v>1038.591674804688</v>
+        <v>1075.677856445312</v>
       </c>
       <c r="BV4" t="n">
-        <v>1038.671997070312</v>
+        <v>1075.358520507812</v>
       </c>
       <c r="BW4" t="n">
-        <v>1037.258056640625</v>
+        <v>1076.316040039062</v>
       </c>
       <c r="BX4" t="n">
-        <v>1034.187744140625</v>
+        <v>1076.624877929688</v>
       </c>
       <c r="BY4" t="n">
-        <v>1031.00439453125</v>
+        <v>1077.185302734375</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1028.029418945312</v>
+        <v>1076.66015625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1027.584838867188</v>
+        <v>1077.271606445312</v>
       </c>
       <c r="CB4" t="n">
-        <v>1026.79931640625</v>
+        <v>1078.384643554688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1023.314514160156</v>
+        <v>1079.59326171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1015.616149902344</v>
+        <v>1080.994506835938</v>
       </c>
       <c r="CE4" t="n">
-        <v>999.5664672851562</v>
+        <v>1083.129760742188</v>
       </c>
       <c r="CF4" t="n">
-        <v>987.6178588867188</v>
+        <v>1085.9541015625</v>
       </c>
       <c r="CG4" t="n">
-        <v>988.93359375</v>
+        <v>1087.41552734375</v>
       </c>
       <c r="CH4" t="n">
-        <v>992.3262329101562</v>
+        <v>1087.203979492188</v>
       </c>
       <c r="CI4" t="n">
-        <v>996.8176879882812</v>
+        <v>1087.700805664062</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1001.234619140625</v>
+        <v>1088.50439453125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1003.951965332031</v>
+        <v>1090.305297851562</v>
       </c>
       <c r="CL4" t="n">
-        <v>1009.118530273438</v>
+        <v>1091.879150390625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1010.6669921875</v>
+        <v>1095.480590820312</v>
       </c>
       <c r="CN4" t="n">
-        <v>1010.738037109375</v>
+        <v>1104.545166015625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1012.254028320312</v>
+        <v>1110.22802734375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1013.15966796875</v>
+        <v>1113.394775390625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1013.785827636719</v>
+        <v>1114.773193359375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1014.524658203125</v>
+        <v>1111.344970703125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1015.236755371094</v>
+        <v>1111.726196289062</v>
       </c>
       <c r="CT4" t="n">
-        <v>1015.733825683594</v>
+        <v>1111.714111328125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1016.912231445312</v>
+        <v>1109.893188476562</v>
       </c>
       <c r="CV4" t="n">
-        <v>1018.710205078125</v>
+        <v>1110.057250976562</v>
       </c>
       <c r="CW4" t="n">
-        <v>1020.556335449219</v>
+        <v>1105.529418945312</v>
       </c>
       <c r="CX4" t="n">
-        <v>1020.263488769531</v>
+        <v>1107.70947265625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1019.772277832031</v>
+        <v>1107.438842773438</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1019.415893554688</v>
+        <v>1107.790649414062</v>
       </c>
       <c r="DA4" t="n">
-        <v>1019.213012695312</v>
+        <v>1109.296997070312</v>
       </c>
       <c r="DB4" t="n">
-        <v>1019.006896972656</v>
+        <v>1107.924438476562</v>
       </c>
       <c r="DC4" t="n">
-        <v>1018.455810546875</v>
+        <v>1107.177978515625</v>
       </c>
       <c r="DD4" t="n">
-        <v>1017.180114746094</v>
+        <v>1107.031372070312</v>
       </c>
       <c r="DE4" t="n">
-        <v>1015.847290039062</v>
+        <v>1108.540893554688</v>
       </c>
       <c r="DF4" t="n">
-        <v>1016.083129882812</v>
+        <v>1109.231079101562</v>
       </c>
       <c r="DG4" t="n">
-        <v>1017.28515625</v>
+        <v>1110.696411132812</v>
       </c>
       <c r="DH4" t="n">
-        <v>1017.483093261719</v>
+        <v>1109.296142578125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1017.840698242188</v>
+        <v>1106.670654296875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1017.857543945312</v>
+        <v>1102.447875976562</v>
       </c>
       <c r="DK4" t="n">
-        <v>1017.965942382812</v>
+        <v>1094.597534179688</v>
       </c>
       <c r="DL4" t="n">
-        <v>1019.353210449219</v>
+        <v>1082.260620117188</v>
       </c>
       <c r="DM4" t="n">
-        <v>1020.666442871094</v>
+        <v>1077.224975585938</v>
       </c>
       <c r="DN4" t="n">
-        <v>1021.330688476562</v>
+        <v>1071.951416015625</v>
       </c>
       <c r="DO4" t="n">
-        <v>1020.573486328125</v>
+        <v>1058.140747070312</v>
       </c>
       <c r="DP4" t="n">
-        <v>1019.654113769531</v>
+        <v>1052.068969726562</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1018.721862792969</v>
+        <v>1048.083984375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1018.616088867188</v>
+        <v>1049.56494140625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1018.526733398438</v>
+        <v>1051.860473632812</v>
       </c>
       <c r="DT4" t="n">
-        <v>1019.317077636719</v>
+        <v>1069.2958984375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1020.67919921875</v>
+        <v>1086.736328125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1023.056579589844</v>
+        <v>1097.5126953125</v>
       </c>
       <c r="DW4" t="n">
-        <v>1023.78662109375</v>
+        <v>1115.88037109375</v>
       </c>
       <c r="DX4" t="n">
-        <v>1024.280517578125</v>
+        <v>1123.16845703125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1025.870239257812</v>
+        <v>1135.238159179688</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1026.289306640625</v>
+        <v>1139.98291015625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1025.814697265625</v>
+        <v>1145.654663085938</v>
       </c>
       <c r="EB4" t="n">
-        <v>1025.120727539062</v>
+        <v>1149.641723632812</v>
       </c>
       <c r="EC4" t="n">
-        <v>1025.429565429688</v>
+        <v>1153.91259765625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1025.455444335938</v>
+        <v>1162.365112304688</v>
       </c>
       <c r="EE4" t="n">
-        <v>1025.434692382812</v>
+        <v>1181.549926757812</v>
       </c>
       <c r="EF4" t="n">
-        <v>1025.2900390625</v>
+        <v>1190.282592773438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1025.071166992188</v>
+        <v>1195.646240234375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1024.759887695312</v>
+        <v>1205.66845703125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1024.531494140625</v>
+        <v>1222.179809570312</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1024.173583984375</v>
+        <v>1239.556640625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1024.248168945312</v>
+        <v>1253.386108398438</v>
       </c>
       <c r="EL4" t="n">
-        <v>1023.631591796875</v>
+        <v>1264.41796875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1022.231384277344</v>
+        <v>1277.427368164062</v>
       </c>
       <c r="EN4" t="n">
-        <v>1021.732482910156</v>
+        <v>1282.208984375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1018.946228027344</v>
+        <v>1285.138671875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1013.750244140625</v>
+        <v>1283.137817382812</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1005.958435058594</v>
+        <v>1278.700439453125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1006.865295410156</v>
+        <v>1275.220825195312</v>
       </c>
       <c r="ES4" t="n">
-        <v>1009.013549804688</v>
+        <v>1273.29345703125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1010.33544921875</v>
+        <v>1273.000122070312</v>
       </c>
       <c r="EU4" t="n">
-        <v>1010.927795410156</v>
+        <v>1273.400512695312</v>
       </c>
       <c r="EV4" t="n">
-        <v>1009.982055664062</v>
+        <v>1274.670043945312</v>
       </c>
       <c r="EW4" t="n">
-        <v>1008.7373046875</v>
+        <v>1272.399780273438</v>
       </c>
       <c r="EX4" t="n">
-        <v>1006.774169921875</v>
+        <v>1252.759155273438</v>
       </c>
       <c r="EY4" t="n">
-        <v>1005.36962890625</v>
+        <v>1229.811279296875</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1002.508850097656</v>
+        <v>1219.12109375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1002.328857421875</v>
+        <v>1223.768310546875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1002.360900878906</v>
+        <v>1226.800415039062</v>
       </c>
       <c r="FC4" t="n">
-        <v>1003.461608886719</v>
+        <v>1213.917602539062</v>
       </c>
       <c r="FD4" t="n">
-        <v>1004.838195800781</v>
+        <v>1213.974243164062</v>
       </c>
       <c r="FE4" t="n">
-        <v>1006.939819335938</v>
+        <v>1201.737060546875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1008.333435058594</v>
+        <v>1170.296875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1010.864501953125</v>
+        <v>1150.43359375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1010.186828613281</v>
+        <v>1146.218872070312</v>
       </c>
       <c r="FI4" t="n">
-        <v>1009.339599609375</v>
+        <v>1129.530517578125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1009.164855957031</v>
+        <v>1112.637939453125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1009.9501953125</v>
+        <v>1094.734252929688</v>
       </c>
       <c r="FL4" t="n">
-        <v>1008.865295410156</v>
+        <v>1085.595581054688</v>
       </c>
       <c r="FM4" t="n">
-        <v>1008.42919921875</v>
+        <v>1054.45703125</v>
       </c>
       <c r="FN4" t="n">
-        <v>1006.465454101562</v>
+        <v>1033.784423828125</v>
       </c>
       <c r="FO4" t="n">
-        <v>1003.911560058594</v>
+        <v>1028.680541992188</v>
       </c>
       <c r="FP4" t="n">
-        <v>984.4406127929688</v>
+        <v>1019.088562011719</v>
       </c>
       <c r="FQ4" t="n">
-        <v>963.6639404296875</v>
+        <v>978.3694458007812</v>
       </c>
       <c r="FR4" t="n">
-        <v>956.3375244140625</v>
+        <v>967.1168212890625</v>
       </c>
       <c r="FS4" t="n">
-        <v>937.6641235351562</v>
+        <v>952.9789428710938</v>
       </c>
       <c r="FT4" t="n">
-        <v>907.1287231445312</v>
+        <v>935.544189453125</v>
       </c>
       <c r="FU4" t="n">
-        <v>892.389404296875</v>
+        <v>920.0918579101562</v>
       </c>
       <c r="FV4" t="n">
-        <v>887.6804809570312</v>
+        <v>891.5772094726562</v>
       </c>
       <c r="FW4" t="n">
-        <v>881.5064697265625</v>
+        <v>854.982177734375</v>
       </c>
       <c r="FX4" t="n">
-        <v>861.9537963867188</v>
+        <v>838.3828125</v>
       </c>
       <c r="FY4" t="n">
-        <v>855.82177734375</v>
+        <v>787.1249389648438</v>
       </c>
       <c r="FZ4" t="n">
-        <v>856.3500366210938</v>
+        <v>774.5311279296875</v>
       </c>
       <c r="GA4" t="n">
-        <v>856.553955078125</v>
+        <v>672.3765258789062</v>
       </c>
       <c r="GB4" t="n">
-        <v>854.8143310546875</v>
+        <v>644.97021484375</v>
       </c>
       <c r="GC4" t="n">
-        <v>852.447509765625</v>
+        <v>648.8009033203125</v>
       </c>
       <c r="GD4" t="n">
-        <v>840.4308471679688</v>
+        <v>659.7059326171875</v>
       </c>
       <c r="GE4" t="n">
-        <v>834.538330078125</v>
+        <v>666.7905883789062</v>
       </c>
       <c r="GF4" t="n">
-        <v>806.280029296875</v>
+        <v>730.3939819335938</v>
       </c>
       <c r="GG4" t="n">
-        <v>779.5066528320312</v>
+        <v>727.7171020507812</v>
       </c>
       <c r="GH4" t="n">
-        <v>761.8516235351562</v>
+        <v>705.513427734375</v>
       </c>
       <c r="GI4" t="n">
-        <v>758.281005859375</v>
+        <v>697.0924682617188</v>
       </c>
       <c r="GJ4" t="n">
-        <v>729.844482421875</v>
+        <v>692.031494140625</v>
       </c>
       <c r="GK4" t="n">
-        <v>712.1026611328125</v>
+        <v>690.9818725585938</v>
       </c>
       <c r="GL4" t="n">
-        <v>701.8356323242188</v>
+        <v>691.3093872070312</v>
       </c>
       <c r="GM4" t="n">
-        <v>682.5596923828125</v>
+        <v>682.0769653320312</v>
       </c>
       <c r="GN4" t="n">
-        <v>678.78466796875</v>
+        <v>650.9898071289062</v>
       </c>
       <c r="GO4" t="n">
-        <v>664.7765502929688</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>649.9769287109375</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>645.0136108398438</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>627.8679809570312</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>611.492919921875</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>607.319580078125</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>599.3572387695312</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>594.0203857421875</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>584.9365844726562</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>578.0617065429688</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>582.1583862304688</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>564.6661987304688</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>506.1108093261719</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>505.9726257324219</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>510.7134399414062</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>526.9121704101562</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>537.7938232421875</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>542.4136962890625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>606.948486328125</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>580.2902221679688</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>580.4644165039062</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>589.5363159179688</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>659.034912109375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>588.301513671875</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>532.9008178710938</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>511.9520874023438</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>519.111328125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>519.9722900390625</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>514.2279663085938</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>497.9119873046875</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>486.3022155761719</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>481.9593200683594</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>479.3165893554688</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>584.2782592773438</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>584.564697265625</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>589.5704956054688</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>591.262451171875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>591.1509399414062</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>590.0728149414062</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>493.5108032226562</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>496.5312805175781</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>503.353515625</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>503.6179504394531</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>488.8843994140625</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>480.7832946777344</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>481.0040588378906</v>
-      </c>
-      <c r="II4" t="n">
-        <v>483.6954956054688</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>485.3944702148438</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>486.259765625</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>486.1063537597656</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>485.7912292480469</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>485.892822265625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>484.6371154785156</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>483.7568664550781</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>482.9771728515625</v>
+        <v>634.9498901367188</v>
       </c>
     </row>
   </sheetData>

--- a/left_knee_Data.xlsx
+++ b/left_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>264.8307800292969</v>
       </c>
       <c r="B2" t="n">
-        <v>406.2979736328125</v>
+        <v>264.7064819335938</v>
       </c>
       <c r="C2" t="n">
-        <v>397.9762573242188</v>
+        <v>264.75927734375</v>
       </c>
       <c r="D2" t="n">
-        <v>397.4781799316406</v>
+        <v>264.8166809082031</v>
       </c>
       <c r="E2" t="n">
-        <v>396.545654296875</v>
+        <v>264.899169921875</v>
       </c>
       <c r="F2" t="n">
-        <v>396.8755493164062</v>
+        <v>264.9577331542969</v>
       </c>
       <c r="G2" t="n">
-        <v>397.4492797851562</v>
+        <v>264.9839172363281</v>
       </c>
       <c r="H2" t="n">
-        <v>397.8313598632812</v>
+        <v>265.0387878417969</v>
       </c>
       <c r="I2" t="n">
-        <v>398.1913452148438</v>
+        <v>265.13427734375</v>
       </c>
       <c r="J2" t="n">
-        <v>398.6260375976562</v>
+        <v>265.2203369140625</v>
       </c>
       <c r="K2" t="n">
-        <v>398.0794677734375</v>
+        <v>265.2728576660156</v>
       </c>
       <c r="L2" t="n">
-        <v>397.6067810058594</v>
+        <v>265.4422302246094</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2315979003906</v>
+        <v>265.6182556152344</v>
       </c>
       <c r="N2" t="n">
-        <v>396.7768859863281</v>
+        <v>265.7499084472656</v>
       </c>
       <c r="O2" t="n">
-        <v>396.50244140625</v>
+        <v>265.8767395019531</v>
       </c>
       <c r="P2" t="n">
-        <v>396.1583862304688</v>
+        <v>265.8952941894531</v>
       </c>
       <c r="Q2" t="n">
-        <v>395.8448486328125</v>
+        <v>265.3544921875</v>
       </c>
       <c r="R2" t="n">
-        <v>395.5880737304688</v>
+        <v>264.7079162597656</v>
       </c>
       <c r="S2" t="n">
-        <v>395.3680725097656</v>
+        <v>266.274658203125</v>
       </c>
       <c r="T2" t="n">
-        <v>395.1585693359375</v>
+        <v>266.0032958984375</v>
       </c>
       <c r="U2" t="n">
-        <v>394.96630859375</v>
+        <v>264.6439819335938</v>
       </c>
       <c r="V2" t="n">
-        <v>394.806640625</v>
+        <v>261.4276733398438</v>
       </c>
       <c r="W2" t="n">
-        <v>394.6769409179688</v>
+        <v>259.7080688476562</v>
       </c>
       <c r="X2" t="n">
-        <v>394.5726318359375</v>
+        <v>263.8031005859375</v>
       </c>
       <c r="Y2" t="n">
-        <v>394.487060546875</v>
+        <v>271.7049560546875</v>
       </c>
       <c r="Z2" t="n">
-        <v>394.4102172851562</v>
+        <v>278.5283203125</v>
       </c>
       <c r="AA2" t="n">
-        <v>394.304931640625</v>
+        <v>283.8299560546875</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.1277465820312</v>
+        <v>288.3672180175781</v>
       </c>
       <c r="AC2" t="n">
-        <v>394.0032653808594</v>
+        <v>290.7447204589844</v>
       </c>
       <c r="AD2" t="n">
-        <v>393.9871826171875</v>
+        <v>291.7364501953125</v>
       </c>
       <c r="AE2" t="n">
-        <v>393.8752746582031</v>
+        <v>292.09423828125</v>
       </c>
       <c r="AF2" t="n">
-        <v>393.7408142089844</v>
+        <v>292.1664428710938</v>
       </c>
       <c r="AG2" t="n">
-        <v>393.5472412109375</v>
+        <v>293.6059875488281</v>
       </c>
       <c r="AH2" t="n">
-        <v>393.3751220703125</v>
+        <v>295.7304992675781</v>
       </c>
       <c r="AI2" t="n">
-        <v>393.1976318359375</v>
+        <v>298.1957397460938</v>
       </c>
       <c r="AJ2" t="n">
-        <v>393.0389404296875</v>
+        <v>299.1091613769531</v>
       </c>
       <c r="AK2" t="n">
-        <v>392.876220703125</v>
+        <v>300.3394470214844</v>
       </c>
       <c r="AL2" t="n">
-        <v>392.5148315429688</v>
+        <v>302.5678100585938</v>
       </c>
       <c r="AM2" t="n">
-        <v>392.37060546875</v>
+        <v>304.6680603027344</v>
       </c>
       <c r="AN2" t="n">
-        <v>392.3155517578125</v>
+        <v>307.7423095703125</v>
       </c>
       <c r="AO2" t="n">
-        <v>392.2687377929688</v>
+        <v>309.7982177734375</v>
       </c>
       <c r="AP2" t="n">
-        <v>392.136962890625</v>
+        <v>314.86767578125</v>
       </c>
       <c r="AQ2" t="n">
-        <v>393.7698364257812</v>
+        <v>318.8474426269531</v>
       </c>
       <c r="AR2" t="n">
-        <v>400.542236328125</v>
+        <v>318.2940063476562</v>
       </c>
       <c r="AS2" t="n">
-        <v>404.8074951171875</v>
+        <v>313.4598083496094</v>
       </c>
       <c r="AT2" t="n">
-        <v>416.8765869140625</v>
+        <v>310.4355773925781</v>
       </c>
       <c r="AU2" t="n">
-        <v>422.2095336914062</v>
+        <v>312.914794921875</v>
       </c>
       <c r="AV2" t="n">
-        <v>425.0031127929688</v>
+        <v>320.4692993164062</v>
       </c>
       <c r="AW2" t="n">
-        <v>428.220458984375</v>
+        <v>327.8848266601562</v>
       </c>
       <c r="AX2" t="n">
-        <v>431.7645874023438</v>
+        <v>334.1226806640625</v>
       </c>
       <c r="AY2" t="n">
-        <v>437.0352783203125</v>
+        <v>336.2561645507812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>444.3481750488281</v>
+        <v>335.346435546875</v>
       </c>
       <c r="BA2" t="n">
-        <v>449.8859252929688</v>
+        <v>334.3379211425781</v>
       </c>
       <c r="BB2" t="n">
-        <v>453.3447875976562</v>
+        <v>334.9705200195312</v>
       </c>
       <c r="BC2" t="n">
-        <v>456.64697265625</v>
+        <v>334.9517517089844</v>
       </c>
       <c r="BD2" t="n">
-        <v>459.6520385742188</v>
+        <v>288.4194946289062</v>
       </c>
       <c r="BE2" t="n">
-        <v>462.880615234375</v>
+        <v>298.4217529296875</v>
       </c>
       <c r="BF2" t="n">
-        <v>464.4462280273438</v>
+        <v>305.694580078125</v>
       </c>
       <c r="BG2" t="n">
-        <v>464.3485107421875</v>
+        <v>315.209716796875</v>
       </c>
       <c r="BH2" t="n">
-        <v>462.6997375488281</v>
+        <v>325.2675170898438</v>
       </c>
       <c r="BI2" t="n">
-        <v>460.55615234375</v>
+        <v>342.35009765625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>446.9792175292969</v>
+        <v>347.2611083984375</v>
       </c>
       <c r="BK2" t="n">
-        <v>435.3753051757812</v>
+        <v>353.000732421875</v>
       </c>
       <c r="BL2" t="n">
-        <v>427.8417663574219</v>
+        <v>359.9617919921875</v>
       </c>
       <c r="BM2" t="n">
-        <v>415.2249755859375</v>
+        <v>367.3134155273438</v>
       </c>
       <c r="BN2" t="n">
-        <v>409.0946655273438</v>
+        <v>371.0196533203125</v>
       </c>
       <c r="BO2" t="n">
-        <v>402.5860290527344</v>
+        <v>368.0202026367188</v>
       </c>
       <c r="BP2" t="n">
-        <v>394.4623107910156</v>
+        <v>367.207763671875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>386.7353820800781</v>
+        <v>370.2880554199219</v>
       </c>
       <c r="BR2" t="n">
-        <v>379.1583251953125</v>
+        <v>372.2066040039062</v>
       </c>
       <c r="BS2" t="n">
-        <v>372.1743469238281</v>
+        <v>379.232177734375</v>
       </c>
       <c r="BT2" t="n">
-        <v>364.3123779296875</v>
+        <v>381.376708984375</v>
       </c>
       <c r="BU2" t="n">
-        <v>356.5614013671875</v>
+        <v>381.3855285644531</v>
       </c>
       <c r="BV2" t="n">
-        <v>349.1391296386719</v>
+        <v>380.2055053710938</v>
       </c>
       <c r="BW2" t="n">
-        <v>343.0166015625</v>
+        <v>382.3722839355469</v>
       </c>
       <c r="BX2" t="n">
-        <v>335.8815002441406</v>
+        <v>380.51953125</v>
       </c>
       <c r="BY2" t="n">
-        <v>331.0440063476562</v>
+        <v>380.5439453125</v>
       </c>
       <c r="BZ2" t="n">
-        <v>325.4523010253906</v>
+        <v>380.7891235351562</v>
       </c>
       <c r="CA2" t="n">
-        <v>319.9807434082031</v>
+        <v>381.5369262695312</v>
       </c>
       <c r="CB2" t="n">
-        <v>314.4186096191406</v>
+        <v>381.5472106933594</v>
       </c>
       <c r="CC2" t="n">
-        <v>309.3945007324219</v>
+        <v>380.7236328125</v>
       </c>
       <c r="CD2" t="n">
-        <v>305.8499450683594</v>
+        <v>380.2699584960938</v>
       </c>
       <c r="CE2" t="n">
-        <v>302.7714233398438</v>
+        <v>379.6860961914062</v>
       </c>
       <c r="CF2" t="n">
-        <v>300.9403991699219</v>
+        <v>379.302001953125</v>
       </c>
       <c r="CG2" t="n">
-        <v>299.3948059082031</v>
+        <v>379.0887145996094</v>
       </c>
       <c r="CH2" t="n">
-        <v>298.5540161132812</v>
+        <v>378.6990356445312</v>
       </c>
       <c r="CI2" t="n">
-        <v>298.5471496582031</v>
+        <v>378.467041015625</v>
       </c>
       <c r="CJ2" t="n">
-        <v>298.6991271972656</v>
+        <v>378.3035278320312</v>
       </c>
       <c r="CK2" t="n">
-        <v>298.7821350097656</v>
+        <v>378.7493896484375</v>
       </c>
       <c r="CL2" t="n">
-        <v>300.7178344726562</v>
+        <v>377.9149169921875</v>
       </c>
       <c r="CM2" t="n">
-        <v>304.4495849609375</v>
+        <v>377.1422729492188</v>
       </c>
       <c r="CN2" t="n">
-        <v>311.1258239746094</v>
+        <v>376.3907470703125</v>
       </c>
       <c r="CO2" t="n">
-        <v>317.842041015625</v>
+        <v>375.4920654296875</v>
       </c>
       <c r="CP2" t="n">
-        <v>323.9906311035156</v>
+        <v>375.7314758300781</v>
       </c>
       <c r="CQ2" t="n">
-        <v>330.5226135253906</v>
+        <v>376.5054626464844</v>
       </c>
       <c r="CR2" t="n">
-        <v>342.058349609375</v>
+        <v>376.2342529296875</v>
       </c>
       <c r="CS2" t="n">
-        <v>346.8788146972656</v>
+        <v>376.0928955078125</v>
       </c>
       <c r="CT2" t="n">
-        <v>351.7359619140625</v>
+        <v>376.2379455566406</v>
       </c>
       <c r="CU2" t="n">
-        <v>359.2173767089844</v>
+        <v>377.2301635742188</v>
       </c>
       <c r="CV2" t="n">
-        <v>369.2750549316406</v>
+        <v>376.341552734375</v>
       </c>
       <c r="CW2" t="n">
-        <v>376.4344787597656</v>
+        <v>373.9563293457031</v>
       </c>
       <c r="CX2" t="n">
-        <v>382.431396484375</v>
+        <v>371.3715209960938</v>
       </c>
       <c r="CY2" t="n">
-        <v>386.8485717773438</v>
+        <v>369.5823364257812</v>
       </c>
       <c r="CZ2" t="n">
-        <v>390.8297119140625</v>
+        <v>369.0695495605469</v>
       </c>
       <c r="DA2" t="n">
-        <v>396.5493774414062</v>
+        <v>368.0500793457031</v>
       </c>
       <c r="DB2" t="n">
-        <v>408.5664672851562</v>
+        <v>366.4578247070312</v>
       </c>
       <c r="DC2" t="n">
-        <v>414.0356140136719</v>
+        <v>365.3170166015625</v>
       </c>
       <c r="DD2" t="n">
-        <v>418.3147888183594</v>
+        <v>363.2144470214844</v>
       </c>
       <c r="DE2" t="n">
-        <v>422.1113891601562</v>
+        <v>362.2057495117188</v>
       </c>
       <c r="DF2" t="n">
-        <v>425.8499755859375</v>
+        <v>362.47705078125</v>
       </c>
       <c r="DG2" t="n">
-        <v>429.5000915527344</v>
+        <v>362.4112548828125</v>
       </c>
       <c r="DH2" t="n">
-        <v>432.5636596679688</v>
+        <v>362.2533874511719</v>
       </c>
       <c r="DI2" t="n">
-        <v>433.650634765625</v>
+        <v>362.2728881835938</v>
       </c>
       <c r="DJ2" t="n">
-        <v>434.9359130859375</v>
+        <v>362.2457275390625</v>
       </c>
       <c r="DK2" t="n">
-        <v>435.9952392578125</v>
+        <v>362.2247009277344</v>
       </c>
       <c r="DL2" t="n">
-        <v>437.0040893554688</v>
+        <v>362.2022705078125</v>
       </c>
       <c r="DM2" t="n">
-        <v>436.1724243164062</v>
+        <v>362.1901245117188</v>
       </c>
       <c r="DN2" t="n">
-        <v>433.5200805664062</v>
+        <v>362.1657104492188</v>
       </c>
       <c r="DO2" t="n">
-        <v>428.9236450195312</v>
+        <v>362.1511535644531</v>
       </c>
       <c r="DP2" t="n">
-        <v>425.7944030761719</v>
+        <v>362.1355895996094</v>
       </c>
       <c r="DQ2" t="n">
-        <v>417.9314880371094</v>
+        <v>362.1060485839844</v>
       </c>
       <c r="DR2" t="n">
-        <v>415.5872192382812</v>
+        <v>362.1178588867188</v>
       </c>
       <c r="DS2" t="n">
-        <v>413.2918090820312</v>
+        <v>362.1210327148438</v>
       </c>
       <c r="DT2" t="n">
-        <v>407.3126220703125</v>
+        <v>362.1355590820312</v>
       </c>
       <c r="DU2" t="n">
-        <v>403.17138671875</v>
+        <v>362.1460571289062</v>
       </c>
       <c r="DV2" t="n">
-        <v>399.3701782226562</v>
+        <v>362.1554870605469</v>
       </c>
       <c r="DW2" t="n">
-        <v>394.4256896972656</v>
+        <v>362.2169494628906</v>
       </c>
       <c r="DX2" t="n">
-        <v>392.5863952636719</v>
+        <v>362.2161254882812</v>
       </c>
       <c r="DY2" t="n">
-        <v>388.4591369628906</v>
+        <v>362.2406616210938</v>
       </c>
       <c r="DZ2" t="n">
-        <v>388.257568359375</v>
+        <v>362.458740234375</v>
       </c>
       <c r="EA2" t="n">
-        <v>388.5777282714844</v>
+        <v>362.5608520507812</v>
       </c>
       <c r="EB2" t="n">
-        <v>388.1600952148438</v>
+        <v>362.7588500976562</v>
       </c>
       <c r="EC2" t="n">
-        <v>387.0919189453125</v>
+        <v>363.2028503417969</v>
       </c>
       <c r="ED2" t="n">
-        <v>385.16796875</v>
+        <v>363.8307495117188</v>
       </c>
       <c r="EE2" t="n">
-        <v>384.0447998046875</v>
+        <v>367.4450073242188</v>
       </c>
       <c r="EF2" t="n">
-        <v>383.8329467773438</v>
+        <v>366.924560546875</v>
       </c>
       <c r="EG2" t="n">
-        <v>385.3587036132812</v>
+        <v>367.2793884277344</v>
       </c>
       <c r="EH2" t="n">
-        <v>389.5158081054688</v>
+        <v>367.0948791503906</v>
       </c>
       <c r="EI2" t="n">
-        <v>391.7459106445312</v>
+        <v>366.9837951660156</v>
       </c>
       <c r="EJ2" t="n">
-        <v>392.3946533203125</v>
+        <v>366.9026184082031</v>
       </c>
       <c r="EK2" t="n">
-        <v>393.2169189453125</v>
+        <v>366.8652038574219</v>
       </c>
       <c r="EL2" t="n">
-        <v>395.3874206542969</v>
+        <v>366.7886962890625</v>
       </c>
       <c r="EM2" t="n">
-        <v>402.8602294921875</v>
+        <v>366.7056884765625</v>
       </c>
       <c r="EN2" t="n">
-        <v>405.1207885742188</v>
+        <v>366.5844116210938</v>
       </c>
       <c r="EO2" t="n">
-        <v>407.1991577148438</v>
+        <v>366.3473205566406</v>
       </c>
       <c r="EP2" t="n">
-        <v>408.442626953125</v>
+        <v>366.066650390625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>410.7721557617188</v>
+        <v>366.1458740234375</v>
       </c>
       <c r="ER2" t="n">
-        <v>411.8569641113281</v>
+        <v>366.5352783203125</v>
       </c>
       <c r="ES2" t="n">
-        <v>410.8678588867188</v>
+        <v>366.786865234375</v>
       </c>
       <c r="ET2" t="n">
-        <v>398.5999755859375</v>
+        <v>367.61474609375</v>
       </c>
       <c r="EU2" t="n">
-        <v>383.5400085449219</v>
+        <v>368.0794677734375</v>
       </c>
       <c r="EV2" t="n">
-        <v>372.4130859375</v>
+        <v>367.9511108398438</v>
       </c>
       <c r="EW2" t="n">
-        <v>361.9967041015625</v>
+        <v>367.618408203125</v>
       </c>
       <c r="EX2" t="n">
-        <v>358.6593627929688</v>
+        <v>367.4873352050781</v>
       </c>
       <c r="EY2" t="n">
-        <v>352.3031005859375</v>
+        <v>367.4775390625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>337.3764038085938</v>
+        <v>367.5586242675781</v>
       </c>
       <c r="FA2" t="n">
-        <v>330.416259765625</v>
+        <v>367.552978515625</v>
       </c>
       <c r="FB2" t="n">
-        <v>328.5650024414062</v>
+        <v>367.5496826171875</v>
       </c>
       <c r="FC2" t="n">
-        <v>331.6224365234375</v>
+        <v>367.5418395996094</v>
       </c>
       <c r="FD2" t="n">
-        <v>333.9052124023438</v>
+        <v>367.4991149902344</v>
       </c>
       <c r="FE2" t="n">
-        <v>341.1700439453125</v>
+        <v>367.4542541503906</v>
       </c>
       <c r="FF2" t="n">
-        <v>346.1630554199219</v>
+        <v>367.396240234375</v>
       </c>
       <c r="FG2" t="n">
-        <v>348.3023681640625</v>
+        <v>367.3616027832031</v>
       </c>
       <c r="FH2" t="n">
-        <v>344.0377807617188</v>
+        <v>367.316162109375</v>
       </c>
       <c r="FI2" t="n">
-        <v>344.0736083984375</v>
+        <v>367.4609069824219</v>
       </c>
       <c r="FJ2" t="n">
-        <v>347.2289428710938</v>
+        <v>367.4735717773438</v>
       </c>
       <c r="FK2" t="n">
-        <v>357.5651550292969</v>
+        <v>367.4481811523438</v>
       </c>
       <c r="FL2" t="n">
-        <v>362.7178955078125</v>
+        <v>367.4718627929688</v>
       </c>
       <c r="FM2" t="n">
-        <v>373.0743713378906</v>
+        <v>367.4881286621094</v>
       </c>
       <c r="FN2" t="n">
-        <v>383.3453674316406</v>
+        <v>367.4635620117188</v>
       </c>
       <c r="FO2" t="n">
-        <v>386.6898803710938</v>
+        <v>367.4291381835938</v>
       </c>
       <c r="FP2" t="n">
-        <v>390.971923828125</v>
+        <v>367.4206237792969</v>
       </c>
       <c r="FQ2" t="n">
-        <v>402.8133544921875</v>
+        <v>367.4171752929688</v>
       </c>
       <c r="FR2" t="n">
-        <v>408.6678466796875</v>
+        <v>367.4288330078125</v>
       </c>
       <c r="FS2" t="n">
-        <v>414.95654296875</v>
+        <v>367.4422607421875</v>
       </c>
       <c r="FT2" t="n">
-        <v>419.6222534179688</v>
+        <v>367.36669921875</v>
       </c>
       <c r="FU2" t="n">
-        <v>422.127197265625</v>
+        <v>367.3659057617188</v>
       </c>
       <c r="FV2" t="n">
-        <v>414.8521728515625</v>
+        <v>367.4120788574219</v>
       </c>
       <c r="FW2" t="n">
-        <v>410.2412414550781</v>
+        <v>367.4616088867188</v>
       </c>
       <c r="FX2" t="n">
-        <v>406.3758544921875</v>
+        <v>367.8800048828125</v>
       </c>
       <c r="FY2" t="n">
-        <v>412.0198974609375</v>
+        <v>368.1272583007812</v>
       </c>
       <c r="FZ2" t="n">
-        <v>420.5562133789062</v>
+        <v>368.1528015136719</v>
       </c>
       <c r="GA2" t="n">
-        <v>459.4681396484375</v>
+        <v>367.7038269042969</v>
       </c>
       <c r="GB2" t="n">
-        <v>454.897705078125</v>
+        <v>367.2902221679688</v>
       </c>
       <c r="GC2" t="n">
-        <v>418.7083740234375</v>
+        <v>366.9359741210938</v>
       </c>
       <c r="GD2" t="n">
-        <v>399.7204284667969</v>
+        <v>367.108154296875</v>
       </c>
       <c r="GE2" t="n">
-        <v>368.2762145996094</v>
+        <v>367.1788940429688</v>
       </c>
       <c r="GF2" t="n">
-        <v>355.7726440429688</v>
+        <v>367.3309936523438</v>
       </c>
       <c r="GG2" t="n">
-        <v>349.9096069335938</v>
+        <v>367.3741149902344</v>
       </c>
       <c r="GH2" t="n">
-        <v>348.6104125976562</v>
+        <v>367.4868469238281</v>
       </c>
       <c r="GI2" t="n">
-        <v>346.9801330566406</v>
+        <v>367.53857421875</v>
       </c>
       <c r="GJ2" t="n">
-        <v>342.3970947265625</v>
+        <v>367.6146850585938</v>
       </c>
       <c r="GK2" t="n">
-        <v>316.8436584472656</v>
+        <v>367.8358154296875</v>
       </c>
       <c r="GL2" t="n">
-        <v>312.1065979003906</v>
+        <v>367.9235534667969</v>
       </c>
       <c r="GM2" t="n">
-        <v>329.9971923828125</v>
+        <v>367.9247436523438</v>
       </c>
       <c r="GN2" t="n">
-        <v>331.4833984375</v>
+        <v>367.8259887695312</v>
       </c>
       <c r="GO2" t="n">
-        <v>322.546142578125</v>
+        <v>367.7727661132812</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>367.8079833984375</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>367.9044189453125</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>367.8861694335938</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>367.78271484375</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>367.380615234375</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>366.9310913085938</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>366.0478210449219</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>368.1068420410156</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>368.3687744140625</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>369.0372314453125</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>368.3566589355469</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>364.7008972167969</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>352.5079650878906</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>346.6139221191406</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>344.13671875</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>337.3119506835938</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>336.0723266601562</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>334.179443359375</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>334.4737548828125</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>335.4256591796875</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>336.2705078125</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>337.0357666015625</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>337.5852966308594</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>331.9512939453125</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>328.2595825195312</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>328.6983642578125</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>327.689697265625</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>325.0109558105469</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>327.2257080078125</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>332.394775390625</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>335.0421752929688</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>333.1365356445312</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>327.9151000976562</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>334.5307922363281</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>330.2439575195312</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>325.8458251953125</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>314.858642578125</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>311.5203857421875</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>302.97900390625</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>302.8749389648438</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>302.3351135253906</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>301.4857177734375</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>298.9691162109375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>277.6786499023438</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>333.0196838378906</v>
+      </c>
+      <c r="II2" t="n">
+        <v>338.7260131835938</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>341.343017578125</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>355.6210327148438</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>374.4315795898438</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>381.4135131835938</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>318.025146484375</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>302.7659301757812</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>263.4308471679688</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>255.4366149902344</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>263.5605773925781</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>304.7395324707031</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>306.5295715332031</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>281.6548156738281</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>255.7040710449219</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>247.7047882080078</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>231.9945068359375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>215.9483642578125</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>209.6717529296875</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>215.1541290283203</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>212.7854766845703</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>212.3967895507812</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>229.8115539550781</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>242.193115234375</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>271.9202270507812</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>300.7024230957031</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>317.3582458496094</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>314.500244140625</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>268.9737854003906</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>241.8323974609375</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>219.5613250732422</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>212.3080596923828</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>598.7744140625</v>
       </c>
       <c r="B3" t="n">
-        <v>645.5192260742188</v>
+        <v>599.1392211914062</v>
       </c>
       <c r="C3" t="n">
-        <v>625.0062255859375</v>
+        <v>599.0491333007812</v>
       </c>
       <c r="D3" t="n">
-        <v>610.5797119140625</v>
+        <v>598.975341796875</v>
       </c>
       <c r="E3" t="n">
-        <v>612.2556762695312</v>
+        <v>598.91943359375</v>
       </c>
       <c r="F3" t="n">
-        <v>613.81982421875</v>
+        <v>598.895263671875</v>
       </c>
       <c r="G3" t="n">
-        <v>616.7692260742188</v>
+        <v>598.93115234375</v>
       </c>
       <c r="H3" t="n">
-        <v>622.1420288085938</v>
+        <v>598.960205078125</v>
       </c>
       <c r="I3" t="n">
-        <v>625.0164794921875</v>
+        <v>598.9892578125</v>
       </c>
       <c r="J3" t="n">
-        <v>625.5823974609375</v>
+        <v>599.0206298828125</v>
       </c>
       <c r="K3" t="n">
-        <v>626.1196899414062</v>
+        <v>599.0994262695312</v>
       </c>
       <c r="L3" t="n">
-        <v>626.5150756835938</v>
+        <v>599.2529296875</v>
       </c>
       <c r="M3" t="n">
-        <v>626.7928466796875</v>
+        <v>599.3975219726562</v>
       </c>
       <c r="N3" t="n">
-        <v>627.2813720703125</v>
+        <v>599.6329345703125</v>
       </c>
       <c r="O3" t="n">
-        <v>626.6986694335938</v>
+        <v>599.6424560546875</v>
       </c>
       <c r="P3" t="n">
-        <v>626.5501098632812</v>
+        <v>599.7429809570312</v>
       </c>
       <c r="Q3" t="n">
-        <v>626.3621215820312</v>
+        <v>601.1519165039062</v>
       </c>
       <c r="R3" t="n">
-        <v>626.2791748046875</v>
+        <v>601.2781372070312</v>
       </c>
       <c r="S3" t="n">
-        <v>626.22607421875</v>
+        <v>596.1891479492188</v>
       </c>
       <c r="T3" t="n">
-        <v>626.088134765625</v>
+        <v>597.0001831054688</v>
       </c>
       <c r="U3" t="n">
-        <v>625.939453125</v>
+        <v>600.0086669921875</v>
       </c>
       <c r="V3" t="n">
-        <v>625.7844848632812</v>
+        <v>609.7827758789062</v>
       </c>
       <c r="W3" t="n">
-        <v>625.3961791992188</v>
+        <v>621.1607055664062</v>
       </c>
       <c r="X3" t="n">
-        <v>625.0034790039062</v>
+        <v>626.2978515625</v>
       </c>
       <c r="Y3" t="n">
-        <v>624.4998168945312</v>
+        <v>627.6865234375</v>
       </c>
       <c r="Z3" t="n">
-        <v>623.4993896484375</v>
+        <v>627.248046875</v>
       </c>
       <c r="AA3" t="n">
-        <v>622.4310302734375</v>
+        <v>626.5949096679688</v>
       </c>
       <c r="AB3" t="n">
-        <v>621.4095458984375</v>
+        <v>626.8404541015625</v>
       </c>
       <c r="AC3" t="n">
-        <v>619.5501708984375</v>
+        <v>626.81103515625</v>
       </c>
       <c r="AD3" t="n">
-        <v>616.9840698242188</v>
+        <v>629.4340209960938</v>
       </c>
       <c r="AE3" t="n">
-        <v>616.2846069335938</v>
+        <v>632.1163330078125</v>
       </c>
       <c r="AF3" t="n">
-        <v>615.71240234375</v>
+        <v>637.02001953125</v>
       </c>
       <c r="AG3" t="n">
-        <v>615.5831909179688</v>
+        <v>635.9013671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>615.4490356445312</v>
+        <v>631.04541015625</v>
       </c>
       <c r="AI3" t="n">
-        <v>614.9552612304688</v>
+        <v>625.3689575195312</v>
       </c>
       <c r="AJ3" t="n">
-        <v>614.4935913085938</v>
+        <v>623.6502685546875</v>
       </c>
       <c r="AK3" t="n">
-        <v>614.0665893554688</v>
+        <v>621.5680541992188</v>
       </c>
       <c r="AL3" t="n">
-        <v>613.1475219726562</v>
+        <v>618.27734375</v>
       </c>
       <c r="AM3" t="n">
-        <v>612.8794555664062</v>
+        <v>615.21826171875</v>
       </c>
       <c r="AN3" t="n">
-        <v>612.6934814453125</v>
+        <v>611.9837646484375</v>
       </c>
       <c r="AO3" t="n">
-        <v>612.5300903320312</v>
+        <v>605.9479370117188</v>
       </c>
       <c r="AP3" t="n">
-        <v>612.3594970703125</v>
+        <v>582.4391479492188</v>
       </c>
       <c r="AQ3" t="n">
-        <v>611.887939453125</v>
+        <v>553.3367309570312</v>
       </c>
       <c r="AR3" t="n">
-        <v>610.68212890625</v>
+        <v>538.3524169921875</v>
       </c>
       <c r="AS3" t="n">
-        <v>609.4566650390625</v>
+        <v>549.2304077148438</v>
       </c>
       <c r="AT3" t="n">
-        <v>606.1400146484375</v>
+        <v>559.0966796875</v>
       </c>
       <c r="AU3" t="n">
-        <v>603.1097412109375</v>
+        <v>564.2695922851562</v>
       </c>
       <c r="AV3" t="n">
-        <v>601.5999755859375</v>
+        <v>558.5470581054688</v>
       </c>
       <c r="AW3" t="n">
-        <v>600.478759765625</v>
+        <v>552.894775390625</v>
       </c>
       <c r="AX3" t="n">
-        <v>600.2779541015625</v>
+        <v>547.0059204101562</v>
       </c>
       <c r="AY3" t="n">
-        <v>599.4445190429688</v>
+        <v>541.6055908203125</v>
       </c>
       <c r="AZ3" t="n">
-        <v>595.7469482421875</v>
+        <v>538.802001953125</v>
       </c>
       <c r="BA3" t="n">
-        <v>589.9468383789062</v>
+        <v>532.1774291992188</v>
       </c>
       <c r="BB3" t="n">
-        <v>587.0812377929688</v>
+        <v>522.5936279296875</v>
       </c>
       <c r="BC3" t="n">
-        <v>581.8324584960938</v>
+        <v>519.964599609375</v>
       </c>
       <c r="BD3" t="n">
-        <v>579.9949340820312</v>
+        <v>531.9873046875</v>
       </c>
       <c r="BE3" t="n">
-        <v>577.0601196289062</v>
+        <v>523.1998291015625</v>
       </c>
       <c r="BF3" t="n">
-        <v>575.2422485351562</v>
+        <v>513.2357788085938</v>
       </c>
       <c r="BG3" t="n">
-        <v>574.4217529296875</v>
+        <v>507.1557922363281</v>
       </c>
       <c r="BH3" t="n">
-        <v>572.40625</v>
+        <v>504.4058532714844</v>
       </c>
       <c r="BI3" t="n">
-        <v>572.3936767578125</v>
+        <v>505.1047973632812</v>
       </c>
       <c r="BJ3" t="n">
-        <v>573.0769653320312</v>
+        <v>502.0386962890625</v>
       </c>
       <c r="BK3" t="n">
-        <v>573.85693359375</v>
+        <v>499.7523803710938</v>
       </c>
       <c r="BL3" t="n">
-        <v>574.3408813476562</v>
+        <v>497.3958129882812</v>
       </c>
       <c r="BM3" t="n">
-        <v>577.0857543945312</v>
+        <v>497.4458312988281</v>
       </c>
       <c r="BN3" t="n">
-        <v>576.4815673828125</v>
+        <v>497.6895751953125</v>
       </c>
       <c r="BO3" t="n">
-        <v>577.26513671875</v>
+        <v>500.2422485351562</v>
       </c>
       <c r="BP3" t="n">
-        <v>582.7322387695312</v>
+        <v>499.7953491210938</v>
       </c>
       <c r="BQ3" t="n">
-        <v>586.248779296875</v>
+        <v>485.5357360839844</v>
       </c>
       <c r="BR3" t="n">
-        <v>587.9292602539062</v>
+        <v>481.3544616699219</v>
       </c>
       <c r="BS3" t="n">
-        <v>586.8843994140625</v>
+        <v>482.262939453125</v>
       </c>
       <c r="BT3" t="n">
-        <v>586.2327270507812</v>
+        <v>485.1961975097656</v>
       </c>
       <c r="BU3" t="n">
-        <v>586.3264770507812</v>
+        <v>482.1900024414062</v>
       </c>
       <c r="BV3" t="n">
-        <v>586.2359008789062</v>
+        <v>482.3844299316406</v>
       </c>
       <c r="BW3" t="n">
-        <v>586.4421997070312</v>
+        <v>477.2135925292969</v>
       </c>
       <c r="BX3" t="n">
-        <v>588.076171875</v>
+        <v>471.8528137207031</v>
       </c>
       <c r="BY3" t="n">
-        <v>589.1029052734375</v>
+        <v>468.6465148925781</v>
       </c>
       <c r="BZ3" t="n">
-        <v>590.4216918945312</v>
+        <v>466.4651184082031</v>
       </c>
       <c r="CA3" t="n">
-        <v>590.099853515625</v>
+        <v>461.4468994140625</v>
       </c>
       <c r="CB3" t="n">
-        <v>589.4024658203125</v>
+        <v>459.2646179199219</v>
       </c>
       <c r="CC3" t="n">
-        <v>588.4714965820312</v>
+        <v>455.2348327636719</v>
       </c>
       <c r="CD3" t="n">
-        <v>587.2280883789062</v>
+        <v>452.0451354980469</v>
       </c>
       <c r="CE3" t="n">
-        <v>585.9071044921875</v>
+        <v>448.7655639648438</v>
       </c>
       <c r="CF3" t="n">
-        <v>582.9627685546875</v>
+        <v>446.1785278320312</v>
       </c>
       <c r="CG3" t="n">
-        <v>577.65283203125</v>
+        <v>445.0210266113281</v>
       </c>
       <c r="CH3" t="n">
-        <v>571.2376708984375</v>
+        <v>444.0914001464844</v>
       </c>
       <c r="CI3" t="n">
-        <v>562.4586791992188</v>
+        <v>444.6160888671875</v>
       </c>
       <c r="CJ3" t="n">
-        <v>557.314453125</v>
+        <v>445.2847595214844</v>
       </c>
       <c r="CK3" t="n">
-        <v>554.7669677734375</v>
+        <v>445.4244689941406</v>
       </c>
       <c r="CL3" t="n">
-        <v>554.2647705078125</v>
+        <v>447.5147399902344</v>
       </c>
       <c r="CM3" t="n">
-        <v>555.3502197265625</v>
+        <v>450.1202392578125</v>
       </c>
       <c r="CN3" t="n">
-        <v>556.6356811523438</v>
+        <v>453.0288391113281</v>
       </c>
       <c r="CO3" t="n">
-        <v>557.2986450195312</v>
+        <v>454.0494079589844</v>
       </c>
       <c r="CP3" t="n">
-        <v>559.8767700195312</v>
+        <v>456.2549743652344</v>
       </c>
       <c r="CQ3" t="n">
-        <v>560.4201049804688</v>
+        <v>456.6621704101562</v>
       </c>
       <c r="CR3" t="n">
-        <v>562.1643676757812</v>
+        <v>458.7799987792969</v>
       </c>
       <c r="CS3" t="n">
-        <v>561.7191772460938</v>
+        <v>458.1344299316406</v>
       </c>
       <c r="CT3" t="n">
-        <v>561.2682495117188</v>
+        <v>457.350830078125</v>
       </c>
       <c r="CU3" t="n">
-        <v>561.6051635742188</v>
+        <v>457.2504577636719</v>
       </c>
       <c r="CV3" t="n">
-        <v>561.5294189453125</v>
+        <v>454.8494262695312</v>
       </c>
       <c r="CW3" t="n">
-        <v>562.9053344726562</v>
+        <v>452.945068359375</v>
       </c>
       <c r="CX3" t="n">
-        <v>562.2421875</v>
+        <v>450.2862548828125</v>
       </c>
       <c r="CY3" t="n">
-        <v>562.33251953125</v>
+        <v>448.2176513671875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>562.2113647460938</v>
+        <v>448.1629333496094</v>
       </c>
       <c r="DA3" t="n">
-        <v>561.7330322265625</v>
+        <v>446.7391052246094</v>
       </c>
       <c r="DB3" t="n">
-        <v>562.1797485351562</v>
+        <v>445.39501953125</v>
       </c>
       <c r="DC3" t="n">
-        <v>562.4210815429688</v>
+        <v>445.1278381347656</v>
       </c>
       <c r="DD3" t="n">
-        <v>562.4732055664062</v>
+        <v>443.8328857421875</v>
       </c>
       <c r="DE3" t="n">
-        <v>561.9959106445312</v>
+        <v>442.6485900878906</v>
       </c>
       <c r="DF3" t="n">
-        <v>561.771240234375</v>
+        <v>441.7930908203125</v>
       </c>
       <c r="DG3" t="n">
-        <v>561.2960815429688</v>
+        <v>441.21533203125</v>
       </c>
       <c r="DH3" t="n">
-        <v>561.4170532226562</v>
+        <v>440.2894287109375</v>
       </c>
       <c r="DI3" t="n">
-        <v>561.9580688476562</v>
+        <v>439.9329833984375</v>
       </c>
       <c r="DJ3" t="n">
-        <v>562.9449462890625</v>
+        <v>439.3978271484375</v>
       </c>
       <c r="DK3" t="n">
-        <v>565.3202514648438</v>
+        <v>438.7252197265625</v>
       </c>
       <c r="DL3" t="n">
-        <v>568.96337890625</v>
+        <v>438.1553649902344</v>
       </c>
       <c r="DM3" t="n">
-        <v>570.389892578125</v>
+        <v>437.7457580566406</v>
       </c>
       <c r="DN3" t="n">
-        <v>571.7833862304688</v>
+        <v>437.2400207519531</v>
       </c>
       <c r="DO3" t="n">
-        <v>575.6982421875</v>
+        <v>436.7581481933594</v>
       </c>
       <c r="DP3" t="n">
-        <v>577.0990600585938</v>
+        <v>436.8422241210938</v>
       </c>
       <c r="DQ3" t="n">
-        <v>570.50146484375</v>
+        <v>437.1375427246094</v>
       </c>
       <c r="DR3" t="n">
-        <v>559.6826171875</v>
+        <v>437.2678527832031</v>
       </c>
       <c r="DS3" t="n">
-        <v>551.5081787109375</v>
+        <v>437.4092407226562</v>
       </c>
       <c r="DT3" t="n">
-        <v>533.3138427734375</v>
+        <v>437.4820556640625</v>
       </c>
       <c r="DU3" t="n">
-        <v>524.8685913085938</v>
+        <v>437.4281616210938</v>
       </c>
       <c r="DV3" t="n">
-        <v>516.4208984375</v>
+        <v>437.1993408203125</v>
       </c>
       <c r="DW3" t="n">
-        <v>500.3543395996094</v>
+        <v>437.8597106933594</v>
       </c>
       <c r="DX3" t="n">
-        <v>493.0848388671875</v>
+        <v>439.704345703125</v>
       </c>
       <c r="DY3" t="n">
-        <v>488.7826538085938</v>
+        <v>440.3294067382812</v>
       </c>
       <c r="DZ3" t="n">
-        <v>487.9080505371094</v>
+        <v>439.9511413574219</v>
       </c>
       <c r="EA3" t="n">
-        <v>488.8786010742188</v>
+        <v>441.0505981445312</v>
       </c>
       <c r="EB3" t="n">
-        <v>501.2606506347656</v>
+        <v>442.1880493164062</v>
       </c>
       <c r="EC3" t="n">
-        <v>508.8529052734375</v>
+        <v>444.6410827636719</v>
       </c>
       <c r="ED3" t="n">
-        <v>523.22412109375</v>
+        <v>445.2044982910156</v>
       </c>
       <c r="EE3" t="n">
-        <v>539.1798706054688</v>
+        <v>446.494384765625</v>
       </c>
       <c r="EF3" t="n">
-        <v>542.8847045898438</v>
+        <v>447.5076599121094</v>
       </c>
       <c r="EG3" t="n">
-        <v>559.479736328125</v>
+        <v>449.2716064453125</v>
       </c>
       <c r="EH3" t="n">
-        <v>577.8638305664062</v>
+        <v>449.1522827148438</v>
       </c>
       <c r="EI3" t="n">
-        <v>576.4559936523438</v>
+        <v>448.6791687011719</v>
       </c>
       <c r="EJ3" t="n">
-        <v>575.1085815429688</v>
+        <v>448.8279418945312</v>
       </c>
       <c r="EK3" t="n">
-        <v>574.758544921875</v>
+        <v>449.1441345214844</v>
       </c>
       <c r="EL3" t="n">
-        <v>572.1019897460938</v>
+        <v>449.3208618164062</v>
       </c>
       <c r="EM3" t="n">
-        <v>565.5547485351562</v>
+        <v>449.1894226074219</v>
       </c>
       <c r="EN3" t="n">
-        <v>562.5975952148438</v>
+        <v>449.2050170898438</v>
       </c>
       <c r="EO3" t="n">
-        <v>560.4892578125</v>
+        <v>449.38232421875</v>
       </c>
       <c r="EP3" t="n">
-        <v>560.844970703125</v>
+        <v>449.4969482421875</v>
       </c>
       <c r="EQ3" t="n">
-        <v>561.990234375</v>
+        <v>449.3316650390625</v>
       </c>
       <c r="ER3" t="n">
-        <v>562.987060546875</v>
+        <v>448.650146484375</v>
       </c>
       <c r="ES3" t="n">
-        <v>566.8740234375</v>
+        <v>448.2408752441406</v>
       </c>
       <c r="ET3" t="n">
-        <v>591.1638793945312</v>
+        <v>447.2005004882812</v>
       </c>
       <c r="EU3" t="n">
-        <v>609.5186767578125</v>
+        <v>447.2149353027344</v>
       </c>
       <c r="EV3" t="n">
-        <v>617.3794555664062</v>
+        <v>447.0670471191406</v>
       </c>
       <c r="EW3" t="n">
-        <v>624.1002197265625</v>
+        <v>446.9075622558594</v>
       </c>
       <c r="EX3" t="n">
-        <v>632.4191284179688</v>
+        <v>446.975341796875</v>
       </c>
       <c r="EY3" t="n">
-        <v>642.037353515625</v>
+        <v>447.1412658691406</v>
       </c>
       <c r="EZ3" t="n">
-        <v>646.4727172851562</v>
+        <v>447.3550415039062</v>
       </c>
       <c r="FA3" t="n">
-        <v>644.3032836914062</v>
+        <v>447.6424865722656</v>
       </c>
       <c r="FB3" t="n">
-        <v>641.3842163085938</v>
+        <v>447.8283996582031</v>
       </c>
       <c r="FC3" t="n">
-        <v>635.69482421875</v>
+        <v>447.9965515136719</v>
       </c>
       <c r="FD3" t="n">
-        <v>631.136474609375</v>
+        <v>448.1338500976562</v>
       </c>
       <c r="FE3" t="n">
-        <v>619.2240600585938</v>
+        <v>447.9858703613281</v>
       </c>
       <c r="FF3" t="n">
-        <v>618.46826171875</v>
+        <v>448.1294860839844</v>
       </c>
       <c r="FG3" t="n">
-        <v>615.6240234375</v>
+        <v>448.0409545898438</v>
       </c>
       <c r="FH3" t="n">
-        <v>604.15673828125</v>
+        <v>447.8028259277344</v>
       </c>
       <c r="FI3" t="n">
-        <v>603.6123046875</v>
+        <v>447.7577209472656</v>
       </c>
       <c r="FJ3" t="n">
-        <v>606.4108276367188</v>
+        <v>447.8704223632812</v>
       </c>
       <c r="FK3" t="n">
-        <v>609.5145874023438</v>
+        <v>447.9367980957031</v>
       </c>
       <c r="FL3" t="n">
-        <v>612.3568725585938</v>
+        <v>447.7915344238281</v>
       </c>
       <c r="FM3" t="n">
-        <v>620.988525390625</v>
+        <v>447.8253784179688</v>
       </c>
       <c r="FN3" t="n">
-        <v>625.4688720703125</v>
+        <v>447.811767578125</v>
       </c>
       <c r="FO3" t="n">
-        <v>628.0625</v>
+        <v>447.7797241210938</v>
       </c>
       <c r="FP3" t="n">
-        <v>633.5358276367188</v>
+        <v>447.779541015625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>649.8588256835938</v>
+        <v>448.04541015625</v>
       </c>
       <c r="FR3" t="n">
-        <v>654.8095703125</v>
+        <v>448.4223327636719</v>
       </c>
       <c r="FS3" t="n">
-        <v>656.67626953125</v>
+        <v>450.2063293457031</v>
       </c>
       <c r="FT3" t="n">
-        <v>661.735107421875</v>
+        <v>450.3389587402344</v>
       </c>
       <c r="FU3" t="n">
-        <v>660.1768188476562</v>
+        <v>450.6584777832031</v>
       </c>
       <c r="FV3" t="n">
-        <v>691.494873046875</v>
+        <v>450.8538513183594</v>
       </c>
       <c r="FW3" t="n">
-        <v>702.276123046875</v>
+        <v>451.1638793945312</v>
       </c>
       <c r="FX3" t="n">
-        <v>709.7772827148438</v>
+        <v>451.0468139648438</v>
       </c>
       <c r="FY3" t="n">
-        <v>736.0476684570312</v>
+        <v>450.92529296875</v>
       </c>
       <c r="FZ3" t="n">
-        <v>736.6965942382812</v>
+        <v>450.9317321777344</v>
       </c>
       <c r="GA3" t="n">
-        <v>777.7136840820312</v>
+        <v>451.1144409179688</v>
       </c>
       <c r="GB3" t="n">
-        <v>796.764892578125</v>
+        <v>451.2544555664062</v>
       </c>
       <c r="GC3" t="n">
-        <v>818.5501708984375</v>
+        <v>451.7056274414062</v>
       </c>
       <c r="GD3" t="n">
-        <v>819.8115844726562</v>
+        <v>452.4333190917969</v>
       </c>
       <c r="GE3" t="n">
-        <v>818.670166015625</v>
+        <v>451.9206237792969</v>
       </c>
       <c r="GF3" t="n">
-        <v>779.5094604492188</v>
+        <v>450.4501342773438</v>
       </c>
       <c r="GG3" t="n">
-        <v>776.4691772460938</v>
+        <v>450.9429321289062</v>
       </c>
       <c r="GH3" t="n">
-        <v>790.8987426757812</v>
+        <v>451.6886596679688</v>
       </c>
       <c r="GI3" t="n">
-        <v>795.8604736328125</v>
+        <v>451.549560546875</v>
       </c>
       <c r="GJ3" t="n">
-        <v>798.0379028320312</v>
+        <v>451.5739135742188</v>
       </c>
       <c r="GK3" t="n">
-        <v>797.3165283203125</v>
+        <v>451.1298217773438</v>
       </c>
       <c r="GL3" t="n">
-        <v>795.0199584960938</v>
+        <v>450.7456665039062</v>
       </c>
       <c r="GM3" t="n">
-        <v>794.8359985351562</v>
+        <v>450.2475891113281</v>
       </c>
       <c r="GN3" t="n">
-        <v>818.78076171875</v>
+        <v>450.2186584472656</v>
       </c>
       <c r="GO3" t="n">
-        <v>837.5286865234375</v>
+        <v>450.2550048828125</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>450.1357421875</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>450.0234985351562</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>449.9696350097656</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>450.0086975097656</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>450.4256286621094</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>451.3843994140625</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>452.1052856445312</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>449.1483459472656</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>447.5560302734375</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>440.1887512207031</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>435.6371459960938</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>436.8158264160156</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>441.4269714355469</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>444.4738464355469</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>444.2164916992188</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>446.2433776855469</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>448.5472717285156</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>456.2695617675781</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>463.7796020507812</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>465.0725402832031</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>465.900634765625</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>468.3465881347656</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>471.8082580566406</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>479.1481018066406</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>487.1976013183594</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>491.6330871582031</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>493.4361572265625</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>496.9473876953125</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>499.2842102050781</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>505.0541381835938</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>509.9200744628906</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>518.0553588867188</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>512.4308471679688</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>507.0422668457031</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>509.0320434570312</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>513.1777954101562</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>557.20654296875</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>571.5842895507812</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>568.2048950195312</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>567.7915649414062</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>578.99658203125</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>597.3084716796875</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>622.2838134765625</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>650.9826049804688</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>602.335205078125</v>
+      </c>
+      <c r="II3" t="n">
+        <v>645.8911743164062</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>693.0239868164062</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>727.0255126953125</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>772.7048950195312</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>884.3424682617188</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>1065.146606445312</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>1001.646057128906</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>1023.093994140625</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>1002.490112304688</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>949.345703125</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>1049.088500976562</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>840.6990356445312</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>756.3793334960938</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>696.45068359375</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>714.846923828125</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>702.4496459960938</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>718.4398803710938</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>772.0657958984375</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>823.8775024414062</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>822.6887817382812</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>795.2098388671875</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>759.5851440429688</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>753.5635986328125</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>722.4614868164062</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>735.7689819335938</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>713.4107666015625</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>706.0167236328125</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>763.2507934570312</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>764.9852294921875</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>788.6332397460938</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>792.125732421875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>842.368896484375</v>
       </c>
       <c r="B4" t="n">
-        <v>1009.883666992188</v>
+        <v>842.4635009765625</v>
       </c>
       <c r="C4" t="n">
-        <v>1033.908813476562</v>
+        <v>842.53125</v>
       </c>
       <c r="D4" t="n">
-        <v>1028.939697265625</v>
+        <v>842.6162719726562</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.765869140625</v>
+        <v>842.6822509765625</v>
       </c>
       <c r="F4" t="n">
-        <v>1028.98046875</v>
+        <v>842.677001953125</v>
       </c>
       <c r="G4" t="n">
-        <v>1028.410400390625</v>
+        <v>842.6376953125</v>
       </c>
       <c r="H4" t="n">
-        <v>1028.528442382812</v>
+        <v>842.5987548828125</v>
       </c>
       <c r="I4" t="n">
-        <v>1028.580932617188</v>
+        <v>842.54443359375</v>
       </c>
       <c r="J4" t="n">
-        <v>1028.660400390625</v>
+        <v>842.4944458007812</v>
       </c>
       <c r="K4" t="n">
-        <v>1028.79248046875</v>
+        <v>842.3944091796875</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.01220703125</v>
+        <v>842.2213745117188</v>
       </c>
       <c r="M4" t="n">
-        <v>1029.151245117188</v>
+        <v>842.0057983398438</v>
       </c>
       <c r="N4" t="n">
-        <v>1029.06396484375</v>
+        <v>841.5628051757812</v>
       </c>
       <c r="O4" t="n">
-        <v>1028.977172851562</v>
+        <v>840.4342651367188</v>
       </c>
       <c r="P4" t="n">
-        <v>1029.099487304688</v>
+        <v>837.9097290039062</v>
       </c>
       <c r="Q4" t="n">
-        <v>1029.188598632812</v>
+        <v>831.2672729492188</v>
       </c>
       <c r="R4" t="n">
-        <v>1029.05029296875</v>
+        <v>820.7908325195312</v>
       </c>
       <c r="S4" t="n">
-        <v>1028.851806640625</v>
+        <v>826.6661376953125</v>
       </c>
       <c r="T4" t="n">
-        <v>1028.871337890625</v>
+        <v>833.5414428710938</v>
       </c>
       <c r="U4" t="n">
-        <v>1028.855346679688</v>
+        <v>837.1115112304688</v>
       </c>
       <c r="V4" t="n">
-        <v>1028.85400390625</v>
+        <v>832.8547973632812</v>
       </c>
       <c r="W4" t="n">
-        <v>1028.913452148438</v>
+        <v>825.7740478515625</v>
       </c>
       <c r="X4" t="n">
-        <v>1028.911865234375</v>
+        <v>819.1456298828125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1028.91015625</v>
+        <v>816.6923828125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1028.908325195312</v>
+        <v>814.249267578125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1028.943969726562</v>
+        <v>812.02490234375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1028.991333007812</v>
+        <v>811.0366821289062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1029.094482421875</v>
+        <v>811.3399658203125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1029.371826171875</v>
+        <v>810.1541137695312</v>
       </c>
       <c r="AE4" t="n">
-        <v>1029.713623046875</v>
+        <v>809.8492431640625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1030.0439453125</v>
+        <v>808.5560302734375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1030.413818359375</v>
+        <v>810.3218994140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1030.698852539062</v>
+        <v>818.2183227539062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1031.461059570312</v>
+        <v>828.9107055664062</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1032.114135742188</v>
+        <v>831.1659545898438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1032.798828125</v>
+        <v>834.726806640625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1034.533813476562</v>
+        <v>840.7607421875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1034.383911132812</v>
+        <v>846.7655029296875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1034.320556640625</v>
+        <v>856.3045043945312</v>
       </c>
       <c r="AO4" t="n">
-        <v>1034.199462890625</v>
+        <v>876.7113037109375</v>
       </c>
       <c r="AP4" t="n">
-        <v>1034.212280273438</v>
+        <v>881.9158325195312</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1034.633544921875</v>
+        <v>924.361083984375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1034.320434570312</v>
+        <v>970.4111938476562</v>
       </c>
       <c r="AS4" t="n">
-        <v>1034.224853515625</v>
+        <v>968.4769287109375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1035.202758789062</v>
+        <v>980.6693115234375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1035.77880859375</v>
+        <v>1007.4140625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1035.743286132812</v>
+        <v>1042.557983398438</v>
       </c>
       <c r="AW4" t="n">
-        <v>1036.6015625</v>
+        <v>1078.07421875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1036.611328125</v>
+        <v>1111.889892578125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1038.912719726562</v>
+        <v>1145.981689453125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1045.605590820312</v>
+        <v>1162.108642578125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1060.684204101562</v>
+        <v>1173.177490234375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1073.336547851562</v>
+        <v>1193.259643554688</v>
       </c>
       <c r="BC4" t="n">
-        <v>1080.813720703125</v>
+        <v>1217.102661132812</v>
       </c>
       <c r="BD4" t="n">
-        <v>1082.906127929688</v>
+        <v>937.3653564453125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1086.175048828125</v>
+        <v>949.4766845703125</v>
       </c>
       <c r="BF4" t="n">
-        <v>1090.187744140625</v>
+        <v>977.310546875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1092.628051757812</v>
+        <v>1000.974060058594</v>
       </c>
       <c r="BH4" t="n">
-        <v>1099.774291992188</v>
+        <v>1018.396057128906</v>
       </c>
       <c r="BI4" t="n">
-        <v>1099.6806640625</v>
+        <v>1087.823974609375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1098.88916015625</v>
+        <v>1130.077880859375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1098.017944335938</v>
+        <v>1162.30419921875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1098.535400390625</v>
+        <v>1191.056396484375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1099.172973632812</v>
+        <v>1229.71630859375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1096.449951171875</v>
+        <v>1273.13818359375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1094.737548828125</v>
+        <v>1315.389892578125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1088.790283203125</v>
+        <v>1333.787353515625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1085.283203125</v>
+        <v>1227.194580078125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1081.3837890625</v>
+        <v>1247.933837890625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1081.134643554688</v>
+        <v>1283.554077148438</v>
       </c>
       <c r="BT4" t="n">
-        <v>1077.619995117188</v>
+        <v>1304.963500976562</v>
       </c>
       <c r="BU4" t="n">
-        <v>1075.677856445312</v>
+        <v>1324.88623046875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1075.358520507812</v>
+        <v>1507.4013671875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1076.316040039062</v>
+        <v>1557.654052734375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1076.624877929688</v>
+        <v>1599.7294921875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1077.185302734375</v>
+        <v>1621.85791015625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1076.66015625</v>
+        <v>1633.958740234375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1077.271606445312</v>
+        <v>1652.359375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1078.384643554688</v>
+        <v>1662.34716796875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1079.59326171875</v>
+        <v>1677.63330078125</v>
       </c>
       <c r="CD4" t="n">
-        <v>1080.994506835938</v>
+        <v>1694.412841796875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1083.129760742188</v>
+        <v>1717.344970703125</v>
       </c>
       <c r="CF4" t="n">
-        <v>1085.9541015625</v>
+        <v>1739.462524414062</v>
       </c>
       <c r="CG4" t="n">
-        <v>1087.41552734375</v>
+        <v>1752.136352539062</v>
       </c>
       <c r="CH4" t="n">
-        <v>1087.203979492188</v>
+        <v>1765.24951171875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1087.700805664062</v>
+        <v>1769.524047851562</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1088.50439453125</v>
+        <v>1766.737670898438</v>
       </c>
       <c r="CK4" t="n">
-        <v>1090.305297851562</v>
+        <v>1774.056396484375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1091.879150390625</v>
+        <v>1776.703857421875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1095.480590820312</v>
+        <v>1787.173095703125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1104.545166015625</v>
+        <v>1795.864868164062</v>
       </c>
       <c r="CO4" t="n">
-        <v>1110.22802734375</v>
+        <v>1791.50830078125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1113.394775390625</v>
+        <v>1795.20556640625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1114.773193359375</v>
+        <v>1806.354370117188</v>
       </c>
       <c r="CR4" t="n">
-        <v>1111.344970703125</v>
+        <v>1787.692993164062</v>
       </c>
       <c r="CS4" t="n">
-        <v>1111.726196289062</v>
+        <v>1775.214721679688</v>
       </c>
       <c r="CT4" t="n">
-        <v>1111.714111328125</v>
+        <v>1746.58447265625</v>
       </c>
       <c r="CU4" t="n">
-        <v>1109.893188476562</v>
+        <v>1769.36181640625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1110.057250976562</v>
+        <v>1798.3173828125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1105.529418945312</v>
+        <v>1806.379516601562</v>
       </c>
       <c r="CX4" t="n">
-        <v>1107.70947265625</v>
+        <v>1809.537353515625</v>
       </c>
       <c r="CY4" t="n">
-        <v>1107.438842773438</v>
+        <v>1830.838623046875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1107.790649414062</v>
+        <v>1844.739135742188</v>
       </c>
       <c r="DA4" t="n">
-        <v>1109.296997070312</v>
+        <v>1850.71240234375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1107.924438476562</v>
+        <v>1863.3232421875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1107.177978515625</v>
+        <v>1846.659057617188</v>
       </c>
       <c r="DD4" t="n">
-        <v>1107.031372070312</v>
+        <v>1861.2919921875</v>
       </c>
       <c r="DE4" t="n">
-        <v>1108.540893554688</v>
+        <v>1865.088500976562</v>
       </c>
       <c r="DF4" t="n">
-        <v>1109.231079101562</v>
+        <v>1863.15869140625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1110.696411132812</v>
+        <v>1864.479736328125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1109.296142578125</v>
+        <v>1865.405029296875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1106.670654296875</v>
+        <v>1866.171508789062</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1102.447875976562</v>
+        <v>1867.408447265625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1094.597534179688</v>
+        <v>1868.933349609375</v>
       </c>
       <c r="DL4" t="n">
-        <v>1082.260620117188</v>
+        <v>1870.052368164062</v>
       </c>
       <c r="DM4" t="n">
-        <v>1077.224975585938</v>
+        <v>1869.873779296875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1071.951416015625</v>
+        <v>1870.330200195312</v>
       </c>
       <c r="DO4" t="n">
-        <v>1058.140747070312</v>
+        <v>1868.921997070312</v>
       </c>
       <c r="DP4" t="n">
-        <v>1052.068969726562</v>
+        <v>1869.9169921875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1048.083984375</v>
+        <v>1869.490234375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1049.56494140625</v>
+        <v>1869.553833007812</v>
       </c>
       <c r="DS4" t="n">
-        <v>1051.860473632812</v>
+        <v>1870.045166015625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1069.2958984375</v>
+        <v>1869.744140625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1086.736328125</v>
+        <v>1869.3427734375</v>
       </c>
       <c r="DV4" t="n">
-        <v>1097.5126953125</v>
+        <v>1868.6640625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1115.88037109375</v>
+        <v>1861.857055664062</v>
       </c>
       <c r="DX4" t="n">
-        <v>1123.16845703125</v>
+        <v>1858.491333007812</v>
       </c>
       <c r="DY4" t="n">
-        <v>1135.238159179688</v>
+        <v>1856.132568359375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1139.98291015625</v>
+        <v>1853.45703125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1145.654663085938</v>
+        <v>1848.95849609375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1149.641723632812</v>
+        <v>1844.949462890625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1153.91259765625</v>
+        <v>1843.245971679688</v>
       </c>
       <c r="ED4" t="n">
-        <v>1162.365112304688</v>
+        <v>1842.859252929688</v>
       </c>
       <c r="EE4" t="n">
-        <v>1181.549926757812</v>
+        <v>1836.268676757812</v>
       </c>
       <c r="EF4" t="n">
-        <v>1190.282592773438</v>
+        <v>1845.2587890625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1195.646240234375</v>
+        <v>1829.87255859375</v>
       </c>
       <c r="EH4" t="n">
-        <v>1205.66845703125</v>
+        <v>1834.73095703125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1222.179809570312</v>
+        <v>1833.550415039062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1239.556640625</v>
+        <v>1835.181884765625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1253.386108398438</v>
+        <v>1836.6953125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1264.41796875</v>
+        <v>1840.814208984375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1277.427368164062</v>
+        <v>1842.75244140625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1282.208984375</v>
+        <v>1840.794067382812</v>
       </c>
       <c r="EO4" t="n">
-        <v>1285.138671875</v>
+        <v>1836.656494140625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1283.137817382812</v>
+        <v>1831.052368164062</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1278.700439453125</v>
+        <v>1828.329467773438</v>
       </c>
       <c r="ER4" t="n">
-        <v>1275.220825195312</v>
+        <v>1826.381713867188</v>
       </c>
       <c r="ES4" t="n">
-        <v>1273.29345703125</v>
+        <v>1820.469604492188</v>
       </c>
       <c r="ET4" t="n">
-        <v>1273.000122070312</v>
+        <v>1817.037475585938</v>
       </c>
       <c r="EU4" t="n">
-        <v>1273.400512695312</v>
+        <v>1821.315795898438</v>
       </c>
       <c r="EV4" t="n">
-        <v>1274.670043945312</v>
+        <v>1817.948974609375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1272.399780273438</v>
+        <v>1815.622314453125</v>
       </c>
       <c r="EX4" t="n">
-        <v>1252.759155273438</v>
+        <v>1816.876953125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1229.811279296875</v>
+        <v>1815.921020507812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1219.12109375</v>
+        <v>1815.985107421875</v>
       </c>
       <c r="FA4" t="n">
-        <v>1223.768310546875</v>
+        <v>1815.678955078125</v>
       </c>
       <c r="FB4" t="n">
-        <v>1226.800415039062</v>
+        <v>1814.946044921875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1213.917602539062</v>
+        <v>1814.271484375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1213.974243164062</v>
+        <v>1814.140258789062</v>
       </c>
       <c r="FE4" t="n">
-        <v>1201.737060546875</v>
+        <v>1814.051513671875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1170.296875</v>
+        <v>1812.36474609375</v>
       </c>
       <c r="FG4" t="n">
-        <v>1150.43359375</v>
+        <v>1811.696899414062</v>
       </c>
       <c r="FH4" t="n">
-        <v>1146.218872070312</v>
+        <v>1810.59228515625</v>
       </c>
       <c r="FI4" t="n">
-        <v>1129.530517578125</v>
+        <v>1816.458129882812</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1112.637939453125</v>
+        <v>1819.564086914062</v>
       </c>
       <c r="FK4" t="n">
-        <v>1094.734252929688</v>
+        <v>1818.24609375</v>
       </c>
       <c r="FL4" t="n">
-        <v>1085.595581054688</v>
+        <v>1818.789184570312</v>
       </c>
       <c r="FM4" t="n">
-        <v>1054.45703125</v>
+        <v>1818.73583984375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1033.784423828125</v>
+        <v>1817.94091796875</v>
       </c>
       <c r="FO4" t="n">
-        <v>1028.680541992188</v>
+        <v>1816.6064453125</v>
       </c>
       <c r="FP4" t="n">
-        <v>1019.088562011719</v>
+        <v>1815.3251953125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>978.3694458007812</v>
+        <v>1814.695556640625</v>
       </c>
       <c r="FR4" t="n">
-        <v>967.1168212890625</v>
+        <v>1813.7578125</v>
       </c>
       <c r="FS4" t="n">
-        <v>952.9789428710938</v>
+        <v>1809.59521484375</v>
       </c>
       <c r="FT4" t="n">
-        <v>935.544189453125</v>
+        <v>1809.3857421875</v>
       </c>
       <c r="FU4" t="n">
-        <v>920.0918579101562</v>
+        <v>1808.998046875</v>
       </c>
       <c r="FV4" t="n">
-        <v>891.5772094726562</v>
+        <v>1809.531494140625</v>
       </c>
       <c r="FW4" t="n">
-        <v>854.982177734375</v>
+        <v>1811.89599609375</v>
       </c>
       <c r="FX4" t="n">
-        <v>838.3828125</v>
+        <v>1811.889892578125</v>
       </c>
       <c r="FY4" t="n">
-        <v>787.1249389648438</v>
+        <v>1810.837158203125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>774.5311279296875</v>
+        <v>1810.066650390625</v>
       </c>
       <c r="GA4" t="n">
-        <v>672.3765258789062</v>
+        <v>1810.913330078125</v>
       </c>
       <c r="GB4" t="n">
-        <v>644.97021484375</v>
+        <v>1811.990356445312</v>
       </c>
       <c r="GC4" t="n">
-        <v>648.8009033203125</v>
+        <v>1810.941284179688</v>
       </c>
       <c r="GD4" t="n">
-        <v>659.7059326171875</v>
+        <v>1808.348022460938</v>
       </c>
       <c r="GE4" t="n">
-        <v>666.7905883789062</v>
+        <v>1809.546752929688</v>
       </c>
       <c r="GF4" t="n">
-        <v>730.3939819335938</v>
+        <v>1813.581909179688</v>
       </c>
       <c r="GG4" t="n">
-        <v>727.7171020507812</v>
+        <v>1813.447875976562</v>
       </c>
       <c r="GH4" t="n">
-        <v>705.513427734375</v>
+        <v>1813.355590820312</v>
       </c>
       <c r="GI4" t="n">
-        <v>697.0924682617188</v>
+        <v>1815.546020507812</v>
       </c>
       <c r="GJ4" t="n">
-        <v>692.031494140625</v>
+        <v>1813.7158203125</v>
       </c>
       <c r="GK4" t="n">
-        <v>690.9818725585938</v>
+        <v>1808.203125</v>
       </c>
       <c r="GL4" t="n">
-        <v>691.3093872070312</v>
+        <v>1810.642944335938</v>
       </c>
       <c r="GM4" t="n">
-        <v>682.0769653320312</v>
+        <v>1810.498413085938</v>
       </c>
       <c r="GN4" t="n">
-        <v>650.9898071289062</v>
+        <v>1811.781005859375</v>
       </c>
       <c r="GO4" t="n">
-        <v>634.9498901367188</v>
+        <v>1812.600708007812</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>1813.13623046875</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>1813.309814453125</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1814.6533203125</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1814.94775390625</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1814.0078125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1814.330688476562</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1816.094360351562</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1753.595703125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1742.161499023438</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1709.483276367188</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1691.55517578125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1685.5166015625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1674.959594726562</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1665.526733398438</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1662.558227539062</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1631.934692382812</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1619.9677734375</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1581.121826171875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1534.874633789062</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1498.69091796875</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1494.9267578125</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1484.436279296875</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1464.297485351562</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1445.958129882812</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1419.126708984375</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1392.50830078125</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1371.509033203125</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1339.506958007812</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1306.238159179688</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1260.174438476562</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1242.913330078125</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1200.946533203125</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1281.656127929688</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1315.199829101562</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1268.435546875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1220.955810546875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>969.5516357421875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>906.4552612304688</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>851.6694946289062</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>841.1534423828125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>798.3167724609375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>749.7574462890625</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>681.2586669921875</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>542.2880249023438</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>810.31787109375</v>
+      </c>
+      <c r="II4" t="n">
+        <v>730.1705932617188</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>675.0619506835938</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>612.7916870117188</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>560.0377197265625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>539.7498168945312</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>506.1652221679688</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>530.9357299804688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>509.690185546875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>516.85791015625</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>549.2679443359375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>440.6293640136719</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>531.6253662109375</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>592.9089965820312</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>694.5538940429688</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>693.6110229492188</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>707.8738403320312</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>707.1439208984375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>697.46630859375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>674.9352416992188</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>713.6121215820312</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>741.1556396484375</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>791.0846557617188</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>791.5848388671875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>846.4912719726562</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>864.9193725585938</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>907.7614135742188</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>911.6068725585938</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>815.1563110351562</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>803.6465454101562</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>774.8054809570312</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>792.679443359375</v>
       </c>
     </row>
   </sheetData>

--- a/left_knee_Data.xlsx
+++ b/left_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>264.8307800292969</v>
+        <v>455.9338989257812</v>
       </c>
       <c r="B2" t="n">
-        <v>264.7064819335938</v>
+        <v>457.7470397949219</v>
       </c>
       <c r="C2" t="n">
-        <v>264.75927734375</v>
+        <v>458.2316589355469</v>
       </c>
       <c r="D2" t="n">
-        <v>264.8166809082031</v>
+        <v>459.7465515136719</v>
       </c>
       <c r="E2" t="n">
-        <v>264.899169921875</v>
+        <v>460.8385925292969</v>
       </c>
       <c r="F2" t="n">
-        <v>264.9577331542969</v>
+        <v>461.9712829589844</v>
       </c>
       <c r="G2" t="n">
-        <v>264.9839172363281</v>
+        <v>463.5991821289062</v>
       </c>
       <c r="H2" t="n">
-        <v>265.0387878417969</v>
+        <v>464.64990234375</v>
       </c>
       <c r="I2" t="n">
-        <v>265.13427734375</v>
+        <v>465.1410522460938</v>
       </c>
       <c r="J2" t="n">
-        <v>265.2203369140625</v>
+        <v>465.2372436523438</v>
       </c>
       <c r="K2" t="n">
-        <v>265.2728576660156</v>
+        <v>464.5202026367188</v>
       </c>
       <c r="L2" t="n">
-        <v>265.4422302246094</v>
+        <v>463.655029296875</v>
       </c>
       <c r="M2" t="n">
-        <v>265.6182556152344</v>
+        <v>459.3792724609375</v>
       </c>
       <c r="N2" t="n">
-        <v>265.7499084472656</v>
+        <v>450.525390625</v>
       </c>
       <c r="O2" t="n">
-        <v>265.8767395019531</v>
+        <v>442.0540161132812</v>
       </c>
       <c r="P2" t="n">
-        <v>265.8952941894531</v>
+        <v>437.3889465332031</v>
       </c>
       <c r="Q2" t="n">
-        <v>265.3544921875</v>
+        <v>434.56689453125</v>
       </c>
       <c r="R2" t="n">
-        <v>264.7079162597656</v>
+        <v>433.1122436523438</v>
       </c>
       <c r="S2" t="n">
-        <v>266.274658203125</v>
+        <v>431.9119567871094</v>
       </c>
       <c r="T2" t="n">
-        <v>266.0032958984375</v>
+        <v>429.7124938964844</v>
       </c>
       <c r="U2" t="n">
-        <v>264.6439819335938</v>
+        <v>425.9762573242188</v>
       </c>
       <c r="V2" t="n">
-        <v>261.4276733398438</v>
+        <v>421.4951782226562</v>
       </c>
       <c r="W2" t="n">
-        <v>259.7080688476562</v>
+        <v>417.2101440429688</v>
       </c>
       <c r="X2" t="n">
-        <v>263.8031005859375</v>
+        <v>415.1913757324219</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.7049560546875</v>
+        <v>413.4029541015625</v>
       </c>
       <c r="Z2" t="n">
-        <v>278.5283203125</v>
+        <v>410.3812255859375</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.8299560546875</v>
+        <v>406.7193298339844</v>
       </c>
       <c r="AB2" t="n">
-        <v>288.3672180175781</v>
+        <v>403.1329956054688</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.7447204589844</v>
+        <v>401.7129516601562</v>
       </c>
       <c r="AD2" t="n">
-        <v>291.7364501953125</v>
+        <v>402.8339233398438</v>
       </c>
       <c r="AE2" t="n">
-        <v>292.09423828125</v>
+        <v>404.8558959960938</v>
       </c>
       <c r="AF2" t="n">
-        <v>292.1664428710938</v>
+        <v>406.4715576171875</v>
       </c>
       <c r="AG2" t="n">
-        <v>293.6059875488281</v>
+        <v>407.6953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>295.7304992675781</v>
+        <v>408.4515075683594</v>
       </c>
       <c r="AI2" t="n">
-        <v>298.1957397460938</v>
+        <v>408.9888305664062</v>
       </c>
       <c r="AJ2" t="n">
-        <v>299.1091613769531</v>
+        <v>408.8995361328125</v>
       </c>
       <c r="AK2" t="n">
-        <v>300.3394470214844</v>
+        <v>408.96630859375</v>
       </c>
       <c r="AL2" t="n">
-        <v>302.5678100585938</v>
+        <v>407.8129577636719</v>
       </c>
       <c r="AM2" t="n">
-        <v>304.6680603027344</v>
+        <v>405.8153686523438</v>
       </c>
       <c r="AN2" t="n">
-        <v>307.7423095703125</v>
+        <v>403.3244018554688</v>
       </c>
       <c r="AO2" t="n">
-        <v>309.7982177734375</v>
+        <v>401.0204467773438</v>
       </c>
       <c r="AP2" t="n">
-        <v>314.86767578125</v>
+        <v>399.6575622558594</v>
       </c>
       <c r="AQ2" t="n">
-        <v>318.8474426269531</v>
+        <v>399.00048828125</v>
       </c>
       <c r="AR2" t="n">
-        <v>318.2940063476562</v>
+        <v>398.4212951660156</v>
       </c>
       <c r="AS2" t="n">
-        <v>313.4598083496094</v>
+        <v>398.3850708007812</v>
       </c>
       <c r="AT2" t="n">
-        <v>310.4355773925781</v>
+        <v>397.9660339355469</v>
       </c>
       <c r="AU2" t="n">
-        <v>312.914794921875</v>
+        <v>394.0432434082031</v>
       </c>
       <c r="AV2" t="n">
-        <v>320.4692993164062</v>
+        <v>387.0561218261719</v>
       </c>
       <c r="AW2" t="n">
-        <v>327.8848266601562</v>
+        <v>380.2102661132812</v>
       </c>
       <c r="AX2" t="n">
-        <v>334.1226806640625</v>
+        <v>374.4220275878906</v>
       </c>
       <c r="AY2" t="n">
-        <v>336.2561645507812</v>
+        <v>369.3968505859375</v>
       </c>
       <c r="AZ2" t="n">
-        <v>335.346435546875</v>
+        <v>361.9488830566406</v>
       </c>
       <c r="BA2" t="n">
-        <v>334.3379211425781</v>
+        <v>353.9176025390625</v>
       </c>
       <c r="BB2" t="n">
-        <v>334.9705200195312</v>
+        <v>344.4198303222656</v>
       </c>
       <c r="BC2" t="n">
-        <v>334.9517517089844</v>
+        <v>336.1283874511719</v>
       </c>
       <c r="BD2" t="n">
-        <v>288.4194946289062</v>
+        <v>330.5491333007812</v>
       </c>
       <c r="BE2" t="n">
-        <v>298.4217529296875</v>
+        <v>348.8668823242188</v>
       </c>
       <c r="BF2" t="n">
-        <v>305.694580078125</v>
+        <v>330.748046875</v>
       </c>
       <c r="BG2" t="n">
-        <v>315.209716796875</v>
+        <v>315.0258178710938</v>
       </c>
       <c r="BH2" t="n">
-        <v>325.2675170898438</v>
+        <v>310.3624267578125</v>
       </c>
       <c r="BI2" t="n">
-        <v>342.35009765625</v>
+        <v>321.0608520507812</v>
       </c>
       <c r="BJ2" t="n">
-        <v>347.2611083984375</v>
+        <v>324.2272644042969</v>
       </c>
       <c r="BK2" t="n">
-        <v>353.000732421875</v>
+        <v>318.2399597167969</v>
       </c>
       <c r="BL2" t="n">
-        <v>359.9617919921875</v>
+        <v>309.0925903320312</v>
       </c>
       <c r="BM2" t="n">
-        <v>367.3134155273438</v>
+        <v>301.7742919921875</v>
       </c>
       <c r="BN2" t="n">
-        <v>371.0196533203125</v>
+        <v>291.3894653320312</v>
       </c>
       <c r="BO2" t="n">
-        <v>368.0202026367188</v>
+        <v>289.7887878417969</v>
       </c>
       <c r="BP2" t="n">
-        <v>367.207763671875</v>
+        <v>278.1023254394531</v>
       </c>
       <c r="BQ2" t="n">
-        <v>370.2880554199219</v>
+        <v>271.7336730957031</v>
       </c>
       <c r="BR2" t="n">
-        <v>372.2066040039062</v>
+        <v>272.1351013183594</v>
       </c>
       <c r="BS2" t="n">
-        <v>379.232177734375</v>
+        <v>272.1398315429688</v>
       </c>
       <c r="BT2" t="n">
-        <v>381.376708984375</v>
+        <v>270.7902526855469</v>
       </c>
       <c r="BU2" t="n">
-        <v>381.3855285644531</v>
+        <v>268.3494262695312</v>
       </c>
       <c r="BV2" t="n">
-        <v>380.2055053710938</v>
+        <v>264.0130310058594</v>
       </c>
       <c r="BW2" t="n">
-        <v>382.3722839355469</v>
+        <v>263.8855590820312</v>
       </c>
       <c r="BX2" t="n">
-        <v>380.51953125</v>
+        <v>264.4957275390625</v>
       </c>
       <c r="BY2" t="n">
-        <v>380.5439453125</v>
+        <v>264.8809509277344</v>
       </c>
       <c r="BZ2" t="n">
-        <v>380.7891235351562</v>
+        <v>265.194091796875</v>
       </c>
       <c r="CA2" t="n">
-        <v>381.5369262695312</v>
+        <v>265.7260437011719</v>
       </c>
       <c r="CB2" t="n">
-        <v>381.5472106933594</v>
+        <v>266.5143127441406</v>
       </c>
       <c r="CC2" t="n">
-        <v>380.7236328125</v>
+        <v>267.3477478027344</v>
       </c>
       <c r="CD2" t="n">
-        <v>380.2699584960938</v>
+        <v>267.636474609375</v>
       </c>
       <c r="CE2" t="n">
-        <v>379.6860961914062</v>
+        <v>267.3117370605469</v>
       </c>
       <c r="CF2" t="n">
-        <v>379.302001953125</v>
+        <v>267.0115051269531</v>
       </c>
       <c r="CG2" t="n">
-        <v>379.0887145996094</v>
+        <v>267.2304992675781</v>
       </c>
       <c r="CH2" t="n">
-        <v>378.6990356445312</v>
+        <v>267.2784729003906</v>
       </c>
       <c r="CI2" t="n">
-        <v>378.467041015625</v>
+        <v>267.8901977539062</v>
       </c>
       <c r="CJ2" t="n">
-        <v>378.3035278320312</v>
+        <v>269.7937316894531</v>
       </c>
       <c r="CK2" t="n">
-        <v>378.7493896484375</v>
+        <v>271.4970092773438</v>
       </c>
       <c r="CL2" t="n">
-        <v>377.9149169921875</v>
+        <v>271.7034606933594</v>
       </c>
       <c r="CM2" t="n">
-        <v>377.1422729492188</v>
+        <v>271.8412780761719</v>
       </c>
       <c r="CN2" t="n">
-        <v>376.3907470703125</v>
+        <v>271.8463745117188</v>
       </c>
       <c r="CO2" t="n">
-        <v>375.4920654296875</v>
+        <v>271.6159973144531</v>
       </c>
       <c r="CP2" t="n">
-        <v>375.7314758300781</v>
+        <v>271.2478637695312</v>
       </c>
       <c r="CQ2" t="n">
-        <v>376.5054626464844</v>
+        <v>271.3142395019531</v>
       </c>
       <c r="CR2" t="n">
-        <v>376.2342529296875</v>
+        <v>271.4718933105469</v>
       </c>
       <c r="CS2" t="n">
-        <v>376.0928955078125</v>
+        <v>271.4532775878906</v>
       </c>
       <c r="CT2" t="n">
-        <v>376.2379455566406</v>
+        <v>271.5779418945312</v>
       </c>
       <c r="CU2" t="n">
-        <v>377.2301635742188</v>
+        <v>271.8543395996094</v>
       </c>
       <c r="CV2" t="n">
-        <v>376.341552734375</v>
+        <v>272.2969970703125</v>
       </c>
       <c r="CW2" t="n">
-        <v>373.9563293457031</v>
+        <v>272.6804809570312</v>
       </c>
       <c r="CX2" t="n">
-        <v>371.3715209960938</v>
+        <v>273.016357421875</v>
       </c>
       <c r="CY2" t="n">
-        <v>369.5823364257812</v>
+        <v>273.3731689453125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>369.0695495605469</v>
+        <v>273.8868713378906</v>
       </c>
       <c r="DA2" t="n">
-        <v>368.0500793457031</v>
+        <v>277.0539855957031</v>
       </c>
       <c r="DB2" t="n">
-        <v>366.4578247070312</v>
+        <v>286.745361328125</v>
       </c>
       <c r="DC2" t="n">
-        <v>365.3170166015625</v>
+        <v>297.7497863769531</v>
       </c>
       <c r="DD2" t="n">
-        <v>363.2144470214844</v>
+        <v>304.8959045410156</v>
       </c>
       <c r="DE2" t="n">
-        <v>362.2057495117188</v>
+        <v>314.1925354003906</v>
       </c>
       <c r="DF2" t="n">
-        <v>362.47705078125</v>
+        <v>313.2930603027344</v>
       </c>
       <c r="DG2" t="n">
-        <v>362.4112548828125</v>
+        <v>316.1274719238281</v>
       </c>
       <c r="DH2" t="n">
-        <v>362.2533874511719</v>
+        <v>325.9536743164062</v>
       </c>
       <c r="DI2" t="n">
-        <v>362.2728881835938</v>
+        <v>331.238525390625</v>
       </c>
       <c r="DJ2" t="n">
-        <v>362.2457275390625</v>
+        <v>337.4661865234375</v>
       </c>
       <c r="DK2" t="n">
-        <v>362.2247009277344</v>
+        <v>347.873046875</v>
       </c>
       <c r="DL2" t="n">
-        <v>362.2022705078125</v>
+        <v>362.7030639648438</v>
       </c>
       <c r="DM2" t="n">
-        <v>362.1901245117188</v>
+        <v>368.2081298828125</v>
       </c>
       <c r="DN2" t="n">
-        <v>362.1657104492188</v>
+        <v>366.9185791015625</v>
       </c>
       <c r="DO2" t="n">
-        <v>362.1511535644531</v>
+        <v>366.808837890625</v>
       </c>
       <c r="DP2" t="n">
-        <v>362.1355895996094</v>
+        <v>384.5452880859375</v>
       </c>
       <c r="DQ2" t="n">
-        <v>362.1060485839844</v>
+        <v>390.6091918945312</v>
       </c>
       <c r="DR2" t="n">
-        <v>362.1178588867188</v>
+        <v>395.7367248535156</v>
       </c>
       <c r="DS2" t="n">
-        <v>362.1210327148438</v>
+        <v>419.02880859375</v>
       </c>
       <c r="DT2" t="n">
-        <v>362.1355590820312</v>
+        <v>425.7791137695312</v>
       </c>
       <c r="DU2" t="n">
-        <v>362.1460571289062</v>
+        <v>432.8870849609375</v>
       </c>
       <c r="DV2" t="n">
-        <v>362.1554870605469</v>
+        <v>430.5979919433594</v>
       </c>
       <c r="DW2" t="n">
-        <v>362.2169494628906</v>
+        <v>428.3859558105469</v>
       </c>
       <c r="DX2" t="n">
-        <v>362.2161254882812</v>
+        <v>427.2619323730469</v>
       </c>
       <c r="DY2" t="n">
-        <v>362.2406616210938</v>
+        <v>425.083984375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>362.458740234375</v>
+        <v>423.5628051757812</v>
       </c>
       <c r="EA2" t="n">
-        <v>362.5608520507812</v>
+        <v>424.5252075195312</v>
       </c>
       <c r="EB2" t="n">
-        <v>362.7588500976562</v>
+        <v>426.8514404296875</v>
       </c>
       <c r="EC2" t="n">
-        <v>363.2028503417969</v>
+        <v>426.9233703613281</v>
       </c>
       <c r="ED2" t="n">
-        <v>363.8307495117188</v>
+        <v>426.7296752929688</v>
       </c>
       <c r="EE2" t="n">
-        <v>367.4450073242188</v>
+        <v>426.5399780273438</v>
       </c>
       <c r="EF2" t="n">
-        <v>366.924560546875</v>
+        <v>425.2152709960938</v>
       </c>
       <c r="EG2" t="n">
-        <v>367.2793884277344</v>
+        <v>417.8291320800781</v>
       </c>
       <c r="EH2" t="n">
-        <v>367.0948791503906</v>
+        <v>415.3571166992188</v>
       </c>
       <c r="EI2" t="n">
-        <v>366.9837951660156</v>
+        <v>417.1797180175781</v>
       </c>
       <c r="EJ2" t="n">
-        <v>366.9026184082031</v>
+        <v>417.6183471679688</v>
       </c>
       <c r="EK2" t="n">
-        <v>366.8652038574219</v>
+        <v>413.7600708007812</v>
       </c>
       <c r="EL2" t="n">
-        <v>366.7886962890625</v>
+        <v>411.8524780273438</v>
       </c>
       <c r="EM2" t="n">
-        <v>366.7056884765625</v>
+        <v>403.6220703125</v>
       </c>
       <c r="EN2" t="n">
-        <v>366.5844116210938</v>
+        <v>394.0229797363281</v>
       </c>
       <c r="EO2" t="n">
-        <v>366.3473205566406</v>
+        <v>374.84716796875</v>
       </c>
       <c r="EP2" t="n">
-        <v>366.066650390625</v>
+        <v>362.9168395996094</v>
       </c>
       <c r="EQ2" t="n">
-        <v>366.1458740234375</v>
+        <v>354.8220825195312</v>
       </c>
       <c r="ER2" t="n">
-        <v>366.5352783203125</v>
+        <v>358.4788818359375</v>
       </c>
       <c r="ES2" t="n">
-        <v>366.786865234375</v>
+        <v>345.0420532226562</v>
       </c>
       <c r="ET2" t="n">
-        <v>367.61474609375</v>
+        <v>312.0722961425781</v>
       </c>
       <c r="EU2" t="n">
-        <v>368.0794677734375</v>
+        <v>287.3369140625</v>
       </c>
       <c r="EV2" t="n">
-        <v>367.9511108398438</v>
+        <v>284.9098815917969</v>
       </c>
       <c r="EW2" t="n">
-        <v>367.618408203125</v>
+        <v>282.0976867675781</v>
       </c>
       <c r="EX2" t="n">
-        <v>367.4873352050781</v>
+        <v>301.680908203125</v>
       </c>
       <c r="EY2" t="n">
-        <v>367.4775390625</v>
+        <v>222.0426025390625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>367.5586242675781</v>
+        <v>305.5729370117188</v>
       </c>
       <c r="FA2" t="n">
-        <v>367.552978515625</v>
+        <v>423.883056640625</v>
       </c>
       <c r="FB2" t="n">
-        <v>367.5496826171875</v>
+        <v>567.3021850585938</v>
       </c>
       <c r="FC2" t="n">
-        <v>367.5418395996094</v>
+        <v>590.8133544921875</v>
       </c>
       <c r="FD2" t="n">
-        <v>367.4991149902344</v>
+        <v>613.7470703125</v>
       </c>
       <c r="FE2" t="n">
-        <v>367.4542541503906</v>
+        <v>625.362060546875</v>
       </c>
       <c r="FF2" t="n">
-        <v>367.396240234375</v>
+        <v>645.54345703125</v>
       </c>
       <c r="FG2" t="n">
-        <v>367.3616027832031</v>
+        <v>647.3472900390625</v>
       </c>
       <c r="FH2" t="n">
-        <v>367.316162109375</v>
+        <v>389.9347229003906</v>
       </c>
       <c r="FI2" t="n">
-        <v>367.4609069824219</v>
+        <v>396.9119262695312</v>
       </c>
       <c r="FJ2" t="n">
-        <v>367.4735717773438</v>
+        <v>405.5440063476562</v>
       </c>
       <c r="FK2" t="n">
-        <v>367.4481811523438</v>
+        <v>410.2032775878906</v>
       </c>
       <c r="FL2" t="n">
-        <v>367.4718627929688</v>
+        <v>428.8776245117188</v>
       </c>
       <c r="FM2" t="n">
-        <v>367.4881286621094</v>
+        <v>443.3630065917969</v>
       </c>
       <c r="FN2" t="n">
-        <v>367.4635620117188</v>
+        <v>456.8087158203125</v>
       </c>
       <c r="FO2" t="n">
-        <v>367.4291381835938</v>
+        <v>477.4567260742188</v>
       </c>
       <c r="FP2" t="n">
-        <v>367.4206237792969</v>
+        <v>492.2601623535156</v>
       </c>
       <c r="FQ2" t="n">
-        <v>367.4171752929688</v>
+        <v>503.4622802734375</v>
       </c>
       <c r="FR2" t="n">
-        <v>367.4288330078125</v>
+        <v>513.71142578125</v>
       </c>
       <c r="FS2" t="n">
-        <v>367.4422607421875</v>
+        <v>511.9074096679688</v>
       </c>
       <c r="FT2" t="n">
-        <v>367.36669921875</v>
+        <v>510.2665710449219</v>
       </c>
       <c r="FU2" t="n">
-        <v>367.3659057617188</v>
+        <v>513.36279296875</v>
       </c>
       <c r="FV2" t="n">
-        <v>367.4120788574219</v>
+        <v>520.4961547851562</v>
       </c>
       <c r="FW2" t="n">
-        <v>367.4616088867188</v>
+        <v>540.3644409179688</v>
       </c>
       <c r="FX2" t="n">
-        <v>367.8800048828125</v>
+        <v>543.4467163085938</v>
       </c>
       <c r="FY2" t="n">
-        <v>368.1272583007812</v>
+        <v>540.4482421875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>368.1528015136719</v>
+        <v>539.6400756835938</v>
       </c>
       <c r="GA2" t="n">
-        <v>367.7038269042969</v>
+        <v>528.5267333984375</v>
       </c>
       <c r="GB2" t="n">
-        <v>367.2902221679688</v>
+        <v>523.60888671875</v>
       </c>
       <c r="GC2" t="n">
-        <v>366.9359741210938</v>
+        <v>544.5062866210938</v>
       </c>
       <c r="GD2" t="n">
-        <v>367.108154296875</v>
+        <v>566.6175537109375</v>
       </c>
       <c r="GE2" t="n">
-        <v>367.1788940429688</v>
+        <v>566.7337036132812</v>
       </c>
       <c r="GF2" t="n">
-        <v>367.3309936523438</v>
+        <v>558.6380615234375</v>
       </c>
       <c r="GG2" t="n">
-        <v>367.3741149902344</v>
+        <v>529.9085693359375</v>
       </c>
       <c r="GH2" t="n">
-        <v>367.4868469238281</v>
+        <v>444.39697265625</v>
       </c>
       <c r="GI2" t="n">
-        <v>367.53857421875</v>
+        <v>414.1348876953125</v>
       </c>
       <c r="GJ2" t="n">
-        <v>367.6146850585938</v>
+        <v>431.9349975585938</v>
       </c>
       <c r="GK2" t="n">
-        <v>367.8358154296875</v>
+        <v>449.953857421875</v>
       </c>
       <c r="GL2" t="n">
-        <v>367.9235534667969</v>
+        <v>452.5418395996094</v>
       </c>
       <c r="GM2" t="n">
-        <v>367.9247436523438</v>
+        <v>444.4205932617188</v>
       </c>
       <c r="GN2" t="n">
-        <v>367.8259887695312</v>
+        <v>393.6545104980469</v>
       </c>
       <c r="GO2" t="n">
-        <v>367.7727661132812</v>
+        <v>389.1634521484375</v>
       </c>
       <c r="GP2" t="n">
-        <v>367.8079833984375</v>
+        <v>364.0386962890625</v>
       </c>
       <c r="GQ2" t="n">
-        <v>367.9044189453125</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>367.8861694335938</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>367.78271484375</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>367.380615234375</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>366.9310913085938</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>366.0478210449219</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>368.1068420410156</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>368.3687744140625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>369.0372314453125</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>368.3566589355469</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>364.7008972167969</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>352.5079650878906</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>346.6139221191406</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>344.13671875</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>337.3119506835938</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>336.0723266601562</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>334.179443359375</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>334.4737548828125</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>335.4256591796875</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>336.2705078125</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>337.0357666015625</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>337.5852966308594</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>331.9512939453125</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>328.2595825195312</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>328.6983642578125</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>327.689697265625</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>325.0109558105469</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>327.2257080078125</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>332.394775390625</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>335.0421752929688</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>333.1365356445312</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>327.9151000976562</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>334.5307922363281</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>330.2439575195312</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>325.8458251953125</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>314.858642578125</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>311.5203857421875</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>302.97900390625</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>302.8749389648438</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>302.3351135253906</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>301.4857177734375</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>298.9691162109375</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>277.6786499023438</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>333.0196838378906</v>
-      </c>
-      <c r="II2" t="n">
-        <v>338.7260131835938</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>341.343017578125</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>355.6210327148438</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>374.4315795898438</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>381.4135131835938</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>318.025146484375</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>302.7659301757812</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>263.4308471679688</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>255.4366149902344</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>263.5605773925781</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>304.7395324707031</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>306.5295715332031</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>281.6548156738281</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>255.7040710449219</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>247.7047882080078</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>231.9945068359375</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>215.9483642578125</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>209.6717529296875</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>215.1541290283203</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>212.7854766845703</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>212.3967895507812</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>229.8115539550781</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>242.193115234375</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>271.9202270507812</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>300.7024230957031</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>317.3582458496094</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>314.500244140625</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>268.9737854003906</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>241.8323974609375</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>219.5613250732422</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>212.3080596923828</v>
+        <v>371.9141845703125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>598.7744140625</v>
+        <v>570.7551879882812</v>
       </c>
       <c r="B3" t="n">
-        <v>599.1392211914062</v>
+        <v>557.75</v>
       </c>
       <c r="C3" t="n">
-        <v>599.0491333007812</v>
+        <v>555.84619140625</v>
       </c>
       <c r="D3" t="n">
-        <v>598.975341796875</v>
+        <v>555.3646240234375</v>
       </c>
       <c r="E3" t="n">
-        <v>598.91943359375</v>
+        <v>555.1743774414062</v>
       </c>
       <c r="F3" t="n">
-        <v>598.895263671875</v>
+        <v>553.199462890625</v>
       </c>
       <c r="G3" t="n">
-        <v>598.93115234375</v>
+        <v>550.0035400390625</v>
       </c>
       <c r="H3" t="n">
-        <v>598.960205078125</v>
+        <v>551.5027465820312</v>
       </c>
       <c r="I3" t="n">
-        <v>598.9892578125</v>
+        <v>546.4761962890625</v>
       </c>
       <c r="J3" t="n">
-        <v>599.0206298828125</v>
+        <v>541.6529541015625</v>
       </c>
       <c r="K3" t="n">
-        <v>599.0994262695312</v>
+        <v>538.4625244140625</v>
       </c>
       <c r="L3" t="n">
-        <v>599.2529296875</v>
+        <v>533.1541137695312</v>
       </c>
       <c r="M3" t="n">
-        <v>599.3975219726562</v>
+        <v>521.9671020507812</v>
       </c>
       <c r="N3" t="n">
-        <v>599.6329345703125</v>
+        <v>511.3254089355469</v>
       </c>
       <c r="O3" t="n">
-        <v>599.6424560546875</v>
+        <v>500.9800415039062</v>
       </c>
       <c r="P3" t="n">
-        <v>599.7429809570312</v>
+        <v>492.0550842285156</v>
       </c>
       <c r="Q3" t="n">
-        <v>601.1519165039062</v>
+        <v>487.8802795410156</v>
       </c>
       <c r="R3" t="n">
-        <v>601.2781372070312</v>
+        <v>479.9731140136719</v>
       </c>
       <c r="S3" t="n">
-        <v>596.1891479492188</v>
+        <v>472.4072875976562</v>
       </c>
       <c r="T3" t="n">
-        <v>597.0001831054688</v>
+        <v>466.4590759277344</v>
       </c>
       <c r="U3" t="n">
-        <v>600.0086669921875</v>
+        <v>461.3039855957031</v>
       </c>
       <c r="V3" t="n">
-        <v>609.7827758789062</v>
+        <v>455.5089416503906</v>
       </c>
       <c r="W3" t="n">
-        <v>621.1607055664062</v>
+        <v>451.5248718261719</v>
       </c>
       <c r="X3" t="n">
-        <v>626.2978515625</v>
+        <v>448.0934143066406</v>
       </c>
       <c r="Y3" t="n">
-        <v>627.6865234375</v>
+        <v>444.8580627441406</v>
       </c>
       <c r="Z3" t="n">
-        <v>627.248046875</v>
+        <v>444.3090515136719</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.5949096679688</v>
+        <v>444.1370239257812</v>
       </c>
       <c r="AB3" t="n">
-        <v>626.8404541015625</v>
+        <v>445.2598876953125</v>
       </c>
       <c r="AC3" t="n">
-        <v>626.81103515625</v>
+        <v>448.4076232910156</v>
       </c>
       <c r="AD3" t="n">
-        <v>629.4340209960938</v>
+        <v>450.6405639648438</v>
       </c>
       <c r="AE3" t="n">
-        <v>632.1163330078125</v>
+        <v>451.1376647949219</v>
       </c>
       <c r="AF3" t="n">
-        <v>637.02001953125</v>
+        <v>451.1996459960938</v>
       </c>
       <c r="AG3" t="n">
-        <v>635.9013671875</v>
+        <v>451.4996643066406</v>
       </c>
       <c r="AH3" t="n">
-        <v>631.04541015625</v>
+        <v>450.9844055175781</v>
       </c>
       <c r="AI3" t="n">
-        <v>625.3689575195312</v>
+        <v>450.8255615234375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>623.6502685546875</v>
+        <v>452.5954284667969</v>
       </c>
       <c r="AK3" t="n">
-        <v>621.5680541992188</v>
+        <v>453.987548828125</v>
       </c>
       <c r="AL3" t="n">
-        <v>618.27734375</v>
+        <v>454.9042663574219</v>
       </c>
       <c r="AM3" t="n">
-        <v>615.21826171875</v>
+        <v>455.7698364257812</v>
       </c>
       <c r="AN3" t="n">
-        <v>611.9837646484375</v>
+        <v>455.0234375</v>
       </c>
       <c r="AO3" t="n">
-        <v>605.9479370117188</v>
+        <v>452.8367004394531</v>
       </c>
       <c r="AP3" t="n">
-        <v>582.4391479492188</v>
+        <v>451.8653259277344</v>
       </c>
       <c r="AQ3" t="n">
-        <v>553.3367309570312</v>
+        <v>452.6835327148438</v>
       </c>
       <c r="AR3" t="n">
-        <v>538.3524169921875</v>
+        <v>454.2576599121094</v>
       </c>
       <c r="AS3" t="n">
-        <v>549.2304077148438</v>
+        <v>457.1125793457031</v>
       </c>
       <c r="AT3" t="n">
-        <v>559.0966796875</v>
+        <v>461.8406066894531</v>
       </c>
       <c r="AU3" t="n">
-        <v>564.2695922851562</v>
+        <v>465.2574462890625</v>
       </c>
       <c r="AV3" t="n">
-        <v>558.5470581054688</v>
+        <v>467.9591674804688</v>
       </c>
       <c r="AW3" t="n">
-        <v>552.894775390625</v>
+        <v>467.6025695800781</v>
       </c>
       <c r="AX3" t="n">
-        <v>547.0059204101562</v>
+        <v>467.4600219726562</v>
       </c>
       <c r="AY3" t="n">
-        <v>541.6055908203125</v>
+        <v>469.3501586914062</v>
       </c>
       <c r="AZ3" t="n">
-        <v>538.802001953125</v>
+        <v>470.3589172363281</v>
       </c>
       <c r="BA3" t="n">
-        <v>532.1774291992188</v>
+        <v>469.5951538085938</v>
       </c>
       <c r="BB3" t="n">
-        <v>522.5936279296875</v>
+        <v>469.052978515625</v>
       </c>
       <c r="BC3" t="n">
-        <v>519.964599609375</v>
+        <v>469.1262512207031</v>
       </c>
       <c r="BD3" t="n">
-        <v>531.9873046875</v>
+        <v>470.7909545898438</v>
       </c>
       <c r="BE3" t="n">
-        <v>523.1998291015625</v>
+        <v>492.2674865722656</v>
       </c>
       <c r="BF3" t="n">
-        <v>513.2357788085938</v>
+        <v>488.6766357421875</v>
       </c>
       <c r="BG3" t="n">
-        <v>507.1557922363281</v>
+        <v>477.7161560058594</v>
       </c>
       <c r="BH3" t="n">
-        <v>504.4058532714844</v>
+        <v>474.2808837890625</v>
       </c>
       <c r="BI3" t="n">
-        <v>505.1047973632812</v>
+        <v>473.1695861816406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>502.0386962890625</v>
+        <v>472.2032775878906</v>
       </c>
       <c r="BK3" t="n">
-        <v>499.7523803710938</v>
+        <v>473.0738525390625</v>
       </c>
       <c r="BL3" t="n">
-        <v>497.3958129882812</v>
+        <v>475.524169921875</v>
       </c>
       <c r="BM3" t="n">
-        <v>497.4458312988281</v>
+        <v>477.2216186523438</v>
       </c>
       <c r="BN3" t="n">
-        <v>497.6895751953125</v>
+        <v>478.7941589355469</v>
       </c>
       <c r="BO3" t="n">
-        <v>500.2422485351562</v>
+        <v>479.5614929199219</v>
       </c>
       <c r="BP3" t="n">
-        <v>499.7953491210938</v>
+        <v>480.8099670410156</v>
       </c>
       <c r="BQ3" t="n">
-        <v>485.5357360839844</v>
+        <v>480.4053344726562</v>
       </c>
       <c r="BR3" t="n">
-        <v>481.3544616699219</v>
+        <v>480.1552429199219</v>
       </c>
       <c r="BS3" t="n">
-        <v>482.262939453125</v>
+        <v>479.651123046875</v>
       </c>
       <c r="BT3" t="n">
-        <v>485.1961975097656</v>
+        <v>478.3379821777344</v>
       </c>
       <c r="BU3" t="n">
-        <v>482.1900024414062</v>
+        <v>476.993896484375</v>
       </c>
       <c r="BV3" t="n">
-        <v>482.3844299316406</v>
+        <v>476.337646484375</v>
       </c>
       <c r="BW3" t="n">
-        <v>477.2135925292969</v>
+        <v>476.5767517089844</v>
       </c>
       <c r="BX3" t="n">
-        <v>471.8528137207031</v>
+        <v>476.7025146484375</v>
       </c>
       <c r="BY3" t="n">
-        <v>468.6465148925781</v>
+        <v>476.7969055175781</v>
       </c>
       <c r="BZ3" t="n">
-        <v>466.4651184082031</v>
+        <v>476.7679748535156</v>
       </c>
       <c r="CA3" t="n">
-        <v>461.4468994140625</v>
+        <v>476.7624206542969</v>
       </c>
       <c r="CB3" t="n">
-        <v>459.2646179199219</v>
+        <v>476.71875</v>
       </c>
       <c r="CC3" t="n">
-        <v>455.2348327636719</v>
+        <v>476.75146484375</v>
       </c>
       <c r="CD3" t="n">
-        <v>452.0451354980469</v>
+        <v>477.0406799316406</v>
       </c>
       <c r="CE3" t="n">
-        <v>448.7655639648438</v>
+        <v>477.4814147949219</v>
       </c>
       <c r="CF3" t="n">
-        <v>446.1785278320312</v>
+        <v>478.3033752441406</v>
       </c>
       <c r="CG3" t="n">
-        <v>445.0210266113281</v>
+        <v>479.8294372558594</v>
       </c>
       <c r="CH3" t="n">
-        <v>444.0914001464844</v>
+        <v>482.4145812988281</v>
       </c>
       <c r="CI3" t="n">
-        <v>444.6160888671875</v>
+        <v>483.4239501953125</v>
       </c>
       <c r="CJ3" t="n">
-        <v>445.2847595214844</v>
+        <v>483.4179992675781</v>
       </c>
       <c r="CK3" t="n">
-        <v>445.4244689941406</v>
+        <v>483.5742797851562</v>
       </c>
       <c r="CL3" t="n">
-        <v>447.5147399902344</v>
+        <v>482.8773803710938</v>
       </c>
       <c r="CM3" t="n">
-        <v>450.1202392578125</v>
+        <v>483.2405090332031</v>
       </c>
       <c r="CN3" t="n">
-        <v>453.0288391113281</v>
+        <v>483.4360961914062</v>
       </c>
       <c r="CO3" t="n">
-        <v>454.0494079589844</v>
+        <v>483.6201782226562</v>
       </c>
       <c r="CP3" t="n">
-        <v>456.2549743652344</v>
+        <v>483.4363708496094</v>
       </c>
       <c r="CQ3" t="n">
-        <v>456.6621704101562</v>
+        <v>483.3400268554688</v>
       </c>
       <c r="CR3" t="n">
-        <v>458.7799987792969</v>
+        <v>483.1043701171875</v>
       </c>
       <c r="CS3" t="n">
-        <v>458.1344299316406</v>
+        <v>483.3099670410156</v>
       </c>
       <c r="CT3" t="n">
-        <v>457.350830078125</v>
+        <v>483.3823547363281</v>
       </c>
       <c r="CU3" t="n">
-        <v>457.2504577636719</v>
+        <v>483.2371826171875</v>
       </c>
       <c r="CV3" t="n">
-        <v>454.8494262695312</v>
+        <v>482.9192199707031</v>
       </c>
       <c r="CW3" t="n">
-        <v>452.945068359375</v>
+        <v>482.6844482421875</v>
       </c>
       <c r="CX3" t="n">
-        <v>450.2862548828125</v>
+        <v>482.6318664550781</v>
       </c>
       <c r="CY3" t="n">
-        <v>448.2176513671875</v>
+        <v>482.4807434082031</v>
       </c>
       <c r="CZ3" t="n">
-        <v>448.1629333496094</v>
+        <v>482.1988220214844</v>
       </c>
       <c r="DA3" t="n">
-        <v>446.7391052246094</v>
+        <v>481.5943298339844</v>
       </c>
       <c r="DB3" t="n">
-        <v>445.39501953125</v>
+        <v>480.0434265136719</v>
       </c>
       <c r="DC3" t="n">
-        <v>445.1278381347656</v>
+        <v>477.6323547363281</v>
       </c>
       <c r="DD3" t="n">
-        <v>443.8328857421875</v>
+        <v>475.7823486328125</v>
       </c>
       <c r="DE3" t="n">
-        <v>442.6485900878906</v>
+        <v>473.5043029785156</v>
       </c>
       <c r="DF3" t="n">
-        <v>441.7930908203125</v>
+        <v>474.9853820800781</v>
       </c>
       <c r="DG3" t="n">
-        <v>441.21533203125</v>
+        <v>475.1333923339844</v>
       </c>
       <c r="DH3" t="n">
-        <v>440.2894287109375</v>
+        <v>474.7329711914062</v>
       </c>
       <c r="DI3" t="n">
-        <v>439.9329833984375</v>
+        <v>476.0284118652344</v>
       </c>
       <c r="DJ3" t="n">
-        <v>439.3978271484375</v>
+        <v>477.5619201660156</v>
       </c>
       <c r="DK3" t="n">
-        <v>438.7252197265625</v>
+        <v>477.4358215332031</v>
       </c>
       <c r="DL3" t="n">
-        <v>438.1553649902344</v>
+        <v>489.0695495605469</v>
       </c>
       <c r="DM3" t="n">
-        <v>437.7457580566406</v>
+        <v>491.7495422363281</v>
       </c>
       <c r="DN3" t="n">
-        <v>437.2400207519531</v>
+        <v>494.7232666015625</v>
       </c>
       <c r="DO3" t="n">
-        <v>436.7581481933594</v>
+        <v>496.8280334472656</v>
       </c>
       <c r="DP3" t="n">
-        <v>436.8422241210938</v>
+        <v>496.6396484375</v>
       </c>
       <c r="DQ3" t="n">
-        <v>437.1375427246094</v>
+        <v>497.5184326171875</v>
       </c>
       <c r="DR3" t="n">
-        <v>437.2678527832031</v>
+        <v>498.2048645019531</v>
       </c>
       <c r="DS3" t="n">
-        <v>437.4092407226562</v>
+        <v>495.9559326171875</v>
       </c>
       <c r="DT3" t="n">
-        <v>437.4820556640625</v>
+        <v>495.1161499023438</v>
       </c>
       <c r="DU3" t="n">
-        <v>437.4281616210938</v>
+        <v>493.35205078125</v>
       </c>
       <c r="DV3" t="n">
-        <v>437.1993408203125</v>
+        <v>485.4806823730469</v>
       </c>
       <c r="DW3" t="n">
-        <v>437.8597106933594</v>
+        <v>479.8564147949219</v>
       </c>
       <c r="DX3" t="n">
-        <v>439.704345703125</v>
+        <v>479.8392333984375</v>
       </c>
       <c r="DY3" t="n">
-        <v>440.3294067382812</v>
+        <v>479.7260437011719</v>
       </c>
       <c r="DZ3" t="n">
-        <v>439.9511413574219</v>
+        <v>479.642578125</v>
       </c>
       <c r="EA3" t="n">
-        <v>441.0505981445312</v>
+        <v>479.73974609375</v>
       </c>
       <c r="EB3" t="n">
-        <v>442.1880493164062</v>
+        <v>481.5160522460938</v>
       </c>
       <c r="EC3" t="n">
-        <v>444.6410827636719</v>
+        <v>481.6811828613281</v>
       </c>
       <c r="ED3" t="n">
-        <v>445.2044982910156</v>
+        <v>483.74267578125</v>
       </c>
       <c r="EE3" t="n">
-        <v>446.494384765625</v>
+        <v>484.2853393554688</v>
       </c>
       <c r="EF3" t="n">
-        <v>447.5076599121094</v>
+        <v>484.8352966308594</v>
       </c>
       <c r="EG3" t="n">
-        <v>449.2716064453125</v>
+        <v>485.2532348632812</v>
       </c>
       <c r="EH3" t="n">
-        <v>449.1522827148438</v>
+        <v>485.9349060058594</v>
       </c>
       <c r="EI3" t="n">
-        <v>448.6791687011719</v>
+        <v>486.681640625</v>
       </c>
       <c r="EJ3" t="n">
-        <v>448.8279418945312</v>
+        <v>487.4658813476562</v>
       </c>
       <c r="EK3" t="n">
-        <v>449.1441345214844</v>
+        <v>488.3380432128906</v>
       </c>
       <c r="EL3" t="n">
-        <v>449.3208618164062</v>
+        <v>491.2099914550781</v>
       </c>
       <c r="EM3" t="n">
-        <v>449.1894226074219</v>
+        <v>501.7930297851562</v>
       </c>
       <c r="EN3" t="n">
-        <v>449.2050170898438</v>
+        <v>505.4384460449219</v>
       </c>
       <c r="EO3" t="n">
-        <v>449.38232421875</v>
+        <v>515.4955444335938</v>
       </c>
       <c r="EP3" t="n">
-        <v>449.4969482421875</v>
+        <v>521.70947265625</v>
       </c>
       <c r="EQ3" t="n">
-        <v>449.3316650390625</v>
+        <v>533.077392578125</v>
       </c>
       <c r="ER3" t="n">
-        <v>448.650146484375</v>
+        <v>533.745849609375</v>
       </c>
       <c r="ES3" t="n">
-        <v>448.2408752441406</v>
+        <v>528.5828857421875</v>
       </c>
       <c r="ET3" t="n">
-        <v>447.2005004882812</v>
+        <v>525.3704833984375</v>
       </c>
       <c r="EU3" t="n">
-        <v>447.2149353027344</v>
+        <v>515.104736328125</v>
       </c>
       <c r="EV3" t="n">
-        <v>447.0670471191406</v>
+        <v>522.8825073242188</v>
       </c>
       <c r="EW3" t="n">
-        <v>446.9075622558594</v>
+        <v>545.09130859375</v>
       </c>
       <c r="EX3" t="n">
-        <v>446.975341796875</v>
+        <v>559.98291015625</v>
       </c>
       <c r="EY3" t="n">
-        <v>447.1412658691406</v>
+        <v>529.8121337890625</v>
       </c>
       <c r="EZ3" t="n">
-        <v>447.3550415039062</v>
+        <v>574.063232421875</v>
       </c>
       <c r="FA3" t="n">
-        <v>447.6424865722656</v>
+        <v>579.0830688476562</v>
       </c>
       <c r="FB3" t="n">
-        <v>447.8283996582031</v>
+        <v>409.4877319335938</v>
       </c>
       <c r="FC3" t="n">
-        <v>447.9965515136719</v>
+        <v>425.0258483886719</v>
       </c>
       <c r="FD3" t="n">
-        <v>448.1338500976562</v>
+        <v>449.5624694824219</v>
       </c>
       <c r="FE3" t="n">
-        <v>447.9858703613281</v>
+        <v>473.0606384277344</v>
       </c>
       <c r="FF3" t="n">
-        <v>448.1294860839844</v>
+        <v>513.7552490234375</v>
       </c>
       <c r="FG3" t="n">
-        <v>448.0409545898438</v>
+        <v>447.7784729003906</v>
       </c>
       <c r="FH3" t="n">
-        <v>447.8028259277344</v>
+        <v>657.6863403320312</v>
       </c>
       <c r="FI3" t="n">
-        <v>447.7577209472656</v>
+        <v>662.8121337890625</v>
       </c>
       <c r="FJ3" t="n">
-        <v>447.8704223632812</v>
+        <v>677.5146484375</v>
       </c>
       <c r="FK3" t="n">
-        <v>447.9367980957031</v>
+        <v>695.9879760742188</v>
       </c>
       <c r="FL3" t="n">
-        <v>447.7915344238281</v>
+        <v>736.9387817382812</v>
       </c>
       <c r="FM3" t="n">
-        <v>447.8253784179688</v>
+        <v>740.0770263671875</v>
       </c>
       <c r="FN3" t="n">
-        <v>447.811767578125</v>
+        <v>742.55029296875</v>
       </c>
       <c r="FO3" t="n">
-        <v>447.7797241210938</v>
+        <v>757.3251342773438</v>
       </c>
       <c r="FP3" t="n">
-        <v>447.779541015625</v>
+        <v>784.2843017578125</v>
       </c>
       <c r="FQ3" t="n">
-        <v>448.04541015625</v>
+        <v>789.0254516601562</v>
       </c>
       <c r="FR3" t="n">
-        <v>448.4223327636719</v>
+        <v>784.2464599609375</v>
       </c>
       <c r="FS3" t="n">
-        <v>450.2063293457031</v>
+        <v>756.2590942382812</v>
       </c>
       <c r="FT3" t="n">
-        <v>450.3389587402344</v>
+        <v>740.1236572265625</v>
       </c>
       <c r="FU3" t="n">
-        <v>450.6584777832031</v>
+        <v>731.7127685546875</v>
       </c>
       <c r="FV3" t="n">
-        <v>450.8538513183594</v>
+        <v>731.3460083007812</v>
       </c>
       <c r="FW3" t="n">
-        <v>451.1638793945312</v>
+        <v>726.0352783203125</v>
       </c>
       <c r="FX3" t="n">
-        <v>451.0468139648438</v>
+        <v>735.8578491210938</v>
       </c>
       <c r="FY3" t="n">
-        <v>450.92529296875</v>
+        <v>745.5150146484375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>450.9317321777344</v>
+        <v>747.6771240234375</v>
       </c>
       <c r="GA3" t="n">
-        <v>451.1144409179688</v>
+        <v>749.8910522460938</v>
       </c>
       <c r="GB3" t="n">
-        <v>451.2544555664062</v>
+        <v>731.5932006835938</v>
       </c>
       <c r="GC3" t="n">
-        <v>451.7056274414062</v>
+        <v>719.4976196289062</v>
       </c>
       <c r="GD3" t="n">
-        <v>452.4333190917969</v>
+        <v>717.626708984375</v>
       </c>
       <c r="GE3" t="n">
-        <v>451.9206237792969</v>
+        <v>754.9077758789062</v>
       </c>
       <c r="GF3" t="n">
-        <v>450.4501342773438</v>
+        <v>783.2028198242188</v>
       </c>
       <c r="GG3" t="n">
-        <v>450.9429321289062</v>
+        <v>761.6503295898438</v>
       </c>
       <c r="GH3" t="n">
-        <v>451.6886596679688</v>
+        <v>822.5906982421875</v>
       </c>
       <c r="GI3" t="n">
-        <v>451.549560546875</v>
+        <v>786.4243774414062</v>
       </c>
       <c r="GJ3" t="n">
-        <v>451.5739135742188</v>
+        <v>758.2677001953125</v>
       </c>
       <c r="GK3" t="n">
-        <v>451.1298217773438</v>
+        <v>808.4852294921875</v>
       </c>
       <c r="GL3" t="n">
-        <v>450.7456665039062</v>
+        <v>785.4624633789062</v>
       </c>
       <c r="GM3" t="n">
-        <v>450.2475891113281</v>
+        <v>798.5146484375</v>
       </c>
       <c r="GN3" t="n">
-        <v>450.2186584472656</v>
+        <v>819.8659057617188</v>
       </c>
       <c r="GO3" t="n">
-        <v>450.2550048828125</v>
+        <v>808.7921752929688</v>
       </c>
       <c r="GP3" t="n">
-        <v>450.1357421875</v>
+        <v>858.7796630859375</v>
       </c>
       <c r="GQ3" t="n">
-        <v>450.0234985351562</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>449.9696350097656</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>450.0086975097656</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>450.4256286621094</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>451.3843994140625</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>452.1052856445312</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>449.1483459472656</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>447.5560302734375</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>440.1887512207031</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>435.6371459960938</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>436.8158264160156</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>441.4269714355469</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>444.4738464355469</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>444.2164916992188</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>446.2433776855469</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>448.5472717285156</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>456.2695617675781</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>463.7796020507812</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>465.0725402832031</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>465.900634765625</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>468.3465881347656</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>471.8082580566406</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>479.1481018066406</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>487.1976013183594</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>491.6330871582031</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>493.4361572265625</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>496.9473876953125</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>499.2842102050781</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>505.0541381835938</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>509.9200744628906</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>518.0553588867188</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>512.4308471679688</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>507.0422668457031</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>509.0320434570312</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>513.1777954101562</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>557.20654296875</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>571.5842895507812</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>568.2048950195312</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>567.7915649414062</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>578.99658203125</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>597.3084716796875</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>622.2838134765625</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>650.9826049804688</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>602.335205078125</v>
-      </c>
-      <c r="II3" t="n">
-        <v>645.8911743164062</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>693.0239868164062</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>727.0255126953125</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>772.7048950195312</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>884.3424682617188</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>1065.146606445312</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>1001.646057128906</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>1023.093994140625</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1002.490112304688</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>949.345703125</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>1049.088500976562</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>840.6990356445312</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>756.3793334960938</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>696.45068359375</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>714.846923828125</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>702.4496459960938</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>718.4398803710938</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>772.0657958984375</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>823.8775024414062</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>822.6887817382812</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>795.2098388671875</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>759.5851440429688</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>753.5635986328125</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>722.4614868164062</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>735.7689819335938</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>713.4107666015625</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>706.0167236328125</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>763.2507934570312</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>764.9852294921875</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>788.6332397460938</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>792.125732421875</v>
+        <v>858.0665283203125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>842.368896484375</v>
+        <v>1159.563598632812</v>
       </c>
       <c r="B4" t="n">
-        <v>842.4635009765625</v>
+        <v>1166.588623046875</v>
       </c>
       <c r="C4" t="n">
-        <v>842.53125</v>
+        <v>1174.229370117188</v>
       </c>
       <c r="D4" t="n">
-        <v>842.6162719726562</v>
+        <v>1172.126220703125</v>
       </c>
       <c r="E4" t="n">
-        <v>842.6822509765625</v>
+        <v>1168.825561523438</v>
       </c>
       <c r="F4" t="n">
-        <v>842.677001953125</v>
+        <v>1170.064331054688</v>
       </c>
       <c r="G4" t="n">
-        <v>842.6376953125</v>
+        <v>1171.457275390625</v>
       </c>
       <c r="H4" t="n">
-        <v>842.5987548828125</v>
+        <v>1170.469116210938</v>
       </c>
       <c r="I4" t="n">
-        <v>842.54443359375</v>
+        <v>1170.31640625</v>
       </c>
       <c r="J4" t="n">
-        <v>842.4944458007812</v>
+        <v>1170.728637695312</v>
       </c>
       <c r="K4" t="n">
-        <v>842.3944091796875</v>
+        <v>1172.774291992188</v>
       </c>
       <c r="L4" t="n">
-        <v>842.2213745117188</v>
+        <v>1177.016235351562</v>
       </c>
       <c r="M4" t="n">
-        <v>842.0057983398438</v>
+        <v>1195.68994140625</v>
       </c>
       <c r="N4" t="n">
-        <v>841.5628051757812</v>
+        <v>1225.549438476562</v>
       </c>
       <c r="O4" t="n">
-        <v>840.4342651367188</v>
+        <v>1241.779052734375</v>
       </c>
       <c r="P4" t="n">
-        <v>837.9097290039062</v>
+        <v>1248.303344726562</v>
       </c>
       <c r="Q4" t="n">
-        <v>831.2672729492188</v>
+        <v>1254.548950195312</v>
       </c>
       <c r="R4" t="n">
-        <v>820.7908325195312</v>
+        <v>1262.874145507812</v>
       </c>
       <c r="S4" t="n">
-        <v>826.6661376953125</v>
+        <v>1266.249755859375</v>
       </c>
       <c r="T4" t="n">
-        <v>833.5414428710938</v>
+        <v>1275.569458007812</v>
       </c>
       <c r="U4" t="n">
-        <v>837.1115112304688</v>
+        <v>1285.893432617188</v>
       </c>
       <c r="V4" t="n">
-        <v>832.8547973632812</v>
+        <v>1293.544799804688</v>
       </c>
       <c r="W4" t="n">
-        <v>825.7740478515625</v>
+        <v>1302.509033203125</v>
       </c>
       <c r="X4" t="n">
-        <v>819.1456298828125</v>
+        <v>1309.727661132812</v>
       </c>
       <c r="Y4" t="n">
-        <v>816.6923828125</v>
+        <v>1312.102416992188</v>
       </c>
       <c r="Z4" t="n">
-        <v>814.249267578125</v>
+        <v>1317.666381835938</v>
       </c>
       <c r="AA4" t="n">
-        <v>812.02490234375</v>
+        <v>1326.287109375</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.0366821289062</v>
+        <v>1333.150146484375</v>
       </c>
       <c r="AC4" t="n">
-        <v>811.3399658203125</v>
+        <v>1327.816650390625</v>
       </c>
       <c r="AD4" t="n">
-        <v>810.1541137695312</v>
+        <v>1315.344970703125</v>
       </c>
       <c r="AE4" t="n">
-        <v>809.8492431640625</v>
+        <v>1305.256713867188</v>
       </c>
       <c r="AF4" t="n">
-        <v>808.5560302734375</v>
+        <v>1298.420654296875</v>
       </c>
       <c r="AG4" t="n">
-        <v>810.3218994140625</v>
+        <v>1292.185791015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>818.2183227539062</v>
+        <v>1290.100463867188</v>
       </c>
       <c r="AI4" t="n">
-        <v>828.9107055664062</v>
+        <v>1286.836181640625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>831.1659545898438</v>
+        <v>1283.069458007812</v>
       </c>
       <c r="AK4" t="n">
-        <v>834.726806640625</v>
+        <v>1277.650146484375</v>
       </c>
       <c r="AL4" t="n">
-        <v>840.7607421875</v>
+        <v>1275.411254882812</v>
       </c>
       <c r="AM4" t="n">
-        <v>846.7655029296875</v>
+        <v>1272.656494140625</v>
       </c>
       <c r="AN4" t="n">
-        <v>856.3045043945312</v>
+        <v>1269.045654296875</v>
       </c>
       <c r="AO4" t="n">
-        <v>876.7113037109375</v>
+        <v>1267.838012695312</v>
       </c>
       <c r="AP4" t="n">
-        <v>881.9158325195312</v>
+        <v>1266.061767578125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>924.361083984375</v>
+        <v>1262.987915039062</v>
       </c>
       <c r="AR4" t="n">
-        <v>970.4111938476562</v>
+        <v>1258.193481445312</v>
       </c>
       <c r="AS4" t="n">
-        <v>968.4769287109375</v>
+        <v>1249.968627929688</v>
       </c>
       <c r="AT4" t="n">
-        <v>980.6693115234375</v>
+        <v>1232.736694335938</v>
       </c>
       <c r="AU4" t="n">
-        <v>1007.4140625</v>
+        <v>1223.402954101562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1042.557983398438</v>
+        <v>1211.880615234375</v>
       </c>
       <c r="AW4" t="n">
-        <v>1078.07421875</v>
+        <v>1213.619262695312</v>
       </c>
       <c r="AX4" t="n">
-        <v>1111.889892578125</v>
+        <v>1215.331787109375</v>
       </c>
       <c r="AY4" t="n">
-        <v>1145.981689453125</v>
+        <v>1216.847900390625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1162.108642578125</v>
+        <v>1218.466064453125</v>
       </c>
       <c r="BA4" t="n">
-        <v>1173.177490234375</v>
+        <v>1220.3017578125</v>
       </c>
       <c r="BB4" t="n">
-        <v>1193.259643554688</v>
+        <v>1222.294555664062</v>
       </c>
       <c r="BC4" t="n">
-        <v>1217.102661132812</v>
+        <v>1221.955200195312</v>
       </c>
       <c r="BD4" t="n">
-        <v>937.3653564453125</v>
+        <v>1223.169921875</v>
       </c>
       <c r="BE4" t="n">
-        <v>949.4766845703125</v>
+        <v>1011.005004882812</v>
       </c>
       <c r="BF4" t="n">
-        <v>977.310546875</v>
+        <v>999.188720703125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1000.974060058594</v>
+        <v>982.0782470703125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1018.396057128906</v>
+        <v>979.9476928710938</v>
       </c>
       <c r="BI4" t="n">
-        <v>1087.823974609375</v>
+        <v>989.85400390625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1130.077880859375</v>
+        <v>989.6234130859375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1162.30419921875</v>
+        <v>989.0338134765625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1191.056396484375</v>
+        <v>987.7010498046875</v>
       </c>
       <c r="BM4" t="n">
-        <v>1229.71630859375</v>
+        <v>988.8781127929688</v>
       </c>
       <c r="BN4" t="n">
-        <v>1273.13818359375</v>
+        <v>999.6262817382812</v>
       </c>
       <c r="BO4" t="n">
-        <v>1315.389892578125</v>
+        <v>1019.306396484375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1333.787353515625</v>
+        <v>1045.73583984375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1227.194580078125</v>
+        <v>1061.942626953125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1247.933837890625</v>
+        <v>1073.5322265625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1283.554077148438</v>
+        <v>1087.579345703125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1304.963500976562</v>
+        <v>1099.67333984375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1324.88623046875</v>
+        <v>1107.395629882812</v>
       </c>
       <c r="BV4" t="n">
-        <v>1507.4013671875</v>
+        <v>1110.83837890625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1557.654052734375</v>
+        <v>1112.596069335938</v>
       </c>
       <c r="BX4" t="n">
-        <v>1599.7294921875</v>
+        <v>1114.708251953125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1621.85791015625</v>
+        <v>1113.84033203125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1633.958740234375</v>
+        <v>1112.826416015625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1652.359375</v>
+        <v>1112.382446289062</v>
       </c>
       <c r="CB4" t="n">
-        <v>1662.34716796875</v>
+        <v>1112.034912109375</v>
       </c>
       <c r="CC4" t="n">
-        <v>1677.63330078125</v>
+        <v>1111.681396484375</v>
       </c>
       <c r="CD4" t="n">
-        <v>1694.412841796875</v>
+        <v>1110.986328125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1717.344970703125</v>
+        <v>1110.082275390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1739.462524414062</v>
+        <v>1108.645751953125</v>
       </c>
       <c r="CG4" t="n">
-        <v>1752.136352539062</v>
+        <v>1105.828369140625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1765.24951171875</v>
+        <v>1100.81298828125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1769.524047851562</v>
+        <v>1098.208862304688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1766.737670898438</v>
+        <v>1096.847900390625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1774.056396484375</v>
+        <v>1095.838989257812</v>
       </c>
       <c r="CL4" t="n">
-        <v>1776.703857421875</v>
+        <v>1094.31396484375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1787.173095703125</v>
+        <v>1092.410888671875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1795.864868164062</v>
+        <v>1090.361206054688</v>
       </c>
       <c r="CO4" t="n">
-        <v>1791.50830078125</v>
+        <v>1090.1220703125</v>
       </c>
       <c r="CP4" t="n">
-        <v>1795.20556640625</v>
+        <v>1090.449951171875</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1806.354370117188</v>
+        <v>1090.693725585938</v>
       </c>
       <c r="CR4" t="n">
-        <v>1787.692993164062</v>
+        <v>1090.618896484375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1775.214721679688</v>
+        <v>1090.589721679688</v>
       </c>
       <c r="CT4" t="n">
-        <v>1746.58447265625</v>
+        <v>1090.859008789062</v>
       </c>
       <c r="CU4" t="n">
-        <v>1769.36181640625</v>
+        <v>1091.59814453125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1798.3173828125</v>
+        <v>1092.69140625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1806.379516601562</v>
+        <v>1094.099243164062</v>
       </c>
       <c r="CX4" t="n">
-        <v>1809.537353515625</v>
+        <v>1095.796142578125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1830.838623046875</v>
+        <v>1097.855712890625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1844.739135742188</v>
+        <v>1100.803955078125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1850.71240234375</v>
+        <v>1105.265869140625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1863.3232421875</v>
+        <v>1109.199951171875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1846.659057617188</v>
+        <v>1108.49365234375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1861.2919921875</v>
+        <v>1104.435791015625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1865.088500976562</v>
+        <v>1098.7431640625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1863.15869140625</v>
+        <v>1094.186279296875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1864.479736328125</v>
+        <v>1090.36328125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1865.405029296875</v>
+        <v>1088.03173828125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1866.171508789062</v>
+        <v>1091.595825195312</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1867.408447265625</v>
+        <v>1096.34228515625</v>
       </c>
       <c r="DK4" t="n">
-        <v>1868.933349609375</v>
+        <v>1101.768798828125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1870.052368164062</v>
+        <v>1098.972778320312</v>
       </c>
       <c r="DM4" t="n">
-        <v>1869.873779296875</v>
+        <v>1095.933837890625</v>
       </c>
       <c r="DN4" t="n">
-        <v>1870.330200195312</v>
+        <v>1091.663208007812</v>
       </c>
       <c r="DO4" t="n">
-        <v>1868.921997070312</v>
+        <v>1090.86962890625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1869.9169921875</v>
+        <v>1086.990478515625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1869.490234375</v>
+        <v>1086.329833984375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1869.553833007812</v>
+        <v>1084.616333007812</v>
       </c>
       <c r="DS4" t="n">
-        <v>1870.045166015625</v>
+        <v>1080.843017578125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1869.744140625</v>
+        <v>1087.230712890625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1869.3427734375</v>
+        <v>1092.401123046875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1868.6640625</v>
+        <v>1101.794799804688</v>
       </c>
       <c r="DW4" t="n">
-        <v>1861.857055664062</v>
+        <v>1101.93408203125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1858.491333007812</v>
+        <v>1098.222900390625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1856.132568359375</v>
+        <v>1100.15380859375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1853.45703125</v>
+        <v>1098.506958007812</v>
       </c>
       <c r="EA4" t="n">
-        <v>1848.95849609375</v>
+        <v>1092.682373046875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1844.949462890625</v>
+        <v>1085.987548828125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1843.245971679688</v>
+        <v>1092.324096679688</v>
       </c>
       <c r="ED4" t="n">
-        <v>1842.859252929688</v>
+        <v>1089.1611328125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1836.268676757812</v>
+        <v>1085.827270507812</v>
       </c>
       <c r="EF4" t="n">
-        <v>1845.2587890625</v>
+        <v>1084.2041015625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1829.87255859375</v>
+        <v>1080.73388671875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1834.73095703125</v>
+        <v>1080.460083007812</v>
       </c>
       <c r="EI4" t="n">
-        <v>1833.550415039062</v>
+        <v>1080.042724609375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1835.181884765625</v>
+        <v>1075.78369140625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1836.6953125</v>
+        <v>1092.460815429688</v>
       </c>
       <c r="EL4" t="n">
-        <v>1840.814208984375</v>
+        <v>1089.74658203125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1842.75244140625</v>
+        <v>1041.689819335938</v>
       </c>
       <c r="EN4" t="n">
-        <v>1840.794067382812</v>
+        <v>1018.427124023438</v>
       </c>
       <c r="EO4" t="n">
-        <v>1836.656494140625</v>
+        <v>973.1748657226562</v>
       </c>
       <c r="EP4" t="n">
-        <v>1831.052368164062</v>
+        <v>947.2620849609375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1828.329467773438</v>
+        <v>896.849365234375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1826.381713867188</v>
+        <v>856.5938720703125</v>
       </c>
       <c r="ES4" t="n">
-        <v>1820.469604492188</v>
+        <v>789.0504150390625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1817.037475585938</v>
+        <v>775.6220703125</v>
       </c>
       <c r="EU4" t="n">
-        <v>1821.315795898438</v>
+        <v>774.8847045898438</v>
       </c>
       <c r="EV4" t="n">
-        <v>1817.948974609375</v>
+        <v>744.9986572265625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1815.622314453125</v>
+        <v>713.13134765625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1816.876953125</v>
+        <v>730.6046752929688</v>
       </c>
       <c r="EY4" t="n">
-        <v>1815.921020507812</v>
+        <v>674.1419067382812</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1815.985107421875</v>
+        <v>617.2692260742188</v>
       </c>
       <c r="FA4" t="n">
-        <v>1815.678955078125</v>
+        <v>659.951171875</v>
       </c>
       <c r="FB4" t="n">
-        <v>1814.946044921875</v>
+        <v>772.3178100585938</v>
       </c>
       <c r="FC4" t="n">
-        <v>1814.271484375</v>
+        <v>698.9427490234375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1814.140258789062</v>
+        <v>625.65478515625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1814.051513671875</v>
+        <v>572.7889404296875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1812.36474609375</v>
+        <v>482.5001831054688</v>
       </c>
       <c r="FG4" t="n">
-        <v>1811.696899414062</v>
+        <v>477.5474548339844</v>
       </c>
       <c r="FH4" t="n">
-        <v>1810.59228515625</v>
+        <v>773.60400390625</v>
       </c>
       <c r="FI4" t="n">
-        <v>1816.458129882812</v>
+        <v>768.5620727539062</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1819.564086914062</v>
+        <v>768.34130859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>1818.24609375</v>
+        <v>770.4536743164062</v>
       </c>
       <c r="FL4" t="n">
-        <v>1818.789184570312</v>
+        <v>751.9342041015625</v>
       </c>
       <c r="FM4" t="n">
-        <v>1818.73583984375</v>
+        <v>748.3966064453125</v>
       </c>
       <c r="FN4" t="n">
-        <v>1817.94091796875</v>
+        <v>750.1390991210938</v>
       </c>
       <c r="FO4" t="n">
-        <v>1816.6064453125</v>
+        <v>754.0209350585938</v>
       </c>
       <c r="FP4" t="n">
-        <v>1815.3251953125</v>
+        <v>748.7750854492188</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1814.695556640625</v>
+        <v>745.3994140625</v>
       </c>
       <c r="FR4" t="n">
-        <v>1813.7578125</v>
+        <v>750.22216796875</v>
       </c>
       <c r="FS4" t="n">
-        <v>1809.59521484375</v>
+        <v>772.4818115234375</v>
       </c>
       <c r="FT4" t="n">
-        <v>1809.3857421875</v>
+        <v>782.5125122070312</v>
       </c>
       <c r="FU4" t="n">
-        <v>1808.998046875</v>
+        <v>780.77294921875</v>
       </c>
       <c r="FV4" t="n">
-        <v>1809.531494140625</v>
+        <v>775.9683227539062</v>
       </c>
       <c r="FW4" t="n">
-        <v>1811.89599609375</v>
+        <v>767.2659301757812</v>
       </c>
       <c r="FX4" t="n">
-        <v>1811.889892578125</v>
+        <v>759.7508544921875</v>
       </c>
       <c r="FY4" t="n">
-        <v>1810.837158203125</v>
+        <v>761.9083251953125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1810.066650390625</v>
+        <v>763.1705322265625</v>
       </c>
       <c r="GA4" t="n">
-        <v>1810.913330078125</v>
+        <v>785.1394653320312</v>
       </c>
       <c r="GB4" t="n">
-        <v>1811.990356445312</v>
+        <v>810.3297119140625</v>
       </c>
       <c r="GC4" t="n">
-        <v>1810.941284179688</v>
+        <v>790.61572265625</v>
       </c>
       <c r="GD4" t="n">
-        <v>1808.348022460938</v>
+        <v>751.1400756835938</v>
       </c>
       <c r="GE4" t="n">
-        <v>1809.546752929688</v>
+        <v>699.4470825195312</v>
       </c>
       <c r="GF4" t="n">
-        <v>1813.581909179688</v>
+        <v>691.5661010742188</v>
       </c>
       <c r="GG4" t="n">
-        <v>1813.447875976562</v>
+        <v>742.3802490234375</v>
       </c>
       <c r="GH4" t="n">
-        <v>1813.355590820312</v>
+        <v>717.306640625</v>
       </c>
       <c r="GI4" t="n">
-        <v>1815.546020507812</v>
+        <v>704.3212890625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1813.7158203125</v>
+        <v>750.7062377929688</v>
       </c>
       <c r="GK4" t="n">
-        <v>1808.203125</v>
+        <v>678.0961303710938</v>
       </c>
       <c r="GL4" t="n">
-        <v>1810.642944335938</v>
+        <v>715.5968017578125</v>
       </c>
       <c r="GM4" t="n">
-        <v>1810.498413085938</v>
+        <v>670.9633178710938</v>
       </c>
       <c r="GN4" t="n">
-        <v>1811.781005859375</v>
+        <v>678.090087890625</v>
       </c>
       <c r="GO4" t="n">
-        <v>1812.600708007812</v>
+        <v>700.6051635742188</v>
       </c>
       <c r="GP4" t="n">
-        <v>1813.13623046875</v>
+        <v>665.6905517578125</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1813.309814453125</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>1814.6533203125</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>1814.94775390625</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>1814.0078125</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>1814.330688476562</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>1816.094360351562</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>1753.595703125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>1742.161499023438</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>1709.483276367188</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>1691.55517578125</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>1685.5166015625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>1674.959594726562</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1665.526733398438</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1662.558227539062</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1631.934692382812</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1619.9677734375</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1581.121826171875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1534.874633789062</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1498.69091796875</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1494.9267578125</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1484.436279296875</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1464.297485351562</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1445.958129882812</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1419.126708984375</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1392.50830078125</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1371.509033203125</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1339.506958007812</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1306.238159179688</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1260.174438476562</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1242.913330078125</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1200.946533203125</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1281.656127929688</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1315.199829101562</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1268.435546875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1220.955810546875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>969.5516357421875</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>906.4552612304688</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>851.6694946289062</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>841.1534423828125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>798.3167724609375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>749.7574462890625</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>681.2586669921875</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>542.2880249023438</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>810.31787109375</v>
-      </c>
-      <c r="II4" t="n">
-        <v>730.1705932617188</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>675.0619506835938</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>612.7916870117188</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>560.0377197265625</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>539.7498168945312</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>506.1652221679688</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>530.9357299804688</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>509.690185546875</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>516.85791015625</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>549.2679443359375</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>440.6293640136719</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>531.6253662109375</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>592.9089965820312</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>694.5538940429688</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>693.6110229492188</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>707.8738403320312</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>707.1439208984375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>697.46630859375</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>674.9352416992188</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>713.6121215820312</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>741.1556396484375</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>791.0846557617188</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>791.5848388671875</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>846.4912719726562</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>864.9193725585938</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>907.7614135742188</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>911.6068725585938</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>815.1563110351562</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>803.6465454101562</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>774.8054809570312</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>792.679443359375</v>
+        <v>647.70068359375</v>
       </c>
     </row>
   </sheetData>

--- a/left_knee_Data.xlsx
+++ b/left_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>455.9338989257812</v>
+        <v>358.7896118164062</v>
       </c>
       <c r="B2" t="n">
-        <v>457.7470397949219</v>
+        <v>359.8189697265625</v>
       </c>
       <c r="C2" t="n">
-        <v>458.2316589355469</v>
+        <v>356.78271484375</v>
       </c>
       <c r="D2" t="n">
-        <v>459.7465515136719</v>
+        <v>357.5908813476562</v>
       </c>
       <c r="E2" t="n">
-        <v>460.8385925292969</v>
+        <v>359.4894714355469</v>
       </c>
       <c r="F2" t="n">
-        <v>461.9712829589844</v>
+        <v>363.1636962890625</v>
       </c>
       <c r="G2" t="n">
-        <v>463.5991821289062</v>
+        <v>364.72216796875</v>
       </c>
       <c r="H2" t="n">
-        <v>464.64990234375</v>
+        <v>364.6412658691406</v>
       </c>
       <c r="I2" t="n">
-        <v>465.1410522460938</v>
+        <v>363.5057983398438</v>
       </c>
       <c r="J2" t="n">
-        <v>465.2372436523438</v>
+        <v>361.85107421875</v>
       </c>
       <c r="K2" t="n">
-        <v>464.5202026367188</v>
+        <v>360.9024353027344</v>
       </c>
       <c r="L2" t="n">
-        <v>463.655029296875</v>
+        <v>360.5376586914062</v>
       </c>
       <c r="M2" t="n">
-        <v>459.3792724609375</v>
+        <v>359.0650024414062</v>
       </c>
       <c r="N2" t="n">
-        <v>450.525390625</v>
+        <v>359.4585571289062</v>
       </c>
       <c r="O2" t="n">
-        <v>442.0540161132812</v>
+        <v>359.5166625976562</v>
       </c>
       <c r="P2" t="n">
-        <v>437.3889465332031</v>
+        <v>358.8483276367188</v>
       </c>
       <c r="Q2" t="n">
-        <v>434.56689453125</v>
+        <v>357.9140625</v>
       </c>
       <c r="R2" t="n">
-        <v>433.1122436523438</v>
+        <v>356.2671508789062</v>
       </c>
       <c r="S2" t="n">
-        <v>431.9119567871094</v>
+        <v>350.618408203125</v>
       </c>
       <c r="T2" t="n">
-        <v>429.7124938964844</v>
+        <v>348.6837768554688</v>
       </c>
       <c r="U2" t="n">
-        <v>425.9762573242188</v>
+        <v>348.2760009765625</v>
       </c>
       <c r="V2" t="n">
-        <v>421.4951782226562</v>
+        <v>347.8524780273438</v>
       </c>
       <c r="W2" t="n">
-        <v>417.2101440429688</v>
+        <v>347.2435913085938</v>
       </c>
       <c r="X2" t="n">
-        <v>415.1913757324219</v>
+        <v>346.5399475097656</v>
       </c>
       <c r="Y2" t="n">
-        <v>413.4029541015625</v>
+        <v>345.9662170410156</v>
       </c>
       <c r="Z2" t="n">
-        <v>410.3812255859375</v>
+        <v>345.5782775878906</v>
       </c>
       <c r="AA2" t="n">
-        <v>406.7193298339844</v>
+        <v>344.1468505859375</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.1329956054688</v>
+        <v>341.4695739746094</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.7129516601562</v>
+        <v>336.9137878417969</v>
       </c>
       <c r="AD2" t="n">
-        <v>402.8339233398438</v>
+        <v>331.3140258789062</v>
       </c>
       <c r="AE2" t="n">
-        <v>404.8558959960938</v>
+        <v>331.7406921386719</v>
       </c>
       <c r="AF2" t="n">
-        <v>406.4715576171875</v>
+        <v>331.1109008789062</v>
       </c>
       <c r="AG2" t="n">
-        <v>407.6953125</v>
+        <v>329.8437194824219</v>
       </c>
       <c r="AH2" t="n">
-        <v>408.4515075683594</v>
+        <v>328.3228149414062</v>
       </c>
       <c r="AI2" t="n">
-        <v>408.9888305664062</v>
+        <v>329.2459106445312</v>
       </c>
       <c r="AJ2" t="n">
-        <v>408.8995361328125</v>
+        <v>329.6982421875</v>
       </c>
       <c r="AK2" t="n">
-        <v>408.96630859375</v>
+        <v>329.7988891601562</v>
       </c>
       <c r="AL2" t="n">
-        <v>407.8129577636719</v>
+        <v>331.7664184570312</v>
       </c>
       <c r="AM2" t="n">
-        <v>405.8153686523438</v>
+        <v>333.5702209472656</v>
       </c>
       <c r="AN2" t="n">
-        <v>403.3244018554688</v>
+        <v>336.81201171875</v>
       </c>
       <c r="AO2" t="n">
-        <v>401.0204467773438</v>
+        <v>339.7000122070312</v>
       </c>
       <c r="AP2" t="n">
-        <v>399.6575622558594</v>
+        <v>336.6292114257812</v>
       </c>
       <c r="AQ2" t="n">
-        <v>399.00048828125</v>
+        <v>337.7376098632812</v>
       </c>
       <c r="AR2" t="n">
-        <v>398.4212951660156</v>
+        <v>339.8907470703125</v>
       </c>
       <c r="AS2" t="n">
-        <v>398.3850708007812</v>
+        <v>341.0130615234375</v>
       </c>
       <c r="AT2" t="n">
-        <v>397.9660339355469</v>
+        <v>340.0964965820312</v>
       </c>
       <c r="AU2" t="n">
-        <v>394.0432434082031</v>
+        <v>339.7130126953125</v>
       </c>
       <c r="AV2" t="n">
-        <v>387.0561218261719</v>
+        <v>340.2392578125</v>
       </c>
       <c r="AW2" t="n">
-        <v>380.2102661132812</v>
+        <v>341.0942993164062</v>
       </c>
       <c r="AX2" t="n">
-        <v>374.4220275878906</v>
+        <v>342.1136779785156</v>
       </c>
       <c r="AY2" t="n">
-        <v>369.3968505859375</v>
+        <v>342.0369873046875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>361.9488830566406</v>
+        <v>342.02001953125</v>
       </c>
       <c r="BA2" t="n">
-        <v>353.9176025390625</v>
+        <v>342.04931640625</v>
       </c>
       <c r="BB2" t="n">
-        <v>344.4198303222656</v>
+        <v>342.2054443359375</v>
       </c>
       <c r="BC2" t="n">
-        <v>336.1283874511719</v>
+        <v>342.1975402832031</v>
       </c>
       <c r="BD2" t="n">
-        <v>330.5491333007812</v>
+        <v>342.0910034179688</v>
       </c>
       <c r="BE2" t="n">
-        <v>348.8668823242188</v>
+        <v>342.0699462890625</v>
       </c>
       <c r="BF2" t="n">
-        <v>330.748046875</v>
+        <v>341.80908203125</v>
       </c>
       <c r="BG2" t="n">
-        <v>315.0258178710938</v>
+        <v>341.3130187988281</v>
       </c>
       <c r="BH2" t="n">
-        <v>310.3624267578125</v>
+        <v>340.5175170898438</v>
       </c>
       <c r="BI2" t="n">
-        <v>321.0608520507812</v>
+        <v>339.7573547363281</v>
       </c>
       <c r="BJ2" t="n">
-        <v>324.2272644042969</v>
+        <v>338.8334655761719</v>
       </c>
       <c r="BK2" t="n">
-        <v>318.2399597167969</v>
+        <v>338.5098266601562</v>
       </c>
       <c r="BL2" t="n">
-        <v>309.0925903320312</v>
+        <v>338.5494384765625</v>
       </c>
       <c r="BM2" t="n">
-        <v>301.7742919921875</v>
+        <v>338.7557983398438</v>
       </c>
       <c r="BN2" t="n">
-        <v>291.3894653320312</v>
+        <v>338.6939697265625</v>
       </c>
       <c r="BO2" t="n">
-        <v>289.7887878417969</v>
+        <v>338.6210632324219</v>
       </c>
       <c r="BP2" t="n">
-        <v>278.1023254394531</v>
+        <v>338.5708618164062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>271.7336730957031</v>
+        <v>338.4869689941406</v>
       </c>
       <c r="BR2" t="n">
-        <v>272.1351013183594</v>
+        <v>338.375</v>
       </c>
       <c r="BS2" t="n">
-        <v>272.1398315429688</v>
+        <v>338.3867797851562</v>
       </c>
       <c r="BT2" t="n">
-        <v>270.7902526855469</v>
+        <v>338.3984985351562</v>
       </c>
       <c r="BU2" t="n">
-        <v>268.3494262695312</v>
+        <v>338.3721618652344</v>
       </c>
       <c r="BV2" t="n">
-        <v>264.0130310058594</v>
+        <v>338.3414916992188</v>
       </c>
       <c r="BW2" t="n">
-        <v>263.8855590820312</v>
+        <v>338.3308410644531</v>
       </c>
       <c r="BX2" t="n">
-        <v>264.4957275390625</v>
+        <v>338.3174438476562</v>
       </c>
       <c r="BY2" t="n">
-        <v>264.8809509277344</v>
+        <v>338.3035583496094</v>
       </c>
       <c r="BZ2" t="n">
-        <v>265.194091796875</v>
+        <v>338.2732543945312</v>
       </c>
       <c r="CA2" t="n">
-        <v>265.7260437011719</v>
+        <v>338.2119140625</v>
       </c>
       <c r="CB2" t="n">
-        <v>266.5143127441406</v>
+        <v>338.2021789550781</v>
       </c>
       <c r="CC2" t="n">
-        <v>267.3477478027344</v>
+        <v>338.2031860351562</v>
       </c>
       <c r="CD2" t="n">
-        <v>267.636474609375</v>
+        <v>338.2110290527344</v>
       </c>
       <c r="CE2" t="n">
-        <v>267.3117370605469</v>
+        <v>338.2200317382812</v>
       </c>
       <c r="CF2" t="n">
-        <v>267.0115051269531</v>
+        <v>338.2630004882812</v>
       </c>
       <c r="CG2" t="n">
-        <v>267.2304992675781</v>
+        <v>338.2418518066406</v>
       </c>
       <c r="CH2" t="n">
-        <v>267.2784729003906</v>
+        <v>338.2406005859375</v>
       </c>
       <c r="CI2" t="n">
-        <v>267.8901977539062</v>
+        <v>338.2376403808594</v>
       </c>
       <c r="CJ2" t="n">
-        <v>269.7937316894531</v>
+        <v>338.2252502441406</v>
       </c>
       <c r="CK2" t="n">
-        <v>271.4970092773438</v>
+        <v>338.1997680664062</v>
       </c>
       <c r="CL2" t="n">
-        <v>271.7034606933594</v>
+        <v>338.2006225585938</v>
       </c>
       <c r="CM2" t="n">
-        <v>271.8412780761719</v>
+        <v>338.1653137207031</v>
       </c>
       <c r="CN2" t="n">
-        <v>271.8463745117188</v>
+        <v>338.1385498046875</v>
       </c>
       <c r="CO2" t="n">
-        <v>271.6159973144531</v>
+        <v>338.188720703125</v>
       </c>
       <c r="CP2" t="n">
-        <v>271.2478637695312</v>
+        <v>338.1959228515625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>271.3142395019531</v>
+        <v>338.1943359375</v>
       </c>
       <c r="CR2" t="n">
-        <v>271.4718933105469</v>
+        <v>338.1842041015625</v>
       </c>
       <c r="CS2" t="n">
-        <v>271.4532775878906</v>
+        <v>338.1649475097656</v>
       </c>
       <c r="CT2" t="n">
-        <v>271.5779418945312</v>
+        <v>338.13623046875</v>
       </c>
       <c r="CU2" t="n">
-        <v>271.8543395996094</v>
+        <v>338.0723571777344</v>
       </c>
       <c r="CV2" t="n">
-        <v>272.2969970703125</v>
+        <v>338.0057067871094</v>
       </c>
       <c r="CW2" t="n">
-        <v>272.6804809570312</v>
+        <v>337.9998474121094</v>
       </c>
       <c r="CX2" t="n">
-        <v>273.016357421875</v>
+        <v>337.9889526367188</v>
       </c>
       <c r="CY2" t="n">
-        <v>273.3731689453125</v>
+        <v>337.9828491210938</v>
       </c>
       <c r="CZ2" t="n">
-        <v>273.8868713378906</v>
+        <v>337.9593200683594</v>
       </c>
       <c r="DA2" t="n">
-        <v>277.0539855957031</v>
+        <v>337.9382934570312</v>
       </c>
       <c r="DB2" t="n">
-        <v>286.745361328125</v>
+        <v>337.8923950195312</v>
       </c>
       <c r="DC2" t="n">
-        <v>297.7497863769531</v>
+        <v>337.865966796875</v>
       </c>
       <c r="DD2" t="n">
-        <v>304.8959045410156</v>
+        <v>337.7940368652344</v>
       </c>
       <c r="DE2" t="n">
-        <v>314.1925354003906</v>
+        <v>337.7261352539062</v>
       </c>
       <c r="DF2" t="n">
-        <v>313.2930603027344</v>
+        <v>337.6116333007812</v>
       </c>
       <c r="DG2" t="n">
-        <v>316.1274719238281</v>
+        <v>337.5252075195312</v>
       </c>
       <c r="DH2" t="n">
-        <v>325.9536743164062</v>
+        <v>337.6216125488281</v>
       </c>
       <c r="DI2" t="n">
-        <v>331.238525390625</v>
+        <v>337.6258850097656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>337.4661865234375</v>
+        <v>337.5296325683594</v>
       </c>
       <c r="DK2" t="n">
-        <v>347.873046875</v>
+        <v>337.5606689453125</v>
       </c>
       <c r="DL2" t="n">
-        <v>362.7030639648438</v>
+        <v>337.5173950195312</v>
       </c>
       <c r="DM2" t="n">
-        <v>368.2081298828125</v>
+        <v>337.4908752441406</v>
       </c>
       <c r="DN2" t="n">
-        <v>366.9185791015625</v>
+        <v>337.5182800292969</v>
       </c>
       <c r="DO2" t="n">
-        <v>366.808837890625</v>
+        <v>337.5293579101562</v>
       </c>
       <c r="DP2" t="n">
-        <v>384.5452880859375</v>
+        <v>337.5498962402344</v>
       </c>
       <c r="DQ2" t="n">
-        <v>390.6091918945312</v>
+        <v>337.6024169921875</v>
       </c>
       <c r="DR2" t="n">
-        <v>395.7367248535156</v>
+        <v>337.658447265625</v>
       </c>
       <c r="DS2" t="n">
-        <v>419.02880859375</v>
+        <v>337.6641235351562</v>
       </c>
       <c r="DT2" t="n">
-        <v>425.7791137695312</v>
+        <v>337.6748352050781</v>
       </c>
       <c r="DU2" t="n">
-        <v>432.8870849609375</v>
+        <v>337.6949462890625</v>
       </c>
       <c r="DV2" t="n">
-        <v>430.5979919433594</v>
+        <v>337.7221374511719</v>
       </c>
       <c r="DW2" t="n">
-        <v>428.3859558105469</v>
+        <v>337.7254028320312</v>
       </c>
       <c r="DX2" t="n">
-        <v>427.2619323730469</v>
+        <v>337.7035827636719</v>
       </c>
       <c r="DY2" t="n">
-        <v>425.083984375</v>
+        <v>337.6367797851562</v>
       </c>
       <c r="DZ2" t="n">
-        <v>423.5628051757812</v>
+        <v>337.5793151855469</v>
       </c>
       <c r="EA2" t="n">
-        <v>424.5252075195312</v>
+        <v>337.4274291992188</v>
       </c>
       <c r="EB2" t="n">
-        <v>426.8514404296875</v>
+        <v>337.29931640625</v>
       </c>
       <c r="EC2" t="n">
-        <v>426.9233703613281</v>
+        <v>337.1192016601562</v>
       </c>
       <c r="ED2" t="n">
-        <v>426.7296752929688</v>
+        <v>336.9358520507812</v>
       </c>
       <c r="EE2" t="n">
-        <v>426.5399780273438</v>
+        <v>336.9154052734375</v>
       </c>
       <c r="EF2" t="n">
-        <v>425.2152709960938</v>
+        <v>336.8953857421875</v>
       </c>
       <c r="EG2" t="n">
-        <v>417.8291320800781</v>
+        <v>336.8818664550781</v>
       </c>
       <c r="EH2" t="n">
-        <v>415.3571166992188</v>
+        <v>336.863037109375</v>
       </c>
       <c r="EI2" t="n">
-        <v>417.1797180175781</v>
+        <v>336.8488159179688</v>
       </c>
       <c r="EJ2" t="n">
-        <v>417.6183471679688</v>
+        <v>336.8444213867188</v>
       </c>
       <c r="EK2" t="n">
-        <v>413.7600708007812</v>
+        <v>336.8246459960938</v>
       </c>
       <c r="EL2" t="n">
-        <v>411.8524780273438</v>
+        <v>336.7944946289062</v>
       </c>
       <c r="EM2" t="n">
-        <v>403.6220703125</v>
+        <v>336.723388671875</v>
       </c>
       <c r="EN2" t="n">
-        <v>394.0229797363281</v>
+        <v>336.6842346191406</v>
       </c>
       <c r="EO2" t="n">
-        <v>374.84716796875</v>
+        <v>336.5558166503906</v>
       </c>
       <c r="EP2" t="n">
-        <v>362.9168395996094</v>
+        <v>336.346435546875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>354.8220825195312</v>
+        <v>335.9766235351562</v>
       </c>
       <c r="ER2" t="n">
-        <v>358.4788818359375</v>
+        <v>335.9859924316406</v>
       </c>
       <c r="ES2" t="n">
-        <v>345.0420532226562</v>
+        <v>335.97021484375</v>
       </c>
       <c r="ET2" t="n">
-        <v>312.0722961425781</v>
+        <v>335.9521484375</v>
       </c>
       <c r="EU2" t="n">
-        <v>287.3369140625</v>
+        <v>335.9566650390625</v>
       </c>
       <c r="EV2" t="n">
-        <v>284.9098815917969</v>
+        <v>335.9627990722656</v>
       </c>
       <c r="EW2" t="n">
-        <v>282.0976867675781</v>
+        <v>335.9736328125</v>
       </c>
       <c r="EX2" t="n">
-        <v>301.680908203125</v>
+        <v>335.9690551757812</v>
       </c>
       <c r="EY2" t="n">
-        <v>222.0426025390625</v>
+        <v>335.9830932617188</v>
       </c>
       <c r="EZ2" t="n">
-        <v>305.5729370117188</v>
+        <v>336.0169982910156</v>
       </c>
       <c r="FA2" t="n">
-        <v>423.883056640625</v>
+        <v>336.17578125</v>
       </c>
       <c r="FB2" t="n">
-        <v>567.3021850585938</v>
+        <v>336.3180236816406</v>
       </c>
       <c r="FC2" t="n">
-        <v>590.8133544921875</v>
+        <v>336.4230041503906</v>
       </c>
       <c r="FD2" t="n">
-        <v>613.7470703125</v>
+        <v>336.5064086914062</v>
       </c>
       <c r="FE2" t="n">
-        <v>625.362060546875</v>
+        <v>336.5567626953125</v>
       </c>
       <c r="FF2" t="n">
-        <v>645.54345703125</v>
+        <v>336.6197204589844</v>
       </c>
       <c r="FG2" t="n">
-        <v>647.3472900390625</v>
+        <v>336.5271301269531</v>
       </c>
       <c r="FH2" t="n">
-        <v>389.9347229003906</v>
+        <v>336.3194274902344</v>
       </c>
       <c r="FI2" t="n">
-        <v>396.9119262695312</v>
+        <v>335.1666870117188</v>
       </c>
       <c r="FJ2" t="n">
-        <v>405.5440063476562</v>
+        <v>334.3118591308594</v>
       </c>
       <c r="FK2" t="n">
-        <v>410.2032775878906</v>
+        <v>333.9408569335938</v>
       </c>
       <c r="FL2" t="n">
-        <v>428.8776245117188</v>
+        <v>334.0084228515625</v>
       </c>
       <c r="FM2" t="n">
-        <v>443.3630065917969</v>
+        <v>334.0443725585938</v>
       </c>
       <c r="FN2" t="n">
-        <v>456.8087158203125</v>
+        <v>334.1055603027344</v>
       </c>
       <c r="FO2" t="n">
-        <v>477.4567260742188</v>
+        <v>334.087158203125</v>
       </c>
       <c r="FP2" t="n">
-        <v>492.2601623535156</v>
+        <v>334.1423034667969</v>
       </c>
       <c r="FQ2" t="n">
-        <v>503.4622802734375</v>
+        <v>334.1781005859375</v>
       </c>
       <c r="FR2" t="n">
-        <v>513.71142578125</v>
+        <v>334.167236328125</v>
       </c>
       <c r="FS2" t="n">
-        <v>511.9074096679688</v>
+        <v>334.17236328125</v>
       </c>
       <c r="FT2" t="n">
-        <v>510.2665710449219</v>
+        <v>334.1702880859375</v>
       </c>
       <c r="FU2" t="n">
-        <v>513.36279296875</v>
+        <v>334.1644897460938</v>
       </c>
       <c r="FV2" t="n">
-        <v>520.4961547851562</v>
+        <v>334.1840209960938</v>
       </c>
       <c r="FW2" t="n">
-        <v>540.3644409179688</v>
+        <v>334.2419738769531</v>
       </c>
       <c r="FX2" t="n">
-        <v>543.4467163085938</v>
+        <v>334.2693481445312</v>
       </c>
       <c r="FY2" t="n">
-        <v>540.4482421875</v>
+        <v>334.1625671386719</v>
       </c>
       <c r="FZ2" t="n">
-        <v>539.6400756835938</v>
+        <v>334.0853271484375</v>
       </c>
       <c r="GA2" t="n">
-        <v>528.5267333984375</v>
+        <v>333.9832153320312</v>
       </c>
       <c r="GB2" t="n">
-        <v>523.60888671875</v>
+        <v>333.9905090332031</v>
       </c>
       <c r="GC2" t="n">
-        <v>544.5062866210938</v>
+        <v>333.9641723632812</v>
       </c>
       <c r="GD2" t="n">
-        <v>566.6175537109375</v>
+        <v>333.9265747070312</v>
       </c>
       <c r="GE2" t="n">
-        <v>566.7337036132812</v>
+        <v>333.6843566894531</v>
       </c>
       <c r="GF2" t="n">
-        <v>558.6380615234375</v>
+        <v>333.7037353515625</v>
       </c>
       <c r="GG2" t="n">
-        <v>529.9085693359375</v>
+        <v>333.6788330078125</v>
       </c>
       <c r="GH2" t="n">
-        <v>444.39697265625</v>
+        <v>333.728759765625</v>
       </c>
       <c r="GI2" t="n">
-        <v>414.1348876953125</v>
+        <v>333.832763671875</v>
       </c>
       <c r="GJ2" t="n">
-        <v>431.9349975585938</v>
+        <v>333.7899169921875</v>
       </c>
       <c r="GK2" t="n">
-        <v>449.953857421875</v>
+        <v>333.6958312988281</v>
       </c>
       <c r="GL2" t="n">
-        <v>452.5418395996094</v>
+        <v>333.7586059570312</v>
       </c>
       <c r="GM2" t="n">
-        <v>444.4205932617188</v>
+        <v>333.9201354980469</v>
       </c>
       <c r="GN2" t="n">
-        <v>393.6545104980469</v>
+        <v>333.8734130859375</v>
       </c>
       <c r="GO2" t="n">
-        <v>389.1634521484375</v>
+        <v>333.8148193359375</v>
       </c>
       <c r="GP2" t="n">
-        <v>364.0386962890625</v>
+        <v>333.87548828125</v>
       </c>
       <c r="GQ2" t="n">
-        <v>371.9141845703125</v>
+        <v>334.0737609863281</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>334.08251953125</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>333.9983520507812</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>333.9954223632812</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>333.8382568359375</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>333.2037353515625</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>332.3691101074219</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>332.4681396484375</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>332.4225463867188</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>332.3482971191406</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>332.2840576171875</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>332.2791137695312</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>332.1069641113281</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>332.1278381347656</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>332.0093383789062</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>331.8678588867188</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>331.7869873046875</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>331.8706665039062</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>331.9291381835938</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>332.0184936523438</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>332.0890808105469</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>332.314697265625</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>332.44970703125</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>332.4244995117188</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>332.439453125</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>332.4806518554688</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>332.4967041015625</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>332.4578247070312</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>332.4791870117188</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>332.5274353027344</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>332.6012878417969</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>332.927490234375</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>333.1434631347656</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>332.5709838867188</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>331.4788513183594</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>330.6009521484375</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>330.603271484375</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>330.5708312988281</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>330.5453186035156</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>330.5642700195312</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>330.5723266601562</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>330.5218505859375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>330.4229431152344</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>330.4576110839844</v>
+      </c>
+      <c r="II2" t="n">
+        <v>330.4512939453125</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>330.4484558105469</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>330.46728515625</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>330.46533203125</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>330.548583984375</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>330.7171020507812</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>330.74853515625</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>330.8142700195312</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>331.3280639648438</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>331.2139892578125</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>331.1885986328125</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>331.1973266601562</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>331.2430419921875</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>331.24560546875</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>331.2665405273438</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>331.2503356933594</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>331.3208618164062</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>331.2664184570312</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>331.2615356445312</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>331.1591186523438</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>331.1893005371094</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>331.205322265625</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>331.216064453125</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>331.0819702148438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>330.7727661132812</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>330.2062377929688</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>330.0256652832031</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>330.0365600585938</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>329.949951171875</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>329.9207153320312</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>329.931396484375</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>329.885009765625</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>329.6718139648438</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>329.1334533691406</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>329.0165405273438</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>329.0830078125</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>329.0573425292969</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>328.9442443847656</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>329.0143432617188</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>329.0343627929688</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>328.9134521484375</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>328.4799194335938</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>328.6968688964844</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>329.0458984375</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>329.5846862792969</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>330.1051330566406</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>330.24365234375</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>329.4195861816406</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>328.888671875</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>327.2649536132812</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>324.3028259277344</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>327.6397399902344</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>328.4673767089844</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>324.9022827148438</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>320.3176574707031</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>319.2774047851562</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>323.5488586425781</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>323.5825805664062</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>334.7845764160156</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>349.9283142089844</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>339.8452453613281</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>324.7532348632812</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>315.6216430664062</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>303.6897888183594</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>312.4087829589844</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>353.1488647460938</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>351.9193725585938</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>345.4924926757812</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>343.651611328125</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>343.0093994140625</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>340.7711181640625</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>338.0865783691406</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>336.7666625976562</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>337.8387756347656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>570.7551879882812</v>
+        <v>561.5639038085938</v>
       </c>
       <c r="B3" t="n">
-        <v>557.75</v>
+        <v>547.7046508789062</v>
       </c>
       <c r="C3" t="n">
-        <v>555.84619140625</v>
+        <v>544.7696533203125</v>
       </c>
       <c r="D3" t="n">
-        <v>555.3646240234375</v>
+        <v>544.0509643554688</v>
       </c>
       <c r="E3" t="n">
-        <v>555.1743774414062</v>
+        <v>547.0916137695312</v>
       </c>
       <c r="F3" t="n">
-        <v>553.199462890625</v>
+        <v>539.2366333007812</v>
       </c>
       <c r="G3" t="n">
-        <v>550.0035400390625</v>
+        <v>540.3953857421875</v>
       </c>
       <c r="H3" t="n">
-        <v>551.5027465820312</v>
+        <v>538.2255859375</v>
       </c>
       <c r="I3" t="n">
-        <v>546.4761962890625</v>
+        <v>536.3767700195312</v>
       </c>
       <c r="J3" t="n">
-        <v>541.6529541015625</v>
+        <v>532.1739501953125</v>
       </c>
       <c r="K3" t="n">
-        <v>538.4625244140625</v>
+        <v>524.1605834960938</v>
       </c>
       <c r="L3" t="n">
-        <v>533.1541137695312</v>
+        <v>520.2362060546875</v>
       </c>
       <c r="M3" t="n">
-        <v>521.9671020507812</v>
+        <v>519.1162719726562</v>
       </c>
       <c r="N3" t="n">
-        <v>511.3254089355469</v>
+        <v>512.5504150390625</v>
       </c>
       <c r="O3" t="n">
-        <v>500.9800415039062</v>
+        <v>508.490478515625</v>
       </c>
       <c r="P3" t="n">
-        <v>492.0550842285156</v>
+        <v>505.3325805664062</v>
       </c>
       <c r="Q3" t="n">
-        <v>487.8802795410156</v>
+        <v>501.0266418457031</v>
       </c>
       <c r="R3" t="n">
-        <v>479.9731140136719</v>
+        <v>494.2104797363281</v>
       </c>
       <c r="S3" t="n">
-        <v>472.4072875976562</v>
+        <v>506.1117553710938</v>
       </c>
       <c r="T3" t="n">
-        <v>466.4590759277344</v>
+        <v>503.6860046386719</v>
       </c>
       <c r="U3" t="n">
-        <v>461.3039855957031</v>
+        <v>499.2419128417969</v>
       </c>
       <c r="V3" t="n">
-        <v>455.5089416503906</v>
+        <v>497.4496154785156</v>
       </c>
       <c r="W3" t="n">
-        <v>451.5248718261719</v>
+        <v>498.3828125</v>
       </c>
       <c r="X3" t="n">
-        <v>448.0934143066406</v>
+        <v>498.6950073242188</v>
       </c>
       <c r="Y3" t="n">
-        <v>444.8580627441406</v>
+        <v>498.1199951171875</v>
       </c>
       <c r="Z3" t="n">
-        <v>444.3090515136719</v>
+        <v>497.900634765625</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.1370239257812</v>
+        <v>494.7842712402344</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.2598876953125</v>
+        <v>489.1399536132812</v>
       </c>
       <c r="AC3" t="n">
-        <v>448.4076232910156</v>
+        <v>485.6505126953125</v>
       </c>
       <c r="AD3" t="n">
-        <v>450.6405639648438</v>
+        <v>477.4705200195312</v>
       </c>
       <c r="AE3" t="n">
-        <v>451.1376647949219</v>
+        <v>473.6575317382812</v>
       </c>
       <c r="AF3" t="n">
-        <v>451.1996459960938</v>
+        <v>472.3232727050781</v>
       </c>
       <c r="AG3" t="n">
-        <v>451.4996643066406</v>
+        <v>471.7293090820312</v>
       </c>
       <c r="AH3" t="n">
-        <v>450.9844055175781</v>
+        <v>471.7075500488281</v>
       </c>
       <c r="AI3" t="n">
-        <v>450.8255615234375</v>
+        <v>471.602783203125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>452.5954284667969</v>
+        <v>468.0748901367188</v>
       </c>
       <c r="AK3" t="n">
-        <v>453.987548828125</v>
+        <v>466.7235412597656</v>
       </c>
       <c r="AL3" t="n">
-        <v>454.9042663574219</v>
+        <v>463.8447875976562</v>
       </c>
       <c r="AM3" t="n">
-        <v>455.7698364257812</v>
+        <v>462.259033203125</v>
       </c>
       <c r="AN3" t="n">
-        <v>455.0234375</v>
+        <v>461.4886779785156</v>
       </c>
       <c r="AO3" t="n">
-        <v>452.8367004394531</v>
+        <v>461.1111755371094</v>
       </c>
       <c r="AP3" t="n">
-        <v>451.8653259277344</v>
+        <v>462.9863891601562</v>
       </c>
       <c r="AQ3" t="n">
-        <v>452.6835327148438</v>
+        <v>465.0071411132812</v>
       </c>
       <c r="AR3" t="n">
-        <v>454.2576599121094</v>
+        <v>465.4087219238281</v>
       </c>
       <c r="AS3" t="n">
-        <v>457.1125793457031</v>
+        <v>464.0586242675781</v>
       </c>
       <c r="AT3" t="n">
-        <v>461.8406066894531</v>
+        <v>463.1265563964844</v>
       </c>
       <c r="AU3" t="n">
-        <v>465.2574462890625</v>
+        <v>462.6974487304688</v>
       </c>
       <c r="AV3" t="n">
-        <v>467.9591674804688</v>
+        <v>462.1414489746094</v>
       </c>
       <c r="AW3" t="n">
-        <v>467.6025695800781</v>
+        <v>461.4898681640625</v>
       </c>
       <c r="AX3" t="n">
-        <v>467.4600219726562</v>
+        <v>461.8341064453125</v>
       </c>
       <c r="AY3" t="n">
-        <v>469.3501586914062</v>
+        <v>462.5581970214844</v>
       </c>
       <c r="AZ3" t="n">
-        <v>470.3589172363281</v>
+        <v>462.670654296875</v>
       </c>
       <c r="BA3" t="n">
-        <v>469.5951538085938</v>
+        <v>462.875244140625</v>
       </c>
       <c r="BB3" t="n">
-        <v>469.052978515625</v>
+        <v>463.3472900390625</v>
       </c>
       <c r="BC3" t="n">
-        <v>469.1262512207031</v>
+        <v>462.1409606933594</v>
       </c>
       <c r="BD3" t="n">
-        <v>470.7909545898438</v>
+        <v>461.8767700195312</v>
       </c>
       <c r="BE3" t="n">
-        <v>492.2674865722656</v>
+        <v>461.5398254394531</v>
       </c>
       <c r="BF3" t="n">
-        <v>488.6766357421875</v>
+        <v>461.3162536621094</v>
       </c>
       <c r="BG3" t="n">
-        <v>477.7161560058594</v>
+        <v>461.1954040527344</v>
       </c>
       <c r="BH3" t="n">
-        <v>474.2808837890625</v>
+        <v>460.96923828125</v>
       </c>
       <c r="BI3" t="n">
-        <v>473.1695861816406</v>
+        <v>461.0473022460938</v>
       </c>
       <c r="BJ3" t="n">
-        <v>472.2032775878906</v>
+        <v>461.2895812988281</v>
       </c>
       <c r="BK3" t="n">
-        <v>473.0738525390625</v>
+        <v>461.570556640625</v>
       </c>
       <c r="BL3" t="n">
-        <v>475.524169921875</v>
+        <v>463.0134887695312</v>
       </c>
       <c r="BM3" t="n">
-        <v>477.2216186523438</v>
+        <v>463.9224243164062</v>
       </c>
       <c r="BN3" t="n">
-        <v>478.7941589355469</v>
+        <v>464.7300415039062</v>
       </c>
       <c r="BO3" t="n">
-        <v>479.5614929199219</v>
+        <v>464.9076232910156</v>
       </c>
       <c r="BP3" t="n">
-        <v>480.8099670410156</v>
+        <v>465.0760192871094</v>
       </c>
       <c r="BQ3" t="n">
-        <v>480.4053344726562</v>
+        <v>465.5702209472656</v>
       </c>
       <c r="BR3" t="n">
-        <v>480.1552429199219</v>
+        <v>465.9869995117188</v>
       </c>
       <c r="BS3" t="n">
-        <v>479.651123046875</v>
+        <v>466.4315185546875</v>
       </c>
       <c r="BT3" t="n">
-        <v>478.3379821777344</v>
+        <v>466.6695861816406</v>
       </c>
       <c r="BU3" t="n">
-        <v>476.993896484375</v>
+        <v>466.8895568847656</v>
       </c>
       <c r="BV3" t="n">
-        <v>476.337646484375</v>
+        <v>467.167724609375</v>
       </c>
       <c r="BW3" t="n">
-        <v>476.5767517089844</v>
+        <v>467.4324035644531</v>
       </c>
       <c r="BX3" t="n">
-        <v>476.7025146484375</v>
+        <v>467.7988586425781</v>
       </c>
       <c r="BY3" t="n">
-        <v>476.7969055175781</v>
+        <v>468.2888488769531</v>
       </c>
       <c r="BZ3" t="n">
-        <v>476.7679748535156</v>
+        <v>468.9185791015625</v>
       </c>
       <c r="CA3" t="n">
-        <v>476.7624206542969</v>
+        <v>470.1561279296875</v>
       </c>
       <c r="CB3" t="n">
-        <v>476.71875</v>
+        <v>470.5338134765625</v>
       </c>
       <c r="CC3" t="n">
-        <v>476.75146484375</v>
+        <v>470.7326354980469</v>
       </c>
       <c r="CD3" t="n">
-        <v>477.0406799316406</v>
+        <v>470.8866577148438</v>
       </c>
       <c r="CE3" t="n">
-        <v>477.4814147949219</v>
+        <v>471.0293579101562</v>
       </c>
       <c r="CF3" t="n">
-        <v>478.3033752441406</v>
+        <v>471.1609802246094</v>
       </c>
       <c r="CG3" t="n">
-        <v>479.8294372558594</v>
+        <v>471.1954650878906</v>
       </c>
       <c r="CH3" t="n">
-        <v>482.4145812988281</v>
+        <v>471.2552795410156</v>
       </c>
       <c r="CI3" t="n">
-        <v>483.4239501953125</v>
+        <v>471.2763061523438</v>
       </c>
       <c r="CJ3" t="n">
-        <v>483.4179992675781</v>
+        <v>471.2356262207031</v>
       </c>
       <c r="CK3" t="n">
-        <v>483.5742797851562</v>
+        <v>471.1909790039062</v>
       </c>
       <c r="CL3" t="n">
-        <v>482.8773803710938</v>
+        <v>471.1529541015625</v>
       </c>
       <c r="CM3" t="n">
-        <v>483.2405090332031</v>
+        <v>471.0881042480469</v>
       </c>
       <c r="CN3" t="n">
-        <v>483.4360961914062</v>
+        <v>471.0084228515625</v>
       </c>
       <c r="CO3" t="n">
-        <v>483.6201782226562</v>
+        <v>470.9089965820312</v>
       </c>
       <c r="CP3" t="n">
-        <v>483.4363708496094</v>
+        <v>470.832763671875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>483.3400268554688</v>
+        <v>470.7307739257812</v>
       </c>
       <c r="CR3" t="n">
-        <v>483.1043701171875</v>
+        <v>470.7326354980469</v>
       </c>
       <c r="CS3" t="n">
-        <v>483.3099670410156</v>
+        <v>470.7600402832031</v>
       </c>
       <c r="CT3" t="n">
-        <v>483.3823547363281</v>
+        <v>470.7948913574219</v>
       </c>
       <c r="CU3" t="n">
-        <v>483.2371826171875</v>
+        <v>470.7820434570312</v>
       </c>
       <c r="CV3" t="n">
-        <v>482.9192199707031</v>
+        <v>470.8070068359375</v>
       </c>
       <c r="CW3" t="n">
-        <v>482.6844482421875</v>
+        <v>470.8564758300781</v>
       </c>
       <c r="CX3" t="n">
-        <v>482.6318664550781</v>
+        <v>470.9044494628906</v>
       </c>
       <c r="CY3" t="n">
-        <v>482.4807434082031</v>
+        <v>470.9111938476562</v>
       </c>
       <c r="CZ3" t="n">
-        <v>482.1988220214844</v>
+        <v>470.9726257324219</v>
       </c>
       <c r="DA3" t="n">
-        <v>481.5943298339844</v>
+        <v>471.0076904296875</v>
       </c>
       <c r="DB3" t="n">
-        <v>480.0434265136719</v>
+        <v>470.9393615722656</v>
       </c>
       <c r="DC3" t="n">
-        <v>477.6323547363281</v>
+        <v>470.9241027832031</v>
       </c>
       <c r="DD3" t="n">
-        <v>475.7823486328125</v>
+        <v>471.0484008789062</v>
       </c>
       <c r="DE3" t="n">
-        <v>473.5043029785156</v>
+        <v>471.1568298339844</v>
       </c>
       <c r="DF3" t="n">
-        <v>474.9853820800781</v>
+        <v>471.130126953125</v>
       </c>
       <c r="DG3" t="n">
-        <v>475.1333923339844</v>
+        <v>471.1605224609375</v>
       </c>
       <c r="DH3" t="n">
-        <v>474.7329711914062</v>
+        <v>471.2842712402344</v>
       </c>
       <c r="DI3" t="n">
-        <v>476.0284118652344</v>
+        <v>471.2960510253906</v>
       </c>
       <c r="DJ3" t="n">
-        <v>477.5619201660156</v>
+        <v>471.1359252929688</v>
       </c>
       <c r="DK3" t="n">
-        <v>477.4358215332031</v>
+        <v>471.1363525390625</v>
       </c>
       <c r="DL3" t="n">
-        <v>489.0695495605469</v>
+        <v>471.7001037597656</v>
       </c>
       <c r="DM3" t="n">
-        <v>491.7495422363281</v>
+        <v>472.2597351074219</v>
       </c>
       <c r="DN3" t="n">
-        <v>494.7232666015625</v>
+        <v>472.8782653808594</v>
       </c>
       <c r="DO3" t="n">
-        <v>496.8280334472656</v>
+        <v>472.88671875</v>
       </c>
       <c r="DP3" t="n">
-        <v>496.6396484375</v>
+        <v>472.5576171875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>497.5184326171875</v>
+        <v>472.1944580078125</v>
       </c>
       <c r="DR3" t="n">
-        <v>498.2048645019531</v>
+        <v>471.8265075683594</v>
       </c>
       <c r="DS3" t="n">
-        <v>495.9559326171875</v>
+        <v>471.947509765625</v>
       </c>
       <c r="DT3" t="n">
-        <v>495.1161499023438</v>
+        <v>472.1910400390625</v>
       </c>
       <c r="DU3" t="n">
-        <v>493.35205078125</v>
+        <v>472.3406982421875</v>
       </c>
       <c r="DV3" t="n">
-        <v>485.4806823730469</v>
+        <v>472.1704711914062</v>
       </c>
       <c r="DW3" t="n">
-        <v>479.8564147949219</v>
+        <v>472.1669311523438</v>
       </c>
       <c r="DX3" t="n">
-        <v>479.8392333984375</v>
+        <v>472.2209777832031</v>
       </c>
       <c r="DY3" t="n">
-        <v>479.7260437011719</v>
+        <v>472.1570434570312</v>
       </c>
       <c r="DZ3" t="n">
-        <v>479.642578125</v>
+        <v>472.2914733886719</v>
       </c>
       <c r="EA3" t="n">
-        <v>479.73974609375</v>
+        <v>472.3470458984375</v>
       </c>
       <c r="EB3" t="n">
-        <v>481.5160522460938</v>
+        <v>472.3796997070312</v>
       </c>
       <c r="EC3" t="n">
-        <v>481.6811828613281</v>
+        <v>472.4273681640625</v>
       </c>
       <c r="ED3" t="n">
-        <v>483.74267578125</v>
+        <v>472.6017150878906</v>
       </c>
       <c r="EE3" t="n">
-        <v>484.2853393554688</v>
+        <v>472.6683044433594</v>
       </c>
       <c r="EF3" t="n">
-        <v>484.8352966308594</v>
+        <v>472.5392150878906</v>
       </c>
       <c r="EG3" t="n">
-        <v>485.2532348632812</v>
+        <v>472.4800109863281</v>
       </c>
       <c r="EH3" t="n">
-        <v>485.9349060058594</v>
+        <v>472.5488891601562</v>
       </c>
       <c r="EI3" t="n">
-        <v>486.681640625</v>
+        <v>472.6779479980469</v>
       </c>
       <c r="EJ3" t="n">
-        <v>487.4658813476562</v>
+        <v>472.6934509277344</v>
       </c>
       <c r="EK3" t="n">
-        <v>488.3380432128906</v>
+        <v>472.7293701171875</v>
       </c>
       <c r="EL3" t="n">
-        <v>491.2099914550781</v>
+        <v>472.794677734375</v>
       </c>
       <c r="EM3" t="n">
-        <v>501.7930297851562</v>
+        <v>472.8307189941406</v>
       </c>
       <c r="EN3" t="n">
-        <v>505.4384460449219</v>
+        <v>472.8316345214844</v>
       </c>
       <c r="EO3" t="n">
-        <v>515.4955444335938</v>
+        <v>472.78662109375</v>
       </c>
       <c r="EP3" t="n">
-        <v>521.70947265625</v>
+        <v>473.0022583007812</v>
       </c>
       <c r="EQ3" t="n">
-        <v>533.077392578125</v>
+        <v>473.2715148925781</v>
       </c>
       <c r="ER3" t="n">
-        <v>533.745849609375</v>
+        <v>473.4716796875</v>
       </c>
       <c r="ES3" t="n">
-        <v>528.5828857421875</v>
+        <v>473.4510803222656</v>
       </c>
       <c r="ET3" t="n">
-        <v>525.3704833984375</v>
+        <v>473.640380859375</v>
       </c>
       <c r="EU3" t="n">
-        <v>515.104736328125</v>
+        <v>473.7732543945312</v>
       </c>
       <c r="EV3" t="n">
-        <v>522.8825073242188</v>
+        <v>473.8220520019531</v>
       </c>
       <c r="EW3" t="n">
-        <v>545.09130859375</v>
+        <v>474.0199279785156</v>
       </c>
       <c r="EX3" t="n">
-        <v>559.98291015625</v>
+        <v>473.9052429199219</v>
       </c>
       <c r="EY3" t="n">
-        <v>529.8121337890625</v>
+        <v>473.7811889648438</v>
       </c>
       <c r="EZ3" t="n">
-        <v>574.063232421875</v>
+        <v>473.5956115722656</v>
       </c>
       <c r="FA3" t="n">
-        <v>579.0830688476562</v>
+        <v>473.4405212402344</v>
       </c>
       <c r="FB3" t="n">
-        <v>409.4877319335938</v>
+        <v>473.2691345214844</v>
       </c>
       <c r="FC3" t="n">
-        <v>425.0258483886719</v>
+        <v>473.1023254394531</v>
       </c>
       <c r="FD3" t="n">
-        <v>449.5624694824219</v>
+        <v>473.09130859375</v>
       </c>
       <c r="FE3" t="n">
-        <v>473.0606384277344</v>
+        <v>473.0998840332031</v>
       </c>
       <c r="FF3" t="n">
-        <v>513.7552490234375</v>
+        <v>473.1358642578125</v>
       </c>
       <c r="FG3" t="n">
-        <v>447.7784729003906</v>
+        <v>473.3073425292969</v>
       </c>
       <c r="FH3" t="n">
-        <v>657.6863403320312</v>
+        <v>473.3434143066406</v>
       </c>
       <c r="FI3" t="n">
-        <v>662.8121337890625</v>
+        <v>473.3450622558594</v>
       </c>
       <c r="FJ3" t="n">
-        <v>677.5146484375</v>
+        <v>473.4095153808594</v>
       </c>
       <c r="FK3" t="n">
-        <v>695.9879760742188</v>
+        <v>473.4568786621094</v>
       </c>
       <c r="FL3" t="n">
-        <v>736.9387817382812</v>
+        <v>473.428466796875</v>
       </c>
       <c r="FM3" t="n">
-        <v>740.0770263671875</v>
+        <v>473.3554382324219</v>
       </c>
       <c r="FN3" t="n">
-        <v>742.55029296875</v>
+        <v>473.3683776855469</v>
       </c>
       <c r="FO3" t="n">
-        <v>757.3251342773438</v>
+        <v>473.4487609863281</v>
       </c>
       <c r="FP3" t="n">
-        <v>784.2843017578125</v>
+        <v>473.5394897460938</v>
       </c>
       <c r="FQ3" t="n">
-        <v>789.0254516601562</v>
+        <v>473.626953125</v>
       </c>
       <c r="FR3" t="n">
-        <v>784.2464599609375</v>
+        <v>473.7892150878906</v>
       </c>
       <c r="FS3" t="n">
-        <v>756.2590942382812</v>
+        <v>473.8641052246094</v>
       </c>
       <c r="FT3" t="n">
-        <v>740.1236572265625</v>
+        <v>473.7210083007812</v>
       </c>
       <c r="FU3" t="n">
-        <v>731.7127685546875</v>
+        <v>473.5415649414062</v>
       </c>
       <c r="FV3" t="n">
-        <v>731.3460083007812</v>
+        <v>473.4548950195312</v>
       </c>
       <c r="FW3" t="n">
-        <v>726.0352783203125</v>
+        <v>473.2648315429688</v>
       </c>
       <c r="FX3" t="n">
-        <v>735.8578491210938</v>
+        <v>473.26318359375</v>
       </c>
       <c r="FY3" t="n">
-        <v>745.5150146484375</v>
+        <v>473.5943603515625</v>
       </c>
       <c r="FZ3" t="n">
-        <v>747.6771240234375</v>
+        <v>473.8394470214844</v>
       </c>
       <c r="GA3" t="n">
-        <v>749.8910522460938</v>
+        <v>473.9756164550781</v>
       </c>
       <c r="GB3" t="n">
-        <v>731.5932006835938</v>
+        <v>473.8111572265625</v>
       </c>
       <c r="GC3" t="n">
-        <v>719.4976196289062</v>
+        <v>473.4554138183594</v>
       </c>
       <c r="GD3" t="n">
-        <v>717.626708984375</v>
+        <v>473.0432434082031</v>
       </c>
       <c r="GE3" t="n">
-        <v>754.9077758789062</v>
+        <v>473.0120544433594</v>
       </c>
       <c r="GF3" t="n">
-        <v>783.2028198242188</v>
+        <v>473.101806640625</v>
       </c>
       <c r="GG3" t="n">
-        <v>761.6503295898438</v>
+        <v>473.1269226074219</v>
       </c>
       <c r="GH3" t="n">
-        <v>822.5906982421875</v>
+        <v>473.1393737792969</v>
       </c>
       <c r="GI3" t="n">
-        <v>786.4243774414062</v>
+        <v>473.1636352539062</v>
       </c>
       <c r="GJ3" t="n">
-        <v>758.2677001953125</v>
+        <v>473.3357238769531</v>
       </c>
       <c r="GK3" t="n">
-        <v>808.4852294921875</v>
+        <v>473.43310546875</v>
       </c>
       <c r="GL3" t="n">
-        <v>785.4624633789062</v>
+        <v>473.3358459472656</v>
       </c>
       <c r="GM3" t="n">
-        <v>798.5146484375</v>
+        <v>473.0304565429688</v>
       </c>
       <c r="GN3" t="n">
-        <v>819.8659057617188</v>
+        <v>473.0681762695312</v>
       </c>
       <c r="GO3" t="n">
-        <v>808.7921752929688</v>
+        <v>473.1610412597656</v>
       </c>
       <c r="GP3" t="n">
-        <v>858.7796630859375</v>
+        <v>473.1234130859375</v>
       </c>
       <c r="GQ3" t="n">
-        <v>858.0665283203125</v>
+        <v>473.0505065917969</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>473.0439453125</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>472.9001159667969</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>472.9236145019531</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>472.9794311523438</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>472.9395446777344</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>473.0057678222656</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>473.1666564941406</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>473.501953125</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>473.8296813964844</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>474.1889038085938</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>474.1936340332031</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>474.2397766113281</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>474.2712707519531</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>474.3068542480469</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>474.5162048339844</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>474.8409118652344</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>474.8427734375</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>474.6025695800781</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>474.3648376464844</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>474.3822021484375</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>474.4625244140625</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>474.5567932128906</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>474.3301696777344</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>474.1928100585938</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>474.2503051757812</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>474.3038024902344</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>474.2696228027344</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>474.1885681152344</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>473.8916625976562</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>473.7694091796875</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>473.8504333496094</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>473.80859375</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>473.7570495605469</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>473.6102905273438</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>473.5835266113281</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>473.4609375</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>473.39794921875</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>473.2855529785156</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>473.1665954589844</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>473.2926940917969</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>473.27685546875</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>473.2914733886719</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>473.3007507324219</v>
+      </c>
+      <c r="II3" t="n">
+        <v>473.3604736328125</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>473.3594665527344</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>473.369873046875</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>473.3759155273438</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>473.4855041503906</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>473.6494750976562</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>473.6510009765625</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>473.5545349121094</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>473.4439697265625</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>473.1595153808594</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>473.4024963378906</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>473.3669128417969</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>473.2318725585938</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>473.3486938476562</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>473.4006042480469</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>473.4559631347656</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>473.6056823730469</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>473.5951843261719</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>473.5729675292969</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>473.6084594726562</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>473.6337280273438</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>473.6646423339844</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>473.6828308105469</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>473.7734069824219</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>473.7940368652344</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>473.8732299804688</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>474.0693664550781</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>474.2064208984375</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>474.1945190429688</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>474.1745300292969</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>474.1487121582031</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>474.1501770019531</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>473.9918518066406</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>473.8510131835938</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>473.8646850585938</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>474.0361328125</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>474.2397766113281</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>474.3403930664062</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>474.2913818359375</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>474.4030456542969</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>474.427490234375</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>474.445068359375</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>473.6681213378906</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>475.1312561035156</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>473.96826171875</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>474.1182250976562</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>474.1788940429688</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>475.3091125488281</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>474.9234619140625</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>474.6739501953125</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>473.0227355957031</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>470.1278381347656</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>470.8506774902344</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>472.1091613769531</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>474.3815002441406</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>481.2749328613281</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>491.2084045410156</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>503.071533203125</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>511.2409362792969</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>511.2122192382812</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>519.5127563476562</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>523.6775512695312</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>515.6814575195312</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>521.1863403320312</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>514.1868286132812</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>537.3507690429688</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>551.369140625</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>568.4895629882812</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>571.6732177734375</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>576.3390502929688</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>582.2642211914062</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>588.8937377929688</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>594.0826416015625</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>598.8839721679688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1159.563598632812</v>
+        <v>1035.3056640625</v>
       </c>
       <c r="B4" t="n">
-        <v>1166.588623046875</v>
+        <v>1021.543701171875</v>
       </c>
       <c r="C4" t="n">
-        <v>1174.229370117188</v>
+        <v>1019.28466796875</v>
       </c>
       <c r="D4" t="n">
-        <v>1172.126220703125</v>
+        <v>1031.677001953125</v>
       </c>
       <c r="E4" t="n">
-        <v>1168.825561523438</v>
+        <v>1060.971435546875</v>
       </c>
       <c r="F4" t="n">
-        <v>1170.064331054688</v>
+        <v>1094.07763671875</v>
       </c>
       <c r="G4" t="n">
-        <v>1171.457275390625</v>
+        <v>1108.552368164062</v>
       </c>
       <c r="H4" t="n">
-        <v>1170.469116210938</v>
+        <v>1120.811401367188</v>
       </c>
       <c r="I4" t="n">
-        <v>1170.31640625</v>
+        <v>1139.537353515625</v>
       </c>
       <c r="J4" t="n">
-        <v>1170.728637695312</v>
+        <v>1167.230224609375</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.774291992188</v>
+        <v>1205.174560546875</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.016235351562</v>
+        <v>1233.18017578125</v>
       </c>
       <c r="M4" t="n">
-        <v>1195.68994140625</v>
+        <v>1267.095947265625</v>
       </c>
       <c r="N4" t="n">
-        <v>1225.549438476562</v>
+        <v>1304.158203125</v>
       </c>
       <c r="O4" t="n">
-        <v>1241.779052734375</v>
+        <v>1331.8974609375</v>
       </c>
       <c r="P4" t="n">
-        <v>1248.303344726562</v>
+        <v>1355.473022460938</v>
       </c>
       <c r="Q4" t="n">
-        <v>1254.548950195312</v>
+        <v>1374.928466796875</v>
       </c>
       <c r="R4" t="n">
-        <v>1262.874145507812</v>
+        <v>1391.522827148438</v>
       </c>
       <c r="S4" t="n">
-        <v>1266.249755859375</v>
+        <v>1273.359985351562</v>
       </c>
       <c r="T4" t="n">
-        <v>1275.569458007812</v>
+        <v>1285.476440429688</v>
       </c>
       <c r="U4" t="n">
-        <v>1285.893432617188</v>
+        <v>1313.96435546875</v>
       </c>
       <c r="V4" t="n">
-        <v>1293.544799804688</v>
+        <v>1335.966796875</v>
       </c>
       <c r="W4" t="n">
-        <v>1302.509033203125</v>
+        <v>1348.083984375</v>
       </c>
       <c r="X4" t="n">
-        <v>1309.727661132812</v>
+        <v>1362.189331054688</v>
       </c>
       <c r="Y4" t="n">
-        <v>1312.102416992188</v>
+        <v>1371.685913085938</v>
       </c>
       <c r="Z4" t="n">
-        <v>1317.666381835938</v>
+        <v>1377.577514648438</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.287109375</v>
+        <v>1391.36572265625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1333.150146484375</v>
+        <v>1417.892700195312</v>
       </c>
       <c r="AC4" t="n">
-        <v>1327.816650390625</v>
+        <v>1438.476196289062</v>
       </c>
       <c r="AD4" t="n">
-        <v>1315.344970703125</v>
+        <v>1472.089111328125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1305.256713867188</v>
+        <v>1511.0146484375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1298.420654296875</v>
+        <v>1535.683349609375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1292.185791015625</v>
+        <v>1556.428344726562</v>
       </c>
       <c r="AH4" t="n">
-        <v>1290.100463867188</v>
+        <v>1564.769653320312</v>
       </c>
       <c r="AI4" t="n">
-        <v>1286.836181640625</v>
+        <v>1583.396240234375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1283.069458007812</v>
+        <v>1612.30419921875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1277.650146484375</v>
+        <v>1635.025390625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1275.411254882812</v>
+        <v>1652.297607421875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1272.656494140625</v>
+        <v>1673.94677734375</v>
       </c>
       <c r="AN4" t="n">
-        <v>1269.045654296875</v>
+        <v>1678.04296875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1267.838012695312</v>
+        <v>1686.069091796875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1266.061767578125</v>
+        <v>1712.32958984375</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1262.987915039062</v>
+        <v>1745.669067382812</v>
       </c>
       <c r="AR4" t="n">
-        <v>1258.193481445312</v>
+        <v>1778.818359375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1249.968627929688</v>
+        <v>1794.160766601562</v>
       </c>
       <c r="AT4" t="n">
-        <v>1232.736694335938</v>
+        <v>1814.899047851562</v>
       </c>
       <c r="AU4" t="n">
-        <v>1223.402954101562</v>
+        <v>1819.659301757812</v>
       </c>
       <c r="AV4" t="n">
-        <v>1211.880615234375</v>
+        <v>1829.393310546875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1213.619262695312</v>
+        <v>1841.608520507812</v>
       </c>
       <c r="AX4" t="n">
-        <v>1215.331787109375</v>
+        <v>1849.744750976562</v>
       </c>
       <c r="AY4" t="n">
-        <v>1216.847900390625</v>
+        <v>1848.30615234375</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1218.466064453125</v>
+        <v>1845.424194335938</v>
       </c>
       <c r="BA4" t="n">
-        <v>1220.3017578125</v>
+        <v>1843.08984375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1222.294555664062</v>
+        <v>1840.265869140625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1221.955200195312</v>
+        <v>1837.429443359375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1223.169921875</v>
+        <v>1831.633422851562</v>
       </c>
       <c r="BE4" t="n">
-        <v>1011.005004882812</v>
+        <v>1830.560546875</v>
       </c>
       <c r="BF4" t="n">
-        <v>999.188720703125</v>
+        <v>1828.367431640625</v>
       </c>
       <c r="BG4" t="n">
-        <v>982.0782470703125</v>
+        <v>1826.502197265625</v>
       </c>
       <c r="BH4" t="n">
-        <v>979.9476928710938</v>
+        <v>1827.008544921875</v>
       </c>
       <c r="BI4" t="n">
-        <v>989.85400390625</v>
+        <v>1827.390747070312</v>
       </c>
       <c r="BJ4" t="n">
-        <v>989.6234130859375</v>
+        <v>1827.619506835938</v>
       </c>
       <c r="BK4" t="n">
-        <v>989.0338134765625</v>
+        <v>1828.193969726562</v>
       </c>
       <c r="BL4" t="n">
-        <v>987.7010498046875</v>
+        <v>1826.775512695312</v>
       </c>
       <c r="BM4" t="n">
-        <v>988.8781127929688</v>
+        <v>1825.468017578125</v>
       </c>
       <c r="BN4" t="n">
-        <v>999.6262817382812</v>
+        <v>1825.219848632812</v>
       </c>
       <c r="BO4" t="n">
-        <v>1019.306396484375</v>
+        <v>1826.25244140625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1045.73583984375</v>
+        <v>1826.318359375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1061.942626953125</v>
+        <v>1825.4140625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1073.5322265625</v>
+        <v>1824.8193359375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1087.579345703125</v>
+        <v>1824.203735351562</v>
       </c>
       <c r="BT4" t="n">
-        <v>1099.67333984375</v>
+        <v>1823.771484375</v>
       </c>
       <c r="BU4" t="n">
-        <v>1107.395629882812</v>
+        <v>1823.30322265625</v>
       </c>
       <c r="BV4" t="n">
-        <v>1110.83837890625</v>
+        <v>1822.785400390625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1112.596069335938</v>
+        <v>1822.23486328125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1114.708251953125</v>
+        <v>1821.6357421875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1113.84033203125</v>
+        <v>1820.74658203125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1112.826416015625</v>
+        <v>1819.69287109375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1112.382446289062</v>
+        <v>1816.5927734375</v>
       </c>
       <c r="CB4" t="n">
-        <v>1112.034912109375</v>
+        <v>1815.428100585938</v>
       </c>
       <c r="CC4" t="n">
-        <v>1111.681396484375</v>
+        <v>1813.838012695312</v>
       </c>
       <c r="CD4" t="n">
-        <v>1110.986328125</v>
+        <v>1812.473876953125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1110.082275390625</v>
+        <v>1811.038696289062</v>
       </c>
       <c r="CF4" t="n">
-        <v>1108.645751953125</v>
+        <v>1809.725952148438</v>
       </c>
       <c r="CG4" t="n">
-        <v>1105.828369140625</v>
+        <v>1810.583618164062</v>
       </c>
       <c r="CH4" t="n">
-        <v>1100.81298828125</v>
+        <v>1810.287841796875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1098.208862304688</v>
+        <v>1810.2099609375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1096.847900390625</v>
+        <v>1810.231201171875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1095.838989257812</v>
+        <v>1810.353515625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1094.31396484375</v>
+        <v>1810.3291015625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1092.410888671875</v>
+        <v>1810.315185546875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1090.361206054688</v>
+        <v>1810.348999023438</v>
       </c>
       <c r="CO4" t="n">
-        <v>1090.1220703125</v>
+        <v>1810.513427734375</v>
       </c>
       <c r="CP4" t="n">
-        <v>1090.449951171875</v>
+        <v>1810.625244140625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1090.693725585938</v>
+        <v>1811.063842773438</v>
       </c>
       <c r="CR4" t="n">
-        <v>1090.618896484375</v>
+        <v>1811.05517578125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1090.589721679688</v>
+        <v>1811.091186523438</v>
       </c>
       <c r="CT4" t="n">
-        <v>1090.859008789062</v>
+        <v>1810.965209960938</v>
       </c>
       <c r="CU4" t="n">
-        <v>1091.59814453125</v>
+        <v>1811.283813476562</v>
       </c>
       <c r="CV4" t="n">
-        <v>1092.69140625</v>
+        <v>1811.691284179688</v>
       </c>
       <c r="CW4" t="n">
-        <v>1094.099243164062</v>
+        <v>1811.586181640625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1095.796142578125</v>
+        <v>1811.67578125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1097.855712890625</v>
+        <v>1812.106323242188</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1100.803955078125</v>
+        <v>1812.252197265625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1105.265869140625</v>
+        <v>1812.281494140625</v>
       </c>
       <c r="DB4" t="n">
-        <v>1109.199951171875</v>
+        <v>1812.97314453125</v>
       </c>
       <c r="DC4" t="n">
-        <v>1108.49365234375</v>
+        <v>1813.818115234375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1104.435791015625</v>
+        <v>1814.332275390625</v>
       </c>
       <c r="DE4" t="n">
-        <v>1098.7431640625</v>
+        <v>1814.87548828125</v>
       </c>
       <c r="DF4" t="n">
-        <v>1094.186279296875</v>
+        <v>1815.83349609375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1090.36328125</v>
+        <v>1816.5205078125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1088.03173828125</v>
+        <v>1815.684814453125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1091.595825195312</v>
+        <v>1815.702026367188</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1096.34228515625</v>
+        <v>1815.887573242188</v>
       </c>
       <c r="DK4" t="n">
-        <v>1101.768798828125</v>
+        <v>1815.748657226562</v>
       </c>
       <c r="DL4" t="n">
-        <v>1098.972778320312</v>
+        <v>1814.603515625</v>
       </c>
       <c r="DM4" t="n">
-        <v>1095.933837890625</v>
+        <v>1814.019897460938</v>
       </c>
       <c r="DN4" t="n">
-        <v>1091.663208007812</v>
+        <v>1814.34912109375</v>
       </c>
       <c r="DO4" t="n">
-        <v>1090.86962890625</v>
+        <v>1813.37890625</v>
       </c>
       <c r="DP4" t="n">
-        <v>1086.990478515625</v>
+        <v>1812.680053710938</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1086.329833984375</v>
+        <v>1813.498779296875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1084.616333007812</v>
+        <v>1813.956787109375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1080.843017578125</v>
+        <v>1813.568115234375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1087.230712890625</v>
+        <v>1812.968994140625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1092.401123046875</v>
+        <v>1812.116821289062</v>
       </c>
       <c r="DV4" t="n">
-        <v>1101.794799804688</v>
+        <v>1811.262573242188</v>
       </c>
       <c r="DW4" t="n">
-        <v>1101.93408203125</v>
+        <v>1810.808715820312</v>
       </c>
       <c r="DX4" t="n">
-        <v>1098.222900390625</v>
+        <v>1810.562866210938</v>
       </c>
       <c r="DY4" t="n">
-        <v>1100.15380859375</v>
+        <v>1811.071411132812</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1098.506958007812</v>
+        <v>1810.896606445312</v>
       </c>
       <c r="EA4" t="n">
-        <v>1092.682373046875</v>
+        <v>1810.709594726562</v>
       </c>
       <c r="EB4" t="n">
-        <v>1085.987548828125</v>
+        <v>1810.668579101562</v>
       </c>
       <c r="EC4" t="n">
-        <v>1092.324096679688</v>
+        <v>1810.728881835938</v>
       </c>
       <c r="ED4" t="n">
-        <v>1089.1611328125</v>
+        <v>1810.604858398438</v>
       </c>
       <c r="EE4" t="n">
-        <v>1085.827270507812</v>
+        <v>1810.538330078125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1084.2041015625</v>
+        <v>1811.420776367188</v>
       </c>
       <c r="EG4" t="n">
-        <v>1080.73388671875</v>
+        <v>1810.711059570312</v>
       </c>
       <c r="EH4" t="n">
-        <v>1080.460083007812</v>
+        <v>1809.896240234375</v>
       </c>
       <c r="EI4" t="n">
-        <v>1080.042724609375</v>
+        <v>1809.692993164062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1075.78369140625</v>
+        <v>1809.594116210938</v>
       </c>
       <c r="EK4" t="n">
-        <v>1092.460815429688</v>
+        <v>1809.554321289062</v>
       </c>
       <c r="EL4" t="n">
-        <v>1089.74658203125</v>
+        <v>1809.468872070312</v>
       </c>
       <c r="EM4" t="n">
-        <v>1041.689819335938</v>
+        <v>1808.965209960938</v>
       </c>
       <c r="EN4" t="n">
-        <v>1018.427124023438</v>
+        <v>1808.860473632812</v>
       </c>
       <c r="EO4" t="n">
-        <v>973.1748657226562</v>
+        <v>1807.537231445312</v>
       </c>
       <c r="EP4" t="n">
-        <v>947.2620849609375</v>
+        <v>1807.008056640625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>896.849365234375</v>
+        <v>1808.1435546875</v>
       </c>
       <c r="ER4" t="n">
-        <v>856.5938720703125</v>
+        <v>1808.791137695312</v>
       </c>
       <c r="ES4" t="n">
-        <v>789.0504150390625</v>
+        <v>1809.768432617188</v>
       </c>
       <c r="ET4" t="n">
-        <v>775.6220703125</v>
+        <v>1810.593139648438</v>
       </c>
       <c r="EU4" t="n">
-        <v>774.8847045898438</v>
+        <v>1810.392822265625</v>
       </c>
       <c r="EV4" t="n">
-        <v>744.9986572265625</v>
+        <v>1810.135620117188</v>
       </c>
       <c r="EW4" t="n">
-        <v>713.13134765625</v>
+        <v>1809.521850585938</v>
       </c>
       <c r="EX4" t="n">
-        <v>730.6046752929688</v>
+        <v>1808.882202148438</v>
       </c>
       <c r="EY4" t="n">
-        <v>674.1419067382812</v>
+        <v>1808.760620117188</v>
       </c>
       <c r="EZ4" t="n">
-        <v>617.2692260742188</v>
+        <v>1808.484741210938</v>
       </c>
       <c r="FA4" t="n">
-        <v>659.951171875</v>
+        <v>1808.847290039062</v>
       </c>
       <c r="FB4" t="n">
-        <v>772.3178100585938</v>
+        <v>1809.330078125</v>
       </c>
       <c r="FC4" t="n">
-        <v>698.9427490234375</v>
+        <v>1809.7392578125</v>
       </c>
       <c r="FD4" t="n">
-        <v>625.65478515625</v>
+        <v>1809.65625</v>
       </c>
       <c r="FE4" t="n">
-        <v>572.7889404296875</v>
+        <v>1810.059326171875</v>
       </c>
       <c r="FF4" t="n">
-        <v>482.5001831054688</v>
+        <v>1810.388549804688</v>
       </c>
       <c r="FG4" t="n">
-        <v>477.5474548339844</v>
+        <v>1807.10546875</v>
       </c>
       <c r="FH4" t="n">
-        <v>773.60400390625</v>
+        <v>1807.033325195312</v>
       </c>
       <c r="FI4" t="n">
-        <v>768.5620727539062</v>
+        <v>1807.087646484375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>768.34130859375</v>
+        <v>1804.26513671875</v>
       </c>
       <c r="FK4" t="n">
-        <v>770.4536743164062</v>
+        <v>1802.048217773438</v>
       </c>
       <c r="FL4" t="n">
-        <v>751.9342041015625</v>
+        <v>1802.80224609375</v>
       </c>
       <c r="FM4" t="n">
-        <v>748.3966064453125</v>
+        <v>1802.503051757812</v>
       </c>
       <c r="FN4" t="n">
-        <v>750.1390991210938</v>
+        <v>1800.95458984375</v>
       </c>
       <c r="FO4" t="n">
-        <v>754.0209350585938</v>
+        <v>1800.20703125</v>
       </c>
       <c r="FP4" t="n">
-        <v>748.7750854492188</v>
+        <v>1801.385009765625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>745.3994140625</v>
+        <v>1801.402587890625</v>
       </c>
       <c r="FR4" t="n">
-        <v>750.22216796875</v>
+        <v>1798.152221679688</v>
       </c>
       <c r="FS4" t="n">
-        <v>772.4818115234375</v>
+        <v>1798.394287109375</v>
       </c>
       <c r="FT4" t="n">
-        <v>782.5125122070312</v>
+        <v>1799.284790039062</v>
       </c>
       <c r="FU4" t="n">
-        <v>780.77294921875</v>
+        <v>1798.686157226562</v>
       </c>
       <c r="FV4" t="n">
-        <v>775.9683227539062</v>
+        <v>1798.86279296875</v>
       </c>
       <c r="FW4" t="n">
-        <v>767.2659301757812</v>
+        <v>1798.947998046875</v>
       </c>
       <c r="FX4" t="n">
-        <v>759.7508544921875</v>
+        <v>1798.971069335938</v>
       </c>
       <c r="FY4" t="n">
-        <v>761.9083251953125</v>
+        <v>1798.4658203125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>763.1705322265625</v>
+        <v>1798.171997070312</v>
       </c>
       <c r="GA4" t="n">
-        <v>785.1394653320312</v>
+        <v>1798.7705078125</v>
       </c>
       <c r="GB4" t="n">
-        <v>810.3297119140625</v>
+        <v>1799.434814453125</v>
       </c>
       <c r="GC4" t="n">
-        <v>790.61572265625</v>
+        <v>1798.540649414062</v>
       </c>
       <c r="GD4" t="n">
-        <v>751.1400756835938</v>
+        <v>1797.12939453125</v>
       </c>
       <c r="GE4" t="n">
-        <v>699.4470825195312</v>
+        <v>1796.784423828125</v>
       </c>
       <c r="GF4" t="n">
-        <v>691.5661010742188</v>
+        <v>1794.285400390625</v>
       </c>
       <c r="GG4" t="n">
-        <v>742.3802490234375</v>
+        <v>1793.61865234375</v>
       </c>
       <c r="GH4" t="n">
-        <v>717.306640625</v>
+        <v>1795.191528320312</v>
       </c>
       <c r="GI4" t="n">
-        <v>704.3212890625</v>
+        <v>1798.419921875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>750.7062377929688</v>
+        <v>1798.40673828125</v>
       </c>
       <c r="GK4" t="n">
-        <v>678.0961303710938</v>
+        <v>1796.055541992188</v>
       </c>
       <c r="GL4" t="n">
-        <v>715.5968017578125</v>
+        <v>1797.829833984375</v>
       </c>
       <c r="GM4" t="n">
-        <v>670.9633178710938</v>
+        <v>1802.631713867188</v>
       </c>
       <c r="GN4" t="n">
-        <v>678.090087890625</v>
+        <v>1799.841918945312</v>
       </c>
       <c r="GO4" t="n">
-        <v>700.6051635742188</v>
+        <v>1797.980224609375</v>
       </c>
       <c r="GP4" t="n">
-        <v>665.6905517578125</v>
+        <v>1798.617553710938</v>
       </c>
       <c r="GQ4" t="n">
-        <v>647.70068359375</v>
+        <v>1797.992431640625</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1797.933349609375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1797.741455078125</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1797.608642578125</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1797.135498046875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1796.55810546875</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1796.070434570312</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1794.930053710938</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1792.77685546875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1793.057373046875</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1793.019897460938</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1792.966064453125</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1792.50390625</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1792.718627929688</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1792.237426757812</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1791.952026367188</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1793.108276367188</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1795.88134765625</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1795.344116210938</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1796.094116210938</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1794.90283203125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1795.010009765625</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1794.96484375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1795.333618164062</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1796.608154296875</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1796.080688476562</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1795.671875</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1794.11328125</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1794.273315429688</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1794.226684570312</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1794.57421875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1794.40625</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1794.423095703125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1794.64404296875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1794.9052734375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1793.550048828125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1794.535766601562</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1794.775146484375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1795.2333984375</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1794.566284179688</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1794.028930664062</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1793.829711914062</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1792.576171875</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1792.690307617188</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1792.531494140625</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1792.488525390625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1792.634765625</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1792.531494140625</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1792.186767578125</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1791.385009765625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1791.076049804688</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1790.209838867188</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1790.326293945312</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1790.487060546875</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1790.950439453125</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1790.973510742188</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1791.609497070312</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1791.9638671875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1792.772827148438</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1792.352294921875</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1792.179077148438</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1792.200927734375</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1791.583740234375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1790.2470703125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1790.674926757812</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1790.642456054688</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1790.092407226562</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1787.415649414062</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1786.910766601562</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1786.376708984375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1787.179565429688</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1787.385864257812</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1787.518676757812</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1787.791259765625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1789.06884765625</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1788.6474609375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1788.96630859375</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1789.045654296875</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1789.530029296875</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1789.1083984375</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1788.183227539062</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1788.073364257812</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1788.182983398438</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1788.03466796875</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1788.041748046875</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1787.7763671875</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1787.201904296875</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1767.236450195312</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1767.15771484375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1766.9990234375</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1766.947265625</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1765.7412109375</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1763.221801757812</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1740.857177734375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1649.634643554688</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1600.216552734375</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1565.010131835938</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1538.087646484375</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1504.42724609375</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1459.35791015625</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1404.752075195312</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1345.635009765625</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1312.267822265625</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1313.076782226562</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1274.496337890625</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1156.693603515625</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1019.9169921875</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>977.8477783203125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>849.97216796875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1164.509765625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1117.571166992188</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>1072.061767578125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>1050.54931640625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>1026.668579101562</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>999.8215942382812</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>985.863525390625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>971.23046875</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>950.262939453125</v>
       </c>
     </row>
   </sheetData>

--- a/left_knee_Data.xlsx
+++ b/left_knee_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>358.7896118164062</v>
+        <v>349.0344848632812</v>
       </c>
       <c r="B2" t="n">
-        <v>359.8189697265625</v>
+        <v>347.8094482421875</v>
       </c>
       <c r="C2" t="n">
-        <v>356.78271484375</v>
+        <v>345.5037231445312</v>
       </c>
       <c r="D2" t="n">
-        <v>357.5908813476562</v>
+        <v>344.0479736328125</v>
       </c>
       <c r="E2" t="n">
-        <v>359.4894714355469</v>
+        <v>343.7466430664062</v>
       </c>
       <c r="F2" t="n">
-        <v>363.1636962890625</v>
+        <v>343.8294982910156</v>
       </c>
       <c r="G2" t="n">
-        <v>364.72216796875</v>
+        <v>342.7657470703125</v>
       </c>
       <c r="H2" t="n">
-        <v>364.6412658691406</v>
+        <v>341.1187438964844</v>
       </c>
       <c r="I2" t="n">
-        <v>363.5057983398438</v>
+        <v>339.8587646484375</v>
       </c>
       <c r="J2" t="n">
-        <v>361.85107421875</v>
+        <v>338.7376098632812</v>
       </c>
       <c r="K2" t="n">
-        <v>360.9024353027344</v>
+        <v>336.5432739257812</v>
       </c>
       <c r="L2" t="n">
-        <v>360.5376586914062</v>
+        <v>333.7969970703125</v>
       </c>
       <c r="M2" t="n">
-        <v>359.0650024414062</v>
+        <v>329.3878479003906</v>
       </c>
       <c r="N2" t="n">
-        <v>359.4585571289062</v>
+        <v>326.4209594726562</v>
       </c>
       <c r="O2" t="n">
-        <v>359.5166625976562</v>
+        <v>324.4462280273438</v>
       </c>
       <c r="P2" t="n">
-        <v>358.8483276367188</v>
+        <v>323.5360717773438</v>
       </c>
       <c r="Q2" t="n">
-        <v>357.9140625</v>
+        <v>323.1158447265625</v>
       </c>
       <c r="R2" t="n">
-        <v>356.2671508789062</v>
+        <v>318.7242126464844</v>
       </c>
       <c r="S2" t="n">
-        <v>350.618408203125</v>
+        <v>321.968505859375</v>
       </c>
       <c r="T2" t="n">
-        <v>348.6837768554688</v>
+        <v>325.3372497558594</v>
       </c>
       <c r="U2" t="n">
-        <v>348.2760009765625</v>
+        <v>326.3003540039062</v>
       </c>
       <c r="V2" t="n">
-        <v>347.8524780273438</v>
+        <v>326.6436767578125</v>
       </c>
       <c r="W2" t="n">
-        <v>347.2435913085938</v>
+        <v>327.734619140625</v>
       </c>
       <c r="X2" t="n">
-        <v>346.5399475097656</v>
+        <v>330.4793701171875</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9662170410156</v>
+        <v>332.5263061523438</v>
       </c>
       <c r="Z2" t="n">
-        <v>345.5782775878906</v>
+        <v>333.2317504882812</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.1468505859375</v>
+        <v>332.4656677246094</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.4695739746094</v>
+        <v>330.1952514648438</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.9137878417969</v>
+        <v>329.009765625</v>
       </c>
       <c r="AD2" t="n">
-        <v>331.3140258789062</v>
+        <v>328.84375</v>
       </c>
       <c r="AE2" t="n">
-        <v>331.7406921386719</v>
+        <v>329.007080078125</v>
       </c>
       <c r="AF2" t="n">
-        <v>331.1109008789062</v>
+        <v>329.743408203125</v>
       </c>
       <c r="AG2" t="n">
-        <v>329.8437194824219</v>
+        <v>330.3013610839844</v>
       </c>
       <c r="AH2" t="n">
-        <v>328.3228149414062</v>
+        <v>330.7455444335938</v>
       </c>
       <c r="AI2" t="n">
-        <v>329.2459106445312</v>
+        <v>330.3117370605469</v>
       </c>
       <c r="AJ2" t="n">
-        <v>329.6982421875</v>
+        <v>329.441162109375</v>
       </c>
       <c r="AK2" t="n">
-        <v>329.7988891601562</v>
+        <v>329.391357421875</v>
       </c>
       <c r="AL2" t="n">
-        <v>331.7664184570312</v>
+        <v>329.39697265625</v>
       </c>
       <c r="AM2" t="n">
-        <v>333.5702209472656</v>
+        <v>329.531005859375</v>
       </c>
       <c r="AN2" t="n">
-        <v>336.81201171875</v>
+        <v>329.7861938476562</v>
       </c>
       <c r="AO2" t="n">
-        <v>339.7000122070312</v>
+        <v>330.0296630859375</v>
       </c>
       <c r="AP2" t="n">
-        <v>336.6292114257812</v>
+        <v>329.904296875</v>
       </c>
       <c r="AQ2" t="n">
-        <v>337.7376098632812</v>
+        <v>329.5953674316406</v>
       </c>
       <c r="AR2" t="n">
-        <v>339.8907470703125</v>
+        <v>329.3367309570312</v>
       </c>
       <c r="AS2" t="n">
-        <v>341.0130615234375</v>
+        <v>329.121337890625</v>
       </c>
       <c r="AT2" t="n">
-        <v>340.0964965820312</v>
+        <v>328.9271240234375</v>
       </c>
       <c r="AU2" t="n">
-        <v>339.7130126953125</v>
+        <v>328.3978881835938</v>
       </c>
       <c r="AV2" t="n">
-        <v>340.2392578125</v>
+        <v>327.015625</v>
       </c>
       <c r="AW2" t="n">
-        <v>341.0942993164062</v>
+        <v>324.1130065917969</v>
       </c>
       <c r="AX2" t="n">
-        <v>342.1136779785156</v>
+        <v>321.1944274902344</v>
       </c>
       <c r="AY2" t="n">
-        <v>342.0369873046875</v>
+        <v>320.4411315917969</v>
       </c>
       <c r="AZ2" t="n">
-        <v>342.02001953125</v>
+        <v>319.5594177246094</v>
       </c>
       <c r="BA2" t="n">
-        <v>342.04931640625</v>
+        <v>320.3882446289062</v>
       </c>
       <c r="BB2" t="n">
-        <v>342.2054443359375</v>
+        <v>321.8139343261719</v>
       </c>
       <c r="BC2" t="n">
-        <v>342.1975402832031</v>
+        <v>322.4441833496094</v>
       </c>
       <c r="BD2" t="n">
-        <v>342.0910034179688</v>
+        <v>323.1878662109375</v>
       </c>
       <c r="BE2" t="n">
-        <v>342.0699462890625</v>
+        <v>322.6095581054688</v>
       </c>
       <c r="BF2" t="n">
-        <v>341.80908203125</v>
+        <v>322.6676635742188</v>
       </c>
       <c r="BG2" t="n">
-        <v>341.3130187988281</v>
+        <v>322.7762451171875</v>
       </c>
       <c r="BH2" t="n">
-        <v>340.5175170898438</v>
+        <v>322.9535522460938</v>
       </c>
       <c r="BI2" t="n">
-        <v>339.7573547363281</v>
+        <v>323.1300354003906</v>
       </c>
       <c r="BJ2" t="n">
-        <v>338.8334655761719</v>
+        <v>323.2475280761719</v>
       </c>
       <c r="BK2" t="n">
-        <v>338.5098266601562</v>
+        <v>323.7921752929688</v>
       </c>
       <c r="BL2" t="n">
-        <v>338.5494384765625</v>
+        <v>323.878173828125</v>
       </c>
       <c r="BM2" t="n">
-        <v>338.7557983398438</v>
+        <v>324.57421875</v>
       </c>
       <c r="BN2" t="n">
-        <v>338.6939697265625</v>
+        <v>325.8450927734375</v>
       </c>
       <c r="BO2" t="n">
-        <v>338.6210632324219</v>
+        <v>327.6594848632812</v>
       </c>
       <c r="BP2" t="n">
-        <v>338.5708618164062</v>
+        <v>327.9276123046875</v>
       </c>
       <c r="BQ2" t="n">
-        <v>338.4869689941406</v>
+        <v>328.757568359375</v>
       </c>
       <c r="BR2" t="n">
-        <v>338.375</v>
+        <v>328.8549194335938</v>
       </c>
       <c r="BS2" t="n">
-        <v>338.3867797851562</v>
+        <v>328.7647094726562</v>
       </c>
       <c r="BT2" t="n">
-        <v>338.3984985351562</v>
+        <v>328.7845153808594</v>
       </c>
       <c r="BU2" t="n">
-        <v>338.3721618652344</v>
+        <v>328.8009033203125</v>
       </c>
       <c r="BV2" t="n">
-        <v>338.3414916992188</v>
+        <v>329.0120849609375</v>
       </c>
       <c r="BW2" t="n">
-        <v>338.3308410644531</v>
+        <v>329.1710815429688</v>
       </c>
       <c r="BX2" t="n">
-        <v>338.3174438476562</v>
+        <v>329.3204956054688</v>
       </c>
       <c r="BY2" t="n">
-        <v>338.3035583496094</v>
+        <v>329.0694885253906</v>
       </c>
       <c r="BZ2" t="n">
-        <v>338.2732543945312</v>
+        <v>328.7096557617188</v>
       </c>
       <c r="CA2" t="n">
-        <v>338.2119140625</v>
+        <v>328.5057983398438</v>
       </c>
       <c r="CB2" t="n">
-        <v>338.2021789550781</v>
+        <v>327.8851013183594</v>
       </c>
       <c r="CC2" t="n">
-        <v>338.2031860351562</v>
+        <v>326.7598876953125</v>
       </c>
       <c r="CD2" t="n">
-        <v>338.2110290527344</v>
+        <v>323.109375</v>
       </c>
       <c r="CE2" t="n">
-        <v>338.2200317382812</v>
+        <v>323.5169677734375</v>
       </c>
       <c r="CF2" t="n">
-        <v>338.2630004882812</v>
+        <v>323.0767211914062</v>
       </c>
       <c r="CG2" t="n">
-        <v>338.2418518066406</v>
+        <v>322.8606567382812</v>
       </c>
       <c r="CH2" t="n">
-        <v>338.2406005859375</v>
+        <v>323.5329895019531</v>
       </c>
       <c r="CI2" t="n">
-        <v>338.2376403808594</v>
+        <v>323.5842895507812</v>
       </c>
       <c r="CJ2" t="n">
-        <v>338.2252502441406</v>
+        <v>323.6148681640625</v>
       </c>
       <c r="CK2" t="n">
-        <v>338.1997680664062</v>
+        <v>323.3952331542969</v>
       </c>
       <c r="CL2" t="n">
-        <v>338.2006225585938</v>
+        <v>323.7029724121094</v>
       </c>
       <c r="CM2" t="n">
-        <v>338.1653137207031</v>
+        <v>323.2994079589844</v>
       </c>
       <c r="CN2" t="n">
-        <v>338.1385498046875</v>
+        <v>323.3630676269531</v>
       </c>
       <c r="CO2" t="n">
-        <v>338.188720703125</v>
+        <v>323.4295959472656</v>
       </c>
       <c r="CP2" t="n">
-        <v>338.1959228515625</v>
+        <v>323.5192565917969</v>
       </c>
       <c r="CQ2" t="n">
-        <v>338.1943359375</v>
+        <v>323.6547241210938</v>
       </c>
       <c r="CR2" t="n">
-        <v>338.1842041015625</v>
+        <v>322.9153747558594</v>
       </c>
       <c r="CS2" t="n">
-        <v>338.1649475097656</v>
+        <v>323.1563720703125</v>
       </c>
       <c r="CT2" t="n">
-        <v>338.13623046875</v>
+        <v>323.317626953125</v>
       </c>
       <c r="CU2" t="n">
-        <v>338.0723571777344</v>
+        <v>323.0169067382812</v>
       </c>
       <c r="CV2" t="n">
-        <v>338.0057067871094</v>
+        <v>323.1883239746094</v>
       </c>
       <c r="CW2" t="n">
-        <v>337.9998474121094</v>
+        <v>322.9253540039062</v>
       </c>
       <c r="CX2" t="n">
-        <v>337.9889526367188</v>
+        <v>323.0997314453125</v>
       </c>
       <c r="CY2" t="n">
-        <v>337.9828491210938</v>
+        <v>323.003173828125</v>
       </c>
       <c r="CZ2" t="n">
-        <v>337.9593200683594</v>
+        <v>323.2514038085938</v>
       </c>
       <c r="DA2" t="n">
-        <v>337.9382934570312</v>
+        <v>323.3450317382812</v>
       </c>
       <c r="DB2" t="n">
-        <v>337.8923950195312</v>
+        <v>323.0055541992188</v>
       </c>
       <c r="DC2" t="n">
-        <v>337.865966796875</v>
+        <v>322.984375</v>
       </c>
       <c r="DD2" t="n">
-        <v>337.7940368652344</v>
+        <v>322.8690795898438</v>
       </c>
       <c r="DE2" t="n">
-        <v>337.7261352539062</v>
+        <v>322.7589721679688</v>
       </c>
       <c r="DF2" t="n">
-        <v>337.6116333007812</v>
+        <v>322.5860900878906</v>
       </c>
       <c r="DG2" t="n">
-        <v>337.5252075195312</v>
+        <v>322.214111328125</v>
       </c>
       <c r="DH2" t="n">
-        <v>337.6216125488281</v>
+        <v>322.5102233886719</v>
       </c>
       <c r="DI2" t="n">
-        <v>337.6258850097656</v>
+        <v>323.007080078125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>337.5296325683594</v>
+        <v>323.0499877929688</v>
       </c>
       <c r="DK2" t="n">
-        <v>337.5606689453125</v>
+        <v>322.9777526855469</v>
       </c>
       <c r="DL2" t="n">
-        <v>337.5173950195312</v>
+        <v>322.8368835449219</v>
       </c>
       <c r="DM2" t="n">
-        <v>337.4908752441406</v>
+        <v>323.316162109375</v>
       </c>
       <c r="DN2" t="n">
-        <v>337.5182800292969</v>
+        <v>323.0249633789062</v>
       </c>
       <c r="DO2" t="n">
-        <v>337.5293579101562</v>
+        <v>323.033935546875</v>
       </c>
       <c r="DP2" t="n">
-        <v>337.5498962402344</v>
+        <v>323.0582275390625</v>
       </c>
       <c r="DQ2" t="n">
-        <v>337.6024169921875</v>
+        <v>322.9426879882812</v>
       </c>
       <c r="DR2" t="n">
-        <v>337.658447265625</v>
+        <v>322.8778076171875</v>
       </c>
       <c r="DS2" t="n">
-        <v>337.6641235351562</v>
+        <v>323.2168273925781</v>
       </c>
       <c r="DT2" t="n">
-        <v>337.6748352050781</v>
+        <v>322.9059143066406</v>
       </c>
       <c r="DU2" t="n">
-        <v>337.6949462890625</v>
+        <v>322.7821044921875</v>
       </c>
       <c r="DV2" t="n">
-        <v>337.7221374511719</v>
+        <v>323.0772705078125</v>
       </c>
       <c r="DW2" t="n">
-        <v>337.7254028320312</v>
+        <v>322.9017944335938</v>
       </c>
       <c r="DX2" t="n">
-        <v>337.7035827636719</v>
+        <v>322.7710266113281</v>
       </c>
       <c r="DY2" t="n">
-        <v>337.6367797851562</v>
+        <v>322.5382690429688</v>
       </c>
       <c r="DZ2" t="n">
-        <v>337.5793151855469</v>
+        <v>322.16748046875</v>
       </c>
       <c r="EA2" t="n">
-        <v>337.4274291992188</v>
+        <v>322.2335510253906</v>
       </c>
       <c r="EB2" t="n">
-        <v>337.29931640625</v>
+        <v>322.2974243164062</v>
       </c>
       <c r="EC2" t="n">
-        <v>337.1192016601562</v>
+        <v>322.2329406738281</v>
       </c>
       <c r="ED2" t="n">
-        <v>336.9358520507812</v>
+        <v>322.3425903320312</v>
       </c>
       <c r="EE2" t="n">
-        <v>336.9154052734375</v>
+        <v>322.6510009765625</v>
       </c>
       <c r="EF2" t="n">
-        <v>336.8953857421875</v>
+        <v>322.69140625</v>
       </c>
       <c r="EG2" t="n">
-        <v>336.8818664550781</v>
+        <v>322.9510803222656</v>
       </c>
       <c r="EH2" t="n">
-        <v>336.863037109375</v>
+        <v>323.0692749023438</v>
       </c>
       <c r="EI2" t="n">
-        <v>336.8488159179688</v>
+        <v>323.0381774902344</v>
       </c>
       <c r="EJ2" t="n">
-        <v>336.8444213867188</v>
+        <v>322.6889038085938</v>
       </c>
       <c r="EK2" t="n">
-        <v>336.8246459960938</v>
+        <v>322.9413452148438</v>
       </c>
       <c r="EL2" t="n">
-        <v>336.7944946289062</v>
+        <v>322.4612426757812</v>
       </c>
       <c r="EM2" t="n">
-        <v>336.723388671875</v>
+        <v>322.526611328125</v>
       </c>
       <c r="EN2" t="n">
-        <v>336.6842346191406</v>
+        <v>322.8926086425781</v>
       </c>
       <c r="EO2" t="n">
-        <v>336.5558166503906</v>
+        <v>322.9361267089844</v>
       </c>
       <c r="EP2" t="n">
-        <v>336.346435546875</v>
+        <v>322.8240661621094</v>
       </c>
       <c r="EQ2" t="n">
-        <v>335.9766235351562</v>
+        <v>322.8388671875</v>
       </c>
       <c r="ER2" t="n">
-        <v>335.9859924316406</v>
+        <v>322.9185485839844</v>
       </c>
       <c r="ES2" t="n">
-        <v>335.97021484375</v>
+        <v>322.7196655273438</v>
       </c>
       <c r="ET2" t="n">
-        <v>335.9521484375</v>
+        <v>322.8705139160156</v>
       </c>
       <c r="EU2" t="n">
-        <v>335.9566650390625</v>
+        <v>323.0755920410156</v>
       </c>
       <c r="EV2" t="n">
-        <v>335.9627990722656</v>
+        <v>323.249267578125</v>
       </c>
       <c r="EW2" t="n">
-        <v>335.9736328125</v>
+        <v>323.2471313476562</v>
       </c>
       <c r="EX2" t="n">
-        <v>335.9690551757812</v>
+        <v>323.1922912597656</v>
       </c>
       <c r="EY2" t="n">
-        <v>335.9830932617188</v>
+        <v>323.101318359375</v>
       </c>
       <c r="EZ2" t="n">
-        <v>336.0169982910156</v>
+        <v>322.9028625488281</v>
       </c>
       <c r="FA2" t="n">
-        <v>336.17578125</v>
+        <v>322.7942504882812</v>
       </c>
       <c r="FB2" t="n">
-        <v>336.3180236816406</v>
+        <v>323.0863037109375</v>
       </c>
       <c r="FC2" t="n">
-        <v>336.4230041503906</v>
+        <v>323.0584106445312</v>
       </c>
       <c r="FD2" t="n">
-        <v>336.5064086914062</v>
+        <v>322.9865112304688</v>
       </c>
       <c r="FE2" t="n">
-        <v>336.5567626953125</v>
+        <v>322.9378967285156</v>
       </c>
       <c r="FF2" t="n">
-        <v>336.6197204589844</v>
+        <v>322.7918090820312</v>
       </c>
       <c r="FG2" t="n">
-        <v>336.5271301269531</v>
+        <v>322.7035217285156</v>
       </c>
       <c r="FH2" t="n">
-        <v>336.3194274902344</v>
+        <v>322.207275390625</v>
       </c>
       <c r="FI2" t="n">
-        <v>335.1666870117188</v>
+        <v>321.6846008300781</v>
       </c>
       <c r="FJ2" t="n">
-        <v>334.3118591308594</v>
+        <v>321.9689636230469</v>
       </c>
       <c r="FK2" t="n">
-        <v>333.9408569335938</v>
+        <v>321.8167419433594</v>
       </c>
       <c r="FL2" t="n">
-        <v>334.0084228515625</v>
+        <v>321.7957763671875</v>
       </c>
       <c r="FM2" t="n">
-        <v>334.0443725585938</v>
+        <v>322.1905822753906</v>
       </c>
       <c r="FN2" t="n">
-        <v>334.1055603027344</v>
+        <v>322.3138427734375</v>
       </c>
       <c r="FO2" t="n">
-        <v>334.087158203125</v>
+        <v>322.13671875</v>
       </c>
       <c r="FP2" t="n">
-        <v>334.1423034667969</v>
+        <v>322.22509765625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>334.1781005859375</v>
+        <v>322.3701782226562</v>
       </c>
       <c r="FR2" t="n">
-        <v>334.167236328125</v>
+        <v>322.5764770507812</v>
       </c>
       <c r="FS2" t="n">
-        <v>334.17236328125</v>
+        <v>322.8755493164062</v>
       </c>
       <c r="FT2" t="n">
-        <v>334.1702880859375</v>
+        <v>323.0256652832031</v>
       </c>
       <c r="FU2" t="n">
-        <v>334.1644897460938</v>
+        <v>323.0130615234375</v>
       </c>
       <c r="FV2" t="n">
-        <v>334.1840209960938</v>
+        <v>323.0047302246094</v>
       </c>
       <c r="FW2" t="n">
-        <v>334.2419738769531</v>
+        <v>322.9767456054688</v>
       </c>
       <c r="FX2" t="n">
-        <v>334.2693481445312</v>
+        <v>322.883544921875</v>
       </c>
       <c r="FY2" t="n">
-        <v>334.1625671386719</v>
+        <v>322.8488159179688</v>
       </c>
       <c r="FZ2" t="n">
-        <v>334.0853271484375</v>
+        <v>322.6107482910156</v>
       </c>
       <c r="GA2" t="n">
-        <v>333.9832153320312</v>
+        <v>322.6305847167969</v>
       </c>
       <c r="GB2" t="n">
-        <v>333.9905090332031</v>
+        <v>322.6004333496094</v>
       </c>
       <c r="GC2" t="n">
-        <v>333.9641723632812</v>
+        <v>322.57421875</v>
       </c>
       <c r="GD2" t="n">
-        <v>333.9265747070312</v>
+        <v>322.5908813476562</v>
       </c>
       <c r="GE2" t="n">
-        <v>333.6843566894531</v>
+        <v>322.644287109375</v>
       </c>
       <c r="GF2" t="n">
-        <v>333.7037353515625</v>
+        <v>322.7492065429688</v>
       </c>
       <c r="GG2" t="n">
-        <v>333.6788330078125</v>
+        <v>323.119140625</v>
       </c>
       <c r="GH2" t="n">
-        <v>333.728759765625</v>
+        <v>322.9615478515625</v>
       </c>
       <c r="GI2" t="n">
-        <v>333.832763671875</v>
+        <v>322.8639221191406</v>
       </c>
       <c r="GJ2" t="n">
-        <v>333.7899169921875</v>
+        <v>322.6935424804688</v>
       </c>
       <c r="GK2" t="n">
-        <v>333.6958312988281</v>
+        <v>322.8334350585938</v>
       </c>
       <c r="GL2" t="n">
-        <v>333.7586059570312</v>
+        <v>322.7383117675781</v>
       </c>
       <c r="GM2" t="n">
-        <v>333.9201354980469</v>
+        <v>322.7745361328125</v>
       </c>
       <c r="GN2" t="n">
-        <v>333.8734130859375</v>
+        <v>322.9037780761719</v>
       </c>
       <c r="GO2" t="n">
-        <v>333.8148193359375</v>
+        <v>322.891357421875</v>
       </c>
       <c r="GP2" t="n">
-        <v>333.87548828125</v>
+        <v>322.8784790039062</v>
       </c>
       <c r="GQ2" t="n">
-        <v>334.0737609863281</v>
+        <v>322.9309692382812</v>
       </c>
       <c r="GR2" t="n">
-        <v>334.08251953125</v>
+        <v>322.9019165039062</v>
       </c>
       <c r="GS2" t="n">
-        <v>333.9983520507812</v>
+        <v>322.8156127929688</v>
       </c>
       <c r="GT2" t="n">
-        <v>333.9954223632812</v>
+        <v>322.6553344726562</v>
       </c>
       <c r="GU2" t="n">
-        <v>333.8382568359375</v>
+        <v>322.4592590332031</v>
       </c>
       <c r="GV2" t="n">
-        <v>333.2037353515625</v>
+        <v>322.4419555664062</v>
       </c>
       <c r="GW2" t="n">
-        <v>332.3691101074219</v>
+        <v>322.4364929199219</v>
       </c>
       <c r="GX2" t="n">
-        <v>332.4681396484375</v>
+        <v>322.319091796875</v>
       </c>
       <c r="GY2" t="n">
-        <v>332.4225463867188</v>
+        <v>322.6328125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>332.3482971191406</v>
+        <v>322.7134704589844</v>
       </c>
       <c r="HA2" t="n">
-        <v>332.2840576171875</v>
+        <v>322.7222290039062</v>
       </c>
       <c r="HB2" t="n">
-        <v>332.2791137695312</v>
+        <v>322.583251953125</v>
       </c>
       <c r="HC2" t="n">
-        <v>332.1069641113281</v>
+        <v>322.763671875</v>
       </c>
       <c r="HD2" t="n">
-        <v>332.1278381347656</v>
+        <v>322.9673461914062</v>
       </c>
       <c r="HE2" t="n">
-        <v>332.0093383789062</v>
+        <v>322.9692077636719</v>
       </c>
       <c r="HF2" t="n">
-        <v>331.8678588867188</v>
+        <v>322.8590393066406</v>
       </c>
       <c r="HG2" t="n">
-        <v>331.7869873046875</v>
+        <v>322.7835388183594</v>
       </c>
       <c r="HH2" t="n">
-        <v>331.8706665039062</v>
+        <v>322.698486328125</v>
       </c>
       <c r="HI2" t="n">
-        <v>331.9291381835938</v>
+        <v>322.742919921875</v>
       </c>
       <c r="HJ2" t="n">
-        <v>332.0184936523438</v>
+        <v>322.2396545410156</v>
       </c>
       <c r="HK2" t="n">
-        <v>332.0890808105469</v>
+        <v>322.5164489746094</v>
       </c>
       <c r="HL2" t="n">
-        <v>332.314697265625</v>
+        <v>322.3976440429688</v>
       </c>
       <c r="HM2" t="n">
-        <v>332.44970703125</v>
+        <v>322.587890625</v>
       </c>
       <c r="HN2" t="n">
-        <v>332.4244995117188</v>
+        <v>322.6690368652344</v>
       </c>
       <c r="HO2" t="n">
-        <v>332.439453125</v>
+        <v>322.7427368164062</v>
       </c>
       <c r="HP2" t="n">
-        <v>332.4806518554688</v>
+        <v>322.8748779296875</v>
       </c>
       <c r="HQ2" t="n">
-        <v>332.4967041015625</v>
+        <v>322.8468322753906</v>
       </c>
       <c r="HR2" t="n">
-        <v>332.4578247070312</v>
+        <v>322.4254150390625</v>
       </c>
       <c r="HS2" t="n">
-        <v>332.4791870117188</v>
+        <v>322.5059204101562</v>
       </c>
       <c r="HT2" t="n">
-        <v>332.5274353027344</v>
+        <v>322.4776611328125</v>
       </c>
       <c r="HU2" t="n">
-        <v>332.6012878417969</v>
+        <v>322.5071716308594</v>
       </c>
       <c r="HV2" t="n">
-        <v>332.927490234375</v>
+        <v>322.3836669921875</v>
       </c>
       <c r="HW2" t="n">
-        <v>333.1434631347656</v>
+        <v>322.5949096679688</v>
       </c>
       <c r="HX2" t="n">
-        <v>332.5709838867188</v>
+        <v>322.4782104492188</v>
       </c>
       <c r="HY2" t="n">
-        <v>331.4788513183594</v>
+        <v>322.7648620605469</v>
       </c>
       <c r="HZ2" t="n">
-        <v>330.6009521484375</v>
+        <v>322.9389038085938</v>
       </c>
       <c r="IA2" t="n">
-        <v>330.603271484375</v>
+        <v>322.9230041503906</v>
       </c>
       <c r="IB2" t="n">
-        <v>330.5708312988281</v>
+        <v>323.0473327636719</v>
       </c>
       <c r="IC2" t="n">
-        <v>330.5453186035156</v>
+        <v>323.0077819824219</v>
       </c>
       <c r="ID2" t="n">
-        <v>330.5642700195312</v>
+        <v>323.0579223632812</v>
       </c>
       <c r="IE2" t="n">
-        <v>330.5723266601562</v>
+        <v>323.1180114746094</v>
       </c>
       <c r="IF2" t="n">
-        <v>330.5218505859375</v>
+        <v>323.1864929199219</v>
       </c>
       <c r="IG2" t="n">
-        <v>330.4229431152344</v>
+        <v>323.4479370117188</v>
       </c>
       <c r="IH2" t="n">
-        <v>330.4576110839844</v>
+        <v>322.849853515625</v>
       </c>
       <c r="II2" t="n">
-        <v>330.4512939453125</v>
+        <v>323.3017578125</v>
       </c>
       <c r="IJ2" t="n">
-        <v>330.4484558105469</v>
+        <v>322.7855224609375</v>
       </c>
       <c r="IK2" t="n">
-        <v>330.46728515625</v>
+        <v>322.8640441894531</v>
       </c>
       <c r="IL2" t="n">
-        <v>330.46533203125</v>
+        <v>322.9336853027344</v>
       </c>
       <c r="IM2" t="n">
-        <v>330.548583984375</v>
+        <v>322.9495849609375</v>
       </c>
       <c r="IN2" t="n">
-        <v>330.7171020507812</v>
+        <v>322.9578247070312</v>
       </c>
       <c r="IO2" t="n">
-        <v>330.74853515625</v>
+        <v>322.7477722167969</v>
       </c>
       <c r="IP2" t="n">
-        <v>330.8142700195312</v>
+        <v>322.7441101074219</v>
       </c>
       <c r="IQ2" t="n">
-        <v>331.3280639648438</v>
+        <v>322.8435668945312</v>
       </c>
       <c r="IR2" t="n">
-        <v>331.2139892578125</v>
+        <v>322.81787109375</v>
       </c>
       <c r="IS2" t="n">
-        <v>331.1885986328125</v>
+        <v>322.9240417480469</v>
       </c>
       <c r="IT2" t="n">
-        <v>331.1973266601562</v>
+        <v>322.24365234375</v>
       </c>
       <c r="IU2" t="n">
-        <v>331.2430419921875</v>
+        <v>322.2390747070312</v>
       </c>
       <c r="IV2" t="n">
-        <v>331.24560546875</v>
+        <v>322.5564575195312</v>
       </c>
       <c r="IW2" t="n">
-        <v>331.2665405273438</v>
+        <v>322.2172241210938</v>
       </c>
       <c r="IX2" t="n">
-        <v>331.2503356933594</v>
+        <v>322.20556640625</v>
       </c>
       <c r="IY2" t="n">
-        <v>331.3208618164062</v>
+        <v>322.1048278808594</v>
       </c>
       <c r="IZ2" t="n">
-        <v>331.2664184570312</v>
+        <v>321.9934387207031</v>
       </c>
       <c r="JA2" t="n">
-        <v>331.2615356445312</v>
+        <v>322.2959899902344</v>
       </c>
       <c r="JB2" t="n">
-        <v>331.1591186523438</v>
+        <v>323.6102600097656</v>
       </c>
       <c r="JC2" t="n">
-        <v>331.1893005371094</v>
+        <v>323.8587036132812</v>
       </c>
       <c r="JD2" t="n">
-        <v>331.205322265625</v>
+        <v>322.4899291992188</v>
       </c>
       <c r="JE2" t="n">
-        <v>331.216064453125</v>
+        <v>322.40087890625</v>
       </c>
       <c r="JF2" t="n">
-        <v>331.0819702148438</v>
+        <v>322.4892578125</v>
       </c>
       <c r="JG2" t="n">
-        <v>330.7727661132812</v>
+        <v>322.6504516601562</v>
       </c>
       <c r="JH2" t="n">
-        <v>330.2062377929688</v>
+        <v>322.125</v>
       </c>
       <c r="JI2" t="n">
-        <v>330.0256652832031</v>
+        <v>323.4072265625</v>
       </c>
       <c r="JJ2" t="n">
-        <v>330.0365600585938</v>
+        <v>323.7054443359375</v>
       </c>
       <c r="JK2" t="n">
-        <v>329.949951171875</v>
+        <v>322.5674438476562</v>
       </c>
       <c r="JL2" t="n">
-        <v>329.9207153320312</v>
+        <v>322.8040161132812</v>
       </c>
       <c r="JM2" t="n">
-        <v>329.931396484375</v>
+        <v>322.4047241210938</v>
       </c>
       <c r="JN2" t="n">
-        <v>329.885009765625</v>
+        <v>322.3473510742188</v>
       </c>
       <c r="JO2" t="n">
-        <v>329.6718139648438</v>
+        <v>322.3818359375</v>
       </c>
       <c r="JP2" t="n">
-        <v>329.1334533691406</v>
+        <v>322.4052734375</v>
       </c>
       <c r="JQ2" t="n">
-        <v>329.0165405273438</v>
+        <v>322.3922119140625</v>
       </c>
       <c r="JR2" t="n">
-        <v>329.0830078125</v>
+        <v>322.2619934082031</v>
       </c>
       <c r="JS2" t="n">
-        <v>329.0573425292969</v>
+        <v>322.0186767578125</v>
       </c>
       <c r="JT2" t="n">
-        <v>328.9442443847656</v>
+        <v>321.980224609375</v>
       </c>
       <c r="JU2" t="n">
-        <v>329.0143432617188</v>
+        <v>321.7960205078125</v>
       </c>
       <c r="JV2" t="n">
-        <v>329.0343627929688</v>
+        <v>321.8240051269531</v>
       </c>
       <c r="JW2" t="n">
-        <v>328.9134521484375</v>
+        <v>321.8216552734375</v>
       </c>
       <c r="JX2" t="n">
-        <v>328.4799194335938</v>
+        <v>321.8819885253906</v>
       </c>
       <c r="JY2" t="n">
-        <v>328.6968688964844</v>
+        <v>321.6167907714844</v>
       </c>
       <c r="JZ2" t="n">
-        <v>329.0458984375</v>
+        <v>321.6397094726562</v>
       </c>
       <c r="KA2" t="n">
-        <v>329.5846862792969</v>
+        <v>321.7223510742188</v>
       </c>
       <c r="KB2" t="n">
-        <v>330.1051330566406</v>
+        <v>321.9338684082031</v>
       </c>
       <c r="KC2" t="n">
-        <v>330.24365234375</v>
+        <v>322.908203125</v>
       </c>
       <c r="KD2" t="n">
-        <v>329.4195861816406</v>
+        <v>324.1571655273438</v>
       </c>
       <c r="KE2" t="n">
-        <v>328.888671875</v>
+        <v>323.7754821777344</v>
       </c>
       <c r="KF2" t="n">
-        <v>327.2649536132812</v>
+        <v>324.2196044921875</v>
       </c>
       <c r="KG2" t="n">
-        <v>324.3028259277344</v>
+        <v>324.8087768554688</v>
       </c>
       <c r="KH2" t="n">
-        <v>327.6397399902344</v>
+        <v>326.3617553710938</v>
       </c>
       <c r="KI2" t="n">
-        <v>328.4673767089844</v>
+        <v>326.1502075195312</v>
       </c>
       <c r="KJ2" t="n">
-        <v>324.9022827148438</v>
+        <v>326.4305419921875</v>
       </c>
       <c r="KK2" t="n">
-        <v>320.3176574707031</v>
+        <v>326.4233703613281</v>
       </c>
       <c r="KL2" t="n">
-        <v>319.2774047851562</v>
+        <v>326.18798828125</v>
       </c>
       <c r="KM2" t="n">
-        <v>323.5488586425781</v>
+        <v>326.0489196777344</v>
       </c>
       <c r="KN2" t="n">
-        <v>323.5825805664062</v>
+        <v>325.4262084960938</v>
       </c>
       <c r="KO2" t="n">
-        <v>334.7845764160156</v>
+        <v>326.0275573730469</v>
       </c>
       <c r="KP2" t="n">
-        <v>349.9283142089844</v>
+        <v>326.0991821289062</v>
       </c>
       <c r="KQ2" t="n">
-        <v>339.8452453613281</v>
+        <v>326.2347717285156</v>
       </c>
       <c r="KR2" t="n">
-        <v>324.7532348632812</v>
+        <v>327.45458984375</v>
       </c>
       <c r="KS2" t="n">
-        <v>315.6216430664062</v>
+        <v>328.1098022460938</v>
       </c>
       <c r="KT2" t="n">
-        <v>303.6897888183594</v>
+        <v>329.3946533203125</v>
       </c>
       <c r="KU2" t="n">
-        <v>312.4087829589844</v>
+        <v>330.9999389648438</v>
       </c>
       <c r="KV2" t="n">
-        <v>353.1488647460938</v>
+        <v>312.8674621582031</v>
       </c>
       <c r="KW2" t="n">
-        <v>351.9193725585938</v>
+        <v>289.4309997558594</v>
       </c>
       <c r="KX2" t="n">
-        <v>345.4924926757812</v>
+        <v>332.0728759765625</v>
       </c>
       <c r="KY2" t="n">
-        <v>343.651611328125</v>
+        <v>335.7130737304688</v>
       </c>
       <c r="KZ2" t="n">
-        <v>343.0093994140625</v>
+        <v>339.369140625</v>
       </c>
       <c r="LA2" t="n">
-        <v>340.7711181640625</v>
+        <v>338.1372375488281</v>
       </c>
       <c r="LB2" t="n">
-        <v>338.0865783691406</v>
+        <v>346.0240478515625</v>
       </c>
       <c r="LC2" t="n">
-        <v>336.7666625976562</v>
+        <v>353.5962219238281</v>
       </c>
       <c r="LD2" t="n">
-        <v>337.8387756347656</v>
+        <v>361.8014831542969</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>367.883056640625</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>372.8092041015625</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>372.8020935058594</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>380.6634216308594</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>391.7171936035156</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>399.9171752929688</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>395.3629150390625</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>405.7388610839844</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>380.3207092285156</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>357.9872436523438</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>457.3902893066406</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>470.03466796875</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>456.696044921875</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>470.7772216796875</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>521.2485961914062</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>454.1885070800781</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>455.1156005859375</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>447.56689453125</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>448.9463500976562</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>236.4268798828125</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>240.7126159667969</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>246.518798828125</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>256.9790954589844</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>263.4662475585938</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>380.9689025878906</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>380.6990356445312</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>461.7779846191406</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>269.4728088378906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>561.5639038085938</v>
+        <v>634.63525390625</v>
       </c>
       <c r="B3" t="n">
-        <v>547.7046508789062</v>
+        <v>616.0763549804688</v>
       </c>
       <c r="C3" t="n">
-        <v>544.7696533203125</v>
+        <v>601.5203857421875</v>
       </c>
       <c r="D3" t="n">
-        <v>544.0509643554688</v>
+        <v>587.842529296875</v>
       </c>
       <c r="E3" t="n">
-        <v>547.0916137695312</v>
+        <v>572.4135131835938</v>
       </c>
       <c r="F3" t="n">
-        <v>539.2366333007812</v>
+        <v>562.618408203125</v>
       </c>
       <c r="G3" t="n">
-        <v>540.3953857421875</v>
+        <v>553.458984375</v>
       </c>
       <c r="H3" t="n">
-        <v>538.2255859375</v>
+        <v>540.9098510742188</v>
       </c>
       <c r="I3" t="n">
-        <v>536.3767700195312</v>
+        <v>532.4307250976562</v>
       </c>
       <c r="J3" t="n">
-        <v>532.1739501953125</v>
+        <v>525.3116455078125</v>
       </c>
       <c r="K3" t="n">
-        <v>524.1605834960938</v>
+        <v>518.2595825195312</v>
       </c>
       <c r="L3" t="n">
-        <v>520.2362060546875</v>
+        <v>511.8967895507812</v>
       </c>
       <c r="M3" t="n">
-        <v>519.1162719726562</v>
+        <v>506.0880737304688</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5504150390625</v>
+        <v>499.864013671875</v>
       </c>
       <c r="O3" t="n">
-        <v>508.490478515625</v>
+        <v>495.8806762695312</v>
       </c>
       <c r="P3" t="n">
-        <v>505.3325805664062</v>
+        <v>490.4385681152344</v>
       </c>
       <c r="Q3" t="n">
-        <v>501.0266418457031</v>
+        <v>485.1525268554688</v>
       </c>
       <c r="R3" t="n">
-        <v>494.2104797363281</v>
+        <v>502.5016479492188</v>
       </c>
       <c r="S3" t="n">
-        <v>506.1117553710938</v>
+        <v>496.703125</v>
       </c>
       <c r="T3" t="n">
-        <v>503.6860046386719</v>
+        <v>495.7307739257812</v>
       </c>
       <c r="U3" t="n">
-        <v>499.2419128417969</v>
+        <v>494.8427124023438</v>
       </c>
       <c r="V3" t="n">
-        <v>497.4496154785156</v>
+        <v>490.49951171875</v>
       </c>
       <c r="W3" t="n">
-        <v>498.3828125</v>
+        <v>488.758056640625</v>
       </c>
       <c r="X3" t="n">
-        <v>498.6950073242188</v>
+        <v>482.0252075195312</v>
       </c>
       <c r="Y3" t="n">
-        <v>498.1199951171875</v>
+        <v>478.5751953125</v>
       </c>
       <c r="Z3" t="n">
-        <v>497.900634765625</v>
+        <v>474.6611022949219</v>
       </c>
       <c r="AA3" t="n">
-        <v>494.7842712402344</v>
+        <v>469.4697875976562</v>
       </c>
       <c r="AB3" t="n">
-        <v>489.1399536132812</v>
+        <v>455.3705139160156</v>
       </c>
       <c r="AC3" t="n">
-        <v>485.6505126953125</v>
+        <v>443.8686828613281</v>
       </c>
       <c r="AD3" t="n">
-        <v>477.4705200195312</v>
+        <v>440.2220153808594</v>
       </c>
       <c r="AE3" t="n">
-        <v>473.6575317382812</v>
+        <v>436.1729125976562</v>
       </c>
       <c r="AF3" t="n">
-        <v>472.3232727050781</v>
+        <v>430.5194091796875</v>
       </c>
       <c r="AG3" t="n">
-        <v>471.7293090820312</v>
+        <v>425.9015502929688</v>
       </c>
       <c r="AH3" t="n">
-        <v>471.7075500488281</v>
+        <v>422.8823852539062</v>
       </c>
       <c r="AI3" t="n">
-        <v>471.602783203125</v>
+        <v>421.5726928710938</v>
       </c>
       <c r="AJ3" t="n">
-        <v>468.0748901367188</v>
+        <v>419.8624877929688</v>
       </c>
       <c r="AK3" t="n">
-        <v>466.7235412597656</v>
+        <v>419.6194152832031</v>
       </c>
       <c r="AL3" t="n">
-        <v>463.8447875976562</v>
+        <v>418.1446533203125</v>
       </c>
       <c r="AM3" t="n">
-        <v>462.259033203125</v>
+        <v>415.4284057617188</v>
       </c>
       <c r="AN3" t="n">
-        <v>461.4886779785156</v>
+        <v>414.2558288574219</v>
       </c>
       <c r="AO3" t="n">
-        <v>461.1111755371094</v>
+        <v>413.2554321289062</v>
       </c>
       <c r="AP3" t="n">
-        <v>462.9863891601562</v>
+        <v>413.734130859375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>465.0071411132812</v>
+        <v>413.7352600097656</v>
       </c>
       <c r="AR3" t="n">
-        <v>465.4087219238281</v>
+        <v>415.4463500976562</v>
       </c>
       <c r="AS3" t="n">
-        <v>464.0586242675781</v>
+        <v>417.6273803710938</v>
       </c>
       <c r="AT3" t="n">
-        <v>463.1265563964844</v>
+        <v>419.2588195800781</v>
       </c>
       <c r="AU3" t="n">
-        <v>462.6974487304688</v>
+        <v>418.4613037109375</v>
       </c>
       <c r="AV3" t="n">
-        <v>462.1414489746094</v>
+        <v>417.1019897460938</v>
       </c>
       <c r="AW3" t="n">
-        <v>461.4898681640625</v>
+        <v>415.5743713378906</v>
       </c>
       <c r="AX3" t="n">
-        <v>461.8341064453125</v>
+        <v>414.6396789550781</v>
       </c>
       <c r="AY3" t="n">
-        <v>462.5581970214844</v>
+        <v>414.0939025878906</v>
       </c>
       <c r="AZ3" t="n">
-        <v>462.670654296875</v>
+        <v>413.2703857421875</v>
       </c>
       <c r="BA3" t="n">
-        <v>462.875244140625</v>
+        <v>413.0620727539062</v>
       </c>
       <c r="BB3" t="n">
-        <v>463.3472900390625</v>
+        <v>412.0147705078125</v>
       </c>
       <c r="BC3" t="n">
-        <v>462.1409606933594</v>
+        <v>408.2810363769531</v>
       </c>
       <c r="BD3" t="n">
-        <v>461.8767700195312</v>
+        <v>405.9827880859375</v>
       </c>
       <c r="BE3" t="n">
-        <v>461.5398254394531</v>
+        <v>403.2440490722656</v>
       </c>
       <c r="BF3" t="n">
-        <v>461.3162536621094</v>
+        <v>400.9705505371094</v>
       </c>
       <c r="BG3" t="n">
-        <v>461.1954040527344</v>
+        <v>397.4845581054688</v>
       </c>
       <c r="BH3" t="n">
-        <v>460.96923828125</v>
+        <v>393.0569152832031</v>
       </c>
       <c r="BI3" t="n">
-        <v>461.0473022460938</v>
+        <v>392.7931518554688</v>
       </c>
       <c r="BJ3" t="n">
-        <v>461.2895812988281</v>
+        <v>394.9485473632812</v>
       </c>
       <c r="BK3" t="n">
-        <v>461.570556640625</v>
+        <v>392.23828125</v>
       </c>
       <c r="BL3" t="n">
-        <v>463.0134887695312</v>
+        <v>392.4415893554688</v>
       </c>
       <c r="BM3" t="n">
-        <v>463.9224243164062</v>
+        <v>393.1650085449219</v>
       </c>
       <c r="BN3" t="n">
-        <v>464.7300415039062</v>
+        <v>392.6309814453125</v>
       </c>
       <c r="BO3" t="n">
-        <v>464.9076232910156</v>
+        <v>391.7036437988281</v>
       </c>
       <c r="BP3" t="n">
-        <v>465.0760192871094</v>
+        <v>390.120849609375</v>
       </c>
       <c r="BQ3" t="n">
-        <v>465.5702209472656</v>
+        <v>389.3766784667969</v>
       </c>
       <c r="BR3" t="n">
-        <v>465.9869995117188</v>
+        <v>388.1589660644531</v>
       </c>
       <c r="BS3" t="n">
-        <v>466.4315185546875</v>
+        <v>388.6586303710938</v>
       </c>
       <c r="BT3" t="n">
-        <v>466.6695861816406</v>
+        <v>389.7199401855469</v>
       </c>
       <c r="BU3" t="n">
-        <v>466.8895568847656</v>
+        <v>390.6611633300781</v>
       </c>
       <c r="BV3" t="n">
-        <v>467.167724609375</v>
+        <v>391.3345947265625</v>
       </c>
       <c r="BW3" t="n">
-        <v>467.4324035644531</v>
+        <v>391.5995788574219</v>
       </c>
       <c r="BX3" t="n">
-        <v>467.7988586425781</v>
+        <v>392.1730041503906</v>
       </c>
       <c r="BY3" t="n">
-        <v>468.2888488769531</v>
+        <v>393.8300476074219</v>
       </c>
       <c r="BZ3" t="n">
-        <v>468.9185791015625</v>
+        <v>397.10986328125</v>
       </c>
       <c r="CA3" t="n">
-        <v>470.1561279296875</v>
+        <v>397.261474609375</v>
       </c>
       <c r="CB3" t="n">
-        <v>470.5338134765625</v>
+        <v>397.7264404296875</v>
       </c>
       <c r="CC3" t="n">
-        <v>470.7326354980469</v>
+        <v>396.9822387695312</v>
       </c>
       <c r="CD3" t="n">
-        <v>470.8866577148438</v>
+        <v>397.4735107421875</v>
       </c>
       <c r="CE3" t="n">
-        <v>471.0293579101562</v>
+        <v>396.3770446777344</v>
       </c>
       <c r="CF3" t="n">
-        <v>471.1609802246094</v>
+        <v>395.3999328613281</v>
       </c>
       <c r="CG3" t="n">
-        <v>471.1954650878906</v>
+        <v>397.1814575195312</v>
       </c>
       <c r="CH3" t="n">
-        <v>471.2552795410156</v>
+        <v>396.91455078125</v>
       </c>
       <c r="CI3" t="n">
-        <v>471.2763061523438</v>
+        <v>397.1453552246094</v>
       </c>
       <c r="CJ3" t="n">
-        <v>471.2356262207031</v>
+        <v>397.4703063964844</v>
       </c>
       <c r="CK3" t="n">
-        <v>471.1909790039062</v>
+        <v>398.1150817871094</v>
       </c>
       <c r="CL3" t="n">
-        <v>471.1529541015625</v>
+        <v>398.6248779296875</v>
       </c>
       <c r="CM3" t="n">
-        <v>471.0881042480469</v>
+        <v>399.4118041992188</v>
       </c>
       <c r="CN3" t="n">
-        <v>471.0084228515625</v>
+        <v>399.3998718261719</v>
       </c>
       <c r="CO3" t="n">
-        <v>470.9089965820312</v>
+        <v>399.2760314941406</v>
       </c>
       <c r="CP3" t="n">
-        <v>470.832763671875</v>
+        <v>399.8131713867188</v>
       </c>
       <c r="CQ3" t="n">
-        <v>470.7307739257812</v>
+        <v>399.8274841308594</v>
       </c>
       <c r="CR3" t="n">
-        <v>470.7326354980469</v>
+        <v>400.3580322265625</v>
       </c>
       <c r="CS3" t="n">
-        <v>470.7600402832031</v>
+        <v>399.891357421875</v>
       </c>
       <c r="CT3" t="n">
-        <v>470.7948913574219</v>
+        <v>398.9315185546875</v>
       </c>
       <c r="CU3" t="n">
-        <v>470.7820434570312</v>
+        <v>399.505126953125</v>
       </c>
       <c r="CV3" t="n">
-        <v>470.8070068359375</v>
+        <v>400.0982666015625</v>
       </c>
       <c r="CW3" t="n">
-        <v>470.8564758300781</v>
+        <v>400.6691284179688</v>
       </c>
       <c r="CX3" t="n">
-        <v>470.9044494628906</v>
+        <v>399.3832702636719</v>
       </c>
       <c r="CY3" t="n">
-        <v>470.9111938476562</v>
+        <v>399.4901123046875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>470.9726257324219</v>
+        <v>398.4096984863281</v>
       </c>
       <c r="DA3" t="n">
-        <v>471.0076904296875</v>
+        <v>398.469482421875</v>
       </c>
       <c r="DB3" t="n">
-        <v>470.9393615722656</v>
+        <v>398.3280029296875</v>
       </c>
       <c r="DC3" t="n">
-        <v>470.9241027832031</v>
+        <v>398.6178894042969</v>
       </c>
       <c r="DD3" t="n">
-        <v>471.0484008789062</v>
+        <v>398.1808471679688</v>
       </c>
       <c r="DE3" t="n">
-        <v>471.1568298339844</v>
+        <v>398.3739624023438</v>
       </c>
       <c r="DF3" t="n">
-        <v>471.130126953125</v>
+        <v>398.3850402832031</v>
       </c>
       <c r="DG3" t="n">
-        <v>471.1605224609375</v>
+        <v>398.7346801757812</v>
       </c>
       <c r="DH3" t="n">
-        <v>471.2842712402344</v>
+        <v>398.9592590332031</v>
       </c>
       <c r="DI3" t="n">
-        <v>471.2960510253906</v>
+        <v>398.9493408203125</v>
       </c>
       <c r="DJ3" t="n">
-        <v>471.1359252929688</v>
+        <v>398.3648681640625</v>
       </c>
       <c r="DK3" t="n">
-        <v>471.1363525390625</v>
+        <v>398.9200439453125</v>
       </c>
       <c r="DL3" t="n">
-        <v>471.7001037597656</v>
+        <v>399.2018737792969</v>
       </c>
       <c r="DM3" t="n">
-        <v>472.2597351074219</v>
+        <v>398.5787353515625</v>
       </c>
       <c r="DN3" t="n">
-        <v>472.8782653808594</v>
+        <v>399.8666076660156</v>
       </c>
       <c r="DO3" t="n">
-        <v>472.88671875</v>
+        <v>400.0130615234375</v>
       </c>
       <c r="DP3" t="n">
-        <v>472.5576171875</v>
+        <v>400.3011779785156</v>
       </c>
       <c r="DQ3" t="n">
-        <v>472.1944580078125</v>
+        <v>399.5518493652344</v>
       </c>
       <c r="DR3" t="n">
-        <v>471.8265075683594</v>
+        <v>399.7147521972656</v>
       </c>
       <c r="DS3" t="n">
-        <v>471.947509765625</v>
+        <v>399.56787109375</v>
       </c>
       <c r="DT3" t="n">
-        <v>472.1910400390625</v>
+        <v>399.3526611328125</v>
       </c>
       <c r="DU3" t="n">
-        <v>472.3406982421875</v>
+        <v>399.2451782226562</v>
       </c>
       <c r="DV3" t="n">
-        <v>472.1704711914062</v>
+        <v>399.1285705566406</v>
       </c>
       <c r="DW3" t="n">
-        <v>472.1669311523438</v>
+        <v>399.3402099609375</v>
       </c>
       <c r="DX3" t="n">
-        <v>472.2209777832031</v>
+        <v>399.4727172851562</v>
       </c>
       <c r="DY3" t="n">
-        <v>472.1570434570312</v>
+        <v>399.5776672363281</v>
       </c>
       <c r="DZ3" t="n">
-        <v>472.2914733886719</v>
+        <v>399.3428955078125</v>
       </c>
       <c r="EA3" t="n">
-        <v>472.3470458984375</v>
+        <v>399.2244567871094</v>
       </c>
       <c r="EB3" t="n">
-        <v>472.3796997070312</v>
+        <v>399.4795837402344</v>
       </c>
       <c r="EC3" t="n">
-        <v>472.4273681640625</v>
+        <v>399.3827514648438</v>
       </c>
       <c r="ED3" t="n">
-        <v>472.6017150878906</v>
+        <v>399.3213195800781</v>
       </c>
       <c r="EE3" t="n">
-        <v>472.6683044433594</v>
+        <v>398.2867736816406</v>
       </c>
       <c r="EF3" t="n">
-        <v>472.5392150878906</v>
+        <v>398.2598266601562</v>
       </c>
       <c r="EG3" t="n">
-        <v>472.4800109863281</v>
+        <v>397.685791015625</v>
       </c>
       <c r="EH3" t="n">
-        <v>472.5488891601562</v>
+        <v>397.0907897949219</v>
       </c>
       <c r="EI3" t="n">
-        <v>472.6779479980469</v>
+        <v>397.8868408203125</v>
       </c>
       <c r="EJ3" t="n">
-        <v>472.6934509277344</v>
+        <v>398.9067687988281</v>
       </c>
       <c r="EK3" t="n">
-        <v>472.7293701171875</v>
+        <v>399.3065795898438</v>
       </c>
       <c r="EL3" t="n">
-        <v>472.794677734375</v>
+        <v>400.401611328125</v>
       </c>
       <c r="EM3" t="n">
-        <v>472.8307189941406</v>
+        <v>400.4091796875</v>
       </c>
       <c r="EN3" t="n">
-        <v>472.8316345214844</v>
+        <v>400.4432678222656</v>
       </c>
       <c r="EO3" t="n">
-        <v>472.78662109375</v>
+        <v>400.2275085449219</v>
       </c>
       <c r="EP3" t="n">
-        <v>473.0022583007812</v>
+        <v>400.4232177734375</v>
       </c>
       <c r="EQ3" t="n">
-        <v>473.2715148925781</v>
+        <v>400.1257019042969</v>
       </c>
       <c r="ER3" t="n">
-        <v>473.4716796875</v>
+        <v>400.4462585449219</v>
       </c>
       <c r="ES3" t="n">
-        <v>473.4510803222656</v>
+        <v>400.4919128417969</v>
       </c>
       <c r="ET3" t="n">
-        <v>473.640380859375</v>
+        <v>400.0091857910156</v>
       </c>
       <c r="EU3" t="n">
-        <v>473.7732543945312</v>
+        <v>399.0456848144531</v>
       </c>
       <c r="EV3" t="n">
-        <v>473.8220520019531</v>
+        <v>398.946533203125</v>
       </c>
       <c r="EW3" t="n">
-        <v>474.0199279785156</v>
+        <v>398.902587890625</v>
       </c>
       <c r="EX3" t="n">
-        <v>473.9052429199219</v>
+        <v>398.9885864257812</v>
       </c>
       <c r="EY3" t="n">
-        <v>473.7811889648438</v>
+        <v>399.0585632324219</v>
       </c>
       <c r="EZ3" t="n">
-        <v>473.5956115722656</v>
+        <v>398.9912719726562</v>
       </c>
       <c r="FA3" t="n">
-        <v>473.4405212402344</v>
+        <v>398.69970703125</v>
       </c>
       <c r="FB3" t="n">
-        <v>473.2691345214844</v>
+        <v>398.1748046875</v>
       </c>
       <c r="FC3" t="n">
-        <v>473.1023254394531</v>
+        <v>398.1207275390625</v>
       </c>
       <c r="FD3" t="n">
-        <v>473.09130859375</v>
+        <v>397.6895446777344</v>
       </c>
       <c r="FE3" t="n">
-        <v>473.0998840332031</v>
+        <v>397.1007385253906</v>
       </c>
       <c r="FF3" t="n">
-        <v>473.1358642578125</v>
+        <v>396.9522705078125</v>
       </c>
       <c r="FG3" t="n">
-        <v>473.3073425292969</v>
+        <v>397.2321166992188</v>
       </c>
       <c r="FH3" t="n">
-        <v>473.3434143066406</v>
+        <v>397.9782409667969</v>
       </c>
       <c r="FI3" t="n">
-        <v>473.3450622558594</v>
+        <v>397.6719970703125</v>
       </c>
       <c r="FJ3" t="n">
-        <v>473.4095153808594</v>
+        <v>397.8004150390625</v>
       </c>
       <c r="FK3" t="n">
-        <v>473.4568786621094</v>
+        <v>398.8553161621094</v>
       </c>
       <c r="FL3" t="n">
-        <v>473.428466796875</v>
+        <v>398.9461975097656</v>
       </c>
       <c r="FM3" t="n">
-        <v>473.3554382324219</v>
+        <v>399.1970825195312</v>
       </c>
       <c r="FN3" t="n">
-        <v>473.3683776855469</v>
+        <v>399.6324462890625</v>
       </c>
       <c r="FO3" t="n">
-        <v>473.4487609863281</v>
+        <v>399.9169616699219</v>
       </c>
       <c r="FP3" t="n">
-        <v>473.5394897460938</v>
+        <v>400.214599609375</v>
       </c>
       <c r="FQ3" t="n">
-        <v>473.626953125</v>
+        <v>399.5692138671875</v>
       </c>
       <c r="FR3" t="n">
-        <v>473.7892150878906</v>
+        <v>398.4947509765625</v>
       </c>
       <c r="FS3" t="n">
-        <v>473.8641052246094</v>
+        <v>399.15673828125</v>
       </c>
       <c r="FT3" t="n">
-        <v>473.7210083007812</v>
+        <v>397.2931213378906</v>
       </c>
       <c r="FU3" t="n">
-        <v>473.5415649414062</v>
+        <v>397.8148803710938</v>
       </c>
       <c r="FV3" t="n">
-        <v>473.4548950195312</v>
+        <v>397.8140563964844</v>
       </c>
       <c r="FW3" t="n">
-        <v>473.2648315429688</v>
+        <v>397.54736328125</v>
       </c>
       <c r="FX3" t="n">
-        <v>473.26318359375</v>
+        <v>397.4568786621094</v>
       </c>
       <c r="FY3" t="n">
-        <v>473.5943603515625</v>
+        <v>397.7698974609375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>473.8394470214844</v>
+        <v>398.3301086425781</v>
       </c>
       <c r="GA3" t="n">
-        <v>473.9756164550781</v>
+        <v>398.3857421875</v>
       </c>
       <c r="GB3" t="n">
-        <v>473.8111572265625</v>
+        <v>397.9267272949219</v>
       </c>
       <c r="GC3" t="n">
-        <v>473.4554138183594</v>
+        <v>397.4113464355469</v>
       </c>
       <c r="GD3" t="n">
-        <v>473.0432434082031</v>
+        <v>398.0599060058594</v>
       </c>
       <c r="GE3" t="n">
-        <v>473.0120544433594</v>
+        <v>397.9665832519531</v>
       </c>
       <c r="GF3" t="n">
-        <v>473.101806640625</v>
+        <v>398.0625305175781</v>
       </c>
       <c r="GG3" t="n">
-        <v>473.1269226074219</v>
+        <v>398.2196655273438</v>
       </c>
       <c r="GH3" t="n">
-        <v>473.1393737792969</v>
+        <v>397.4803771972656</v>
       </c>
       <c r="GI3" t="n">
-        <v>473.1636352539062</v>
+        <v>397.5373840332031</v>
       </c>
       <c r="GJ3" t="n">
-        <v>473.3357238769531</v>
+        <v>398.9801025390625</v>
       </c>
       <c r="GK3" t="n">
-        <v>473.43310546875</v>
+        <v>398.6361694335938</v>
       </c>
       <c r="GL3" t="n">
-        <v>473.3358459472656</v>
+        <v>398.922607421875</v>
       </c>
       <c r="GM3" t="n">
-        <v>473.0304565429688</v>
+        <v>399.1748657226562</v>
       </c>
       <c r="GN3" t="n">
-        <v>473.0681762695312</v>
+        <v>398.9736938476562</v>
       </c>
       <c r="GO3" t="n">
-        <v>473.1610412597656</v>
+        <v>398.6995544433594</v>
       </c>
       <c r="GP3" t="n">
-        <v>473.1234130859375</v>
+        <v>398.2029724121094</v>
       </c>
       <c r="GQ3" t="n">
-        <v>473.0505065917969</v>
+        <v>397.4532775878906</v>
       </c>
       <c r="GR3" t="n">
-        <v>473.0439453125</v>
+        <v>397.1788024902344</v>
       </c>
       <c r="GS3" t="n">
-        <v>472.9001159667969</v>
+        <v>397.190185546875</v>
       </c>
       <c r="GT3" t="n">
-        <v>472.9236145019531</v>
+        <v>397.8365783691406</v>
       </c>
       <c r="GU3" t="n">
-        <v>472.9794311523438</v>
+        <v>398.7286376953125</v>
       </c>
       <c r="GV3" t="n">
-        <v>472.9395446777344</v>
+        <v>399.0384826660156</v>
       </c>
       <c r="GW3" t="n">
-        <v>473.0057678222656</v>
+        <v>399.4057006835938</v>
       </c>
       <c r="GX3" t="n">
-        <v>473.1666564941406</v>
+        <v>399.5773620605469</v>
       </c>
       <c r="GY3" t="n">
-        <v>473.501953125</v>
+        <v>399.5255126953125</v>
       </c>
       <c r="GZ3" t="n">
-        <v>473.8296813964844</v>
+        <v>399.1157531738281</v>
       </c>
       <c r="HA3" t="n">
-        <v>474.1889038085938</v>
+        <v>399.2716674804688</v>
       </c>
       <c r="HB3" t="n">
-        <v>474.1936340332031</v>
+        <v>399.3810729980469</v>
       </c>
       <c r="HC3" t="n">
-        <v>474.2397766113281</v>
+        <v>399.0335083007812</v>
       </c>
       <c r="HD3" t="n">
-        <v>474.2712707519531</v>
+        <v>398.7296752929688</v>
       </c>
       <c r="HE3" t="n">
-        <v>474.3068542480469</v>
+        <v>397.3733520507812</v>
       </c>
       <c r="HF3" t="n">
-        <v>474.5162048339844</v>
+        <v>396.8484497070312</v>
       </c>
       <c r="HG3" t="n">
-        <v>474.8409118652344</v>
+        <v>397.34033203125</v>
       </c>
       <c r="HH3" t="n">
-        <v>474.8427734375</v>
+        <v>398.6242980957031</v>
       </c>
       <c r="HI3" t="n">
-        <v>474.6025695800781</v>
+        <v>398.7125549316406</v>
       </c>
       <c r="HJ3" t="n">
-        <v>474.3648376464844</v>
+        <v>398.8372192382812</v>
       </c>
       <c r="HK3" t="n">
-        <v>474.3822021484375</v>
+        <v>398.21923828125</v>
       </c>
       <c r="HL3" t="n">
-        <v>474.4625244140625</v>
+        <v>397.8030090332031</v>
       </c>
       <c r="HM3" t="n">
-        <v>474.5567932128906</v>
+        <v>397.4199829101562</v>
       </c>
       <c r="HN3" t="n">
-        <v>474.3301696777344</v>
+        <v>396.06298828125</v>
       </c>
       <c r="HO3" t="n">
-        <v>474.1928100585938</v>
+        <v>394.9567260742188</v>
       </c>
       <c r="HP3" t="n">
-        <v>474.2503051757812</v>
+        <v>393.5752258300781</v>
       </c>
       <c r="HQ3" t="n">
-        <v>474.3038024902344</v>
+        <v>394.31005859375</v>
       </c>
       <c r="HR3" t="n">
-        <v>474.2696228027344</v>
+        <v>397.2120361328125</v>
       </c>
       <c r="HS3" t="n">
-        <v>474.1885681152344</v>
+        <v>399.0972290039062</v>
       </c>
       <c r="HT3" t="n">
-        <v>473.8916625976562</v>
+        <v>399.8321228027344</v>
       </c>
       <c r="HU3" t="n">
-        <v>473.7694091796875</v>
+        <v>399.5453186035156</v>
       </c>
       <c r="HV3" t="n">
-        <v>473.8504333496094</v>
+        <v>400.5914306640625</v>
       </c>
       <c r="HW3" t="n">
-        <v>473.80859375</v>
+        <v>398.1326293945312</v>
       </c>
       <c r="HX3" t="n">
-        <v>473.7570495605469</v>
+        <v>399.4709777832031</v>
       </c>
       <c r="HY3" t="n">
-        <v>473.6102905273438</v>
+        <v>398.3349304199219</v>
       </c>
       <c r="HZ3" t="n">
-        <v>473.5835266113281</v>
+        <v>397.914794921875</v>
       </c>
       <c r="IA3" t="n">
-        <v>473.4609375</v>
+        <v>398.6289367675781</v>
       </c>
       <c r="IB3" t="n">
-        <v>473.39794921875</v>
+        <v>397.0900268554688</v>
       </c>
       <c r="IC3" t="n">
-        <v>473.2855529785156</v>
+        <v>397.4368286132812</v>
       </c>
       <c r="ID3" t="n">
-        <v>473.1665954589844</v>
+        <v>397.7484741210938</v>
       </c>
       <c r="IE3" t="n">
-        <v>473.2926940917969</v>
+        <v>397.9052734375</v>
       </c>
       <c r="IF3" t="n">
-        <v>473.27685546875</v>
+        <v>397.761962890625</v>
       </c>
       <c r="IG3" t="n">
-        <v>473.2914733886719</v>
+        <v>397.29052734375</v>
       </c>
       <c r="IH3" t="n">
-        <v>473.3007507324219</v>
+        <v>397.9901428222656</v>
       </c>
       <c r="II3" t="n">
-        <v>473.3604736328125</v>
+        <v>397.3886108398438</v>
       </c>
       <c r="IJ3" t="n">
-        <v>473.3594665527344</v>
+        <v>397.5594177246094</v>
       </c>
       <c r="IK3" t="n">
-        <v>473.369873046875</v>
+        <v>397.9170227050781</v>
       </c>
       <c r="IL3" t="n">
-        <v>473.3759155273438</v>
+        <v>398.4706420898438</v>
       </c>
       <c r="IM3" t="n">
-        <v>473.4855041503906</v>
+        <v>397.46533203125</v>
       </c>
       <c r="IN3" t="n">
-        <v>473.6494750976562</v>
+        <v>397.4844970703125</v>
       </c>
       <c r="IO3" t="n">
-        <v>473.6510009765625</v>
+        <v>399.0979309082031</v>
       </c>
       <c r="IP3" t="n">
-        <v>473.5545349121094</v>
+        <v>399.7766418457031</v>
       </c>
       <c r="IQ3" t="n">
-        <v>473.4439697265625</v>
+        <v>398.4542236328125</v>
       </c>
       <c r="IR3" t="n">
-        <v>473.1595153808594</v>
+        <v>398.6694030761719</v>
       </c>
       <c r="IS3" t="n">
-        <v>473.4024963378906</v>
+        <v>399.00439453125</v>
       </c>
       <c r="IT3" t="n">
-        <v>473.3669128417969</v>
+        <v>398.9883422851562</v>
       </c>
       <c r="IU3" t="n">
-        <v>473.2318725585938</v>
+        <v>397.6243896484375</v>
       </c>
       <c r="IV3" t="n">
-        <v>473.3486938476562</v>
+        <v>397.1205749511719</v>
       </c>
       <c r="IW3" t="n">
-        <v>473.4006042480469</v>
+        <v>397.4564208984375</v>
       </c>
       <c r="IX3" t="n">
-        <v>473.4559631347656</v>
+        <v>398.30322265625</v>
       </c>
       <c r="IY3" t="n">
-        <v>473.6056823730469</v>
+        <v>399.0373840332031</v>
       </c>
       <c r="IZ3" t="n">
-        <v>473.5951843261719</v>
+        <v>399.8514709472656</v>
       </c>
       <c r="JA3" t="n">
-        <v>473.5729675292969</v>
+        <v>400.4388732910156</v>
       </c>
       <c r="JB3" t="n">
-        <v>473.6084594726562</v>
+        <v>400.4634399414062</v>
       </c>
       <c r="JC3" t="n">
-        <v>473.6337280273438</v>
+        <v>400.6349792480469</v>
       </c>
       <c r="JD3" t="n">
-        <v>473.6646423339844</v>
+        <v>399.0653076171875</v>
       </c>
       <c r="JE3" t="n">
-        <v>473.6828308105469</v>
+        <v>396.8857421875</v>
       </c>
       <c r="JF3" t="n">
-        <v>473.7734069824219</v>
+        <v>394.9532165527344</v>
       </c>
       <c r="JG3" t="n">
-        <v>473.7940368652344</v>
+        <v>397.1295776367188</v>
       </c>
       <c r="JH3" t="n">
-        <v>473.8732299804688</v>
+        <v>400.6150817871094</v>
       </c>
       <c r="JI3" t="n">
-        <v>474.0693664550781</v>
+        <v>397.9741821289062</v>
       </c>
       <c r="JJ3" t="n">
-        <v>474.2064208984375</v>
+        <v>398.2703552246094</v>
       </c>
       <c r="JK3" t="n">
-        <v>474.1945190429688</v>
+        <v>397.8023071289062</v>
       </c>
       <c r="JL3" t="n">
-        <v>474.1745300292969</v>
+        <v>397.6412048339844</v>
       </c>
       <c r="JM3" t="n">
-        <v>474.1487121582031</v>
+        <v>397.6198425292969</v>
       </c>
       <c r="JN3" t="n">
-        <v>474.1501770019531</v>
+        <v>397.4260559082031</v>
       </c>
       <c r="JO3" t="n">
-        <v>473.9918518066406</v>
+        <v>397.0538330078125</v>
       </c>
       <c r="JP3" t="n">
-        <v>473.8510131835938</v>
+        <v>397.4113464355469</v>
       </c>
       <c r="JQ3" t="n">
-        <v>473.8646850585938</v>
+        <v>397.6289367675781</v>
       </c>
       <c r="JR3" t="n">
-        <v>474.0361328125</v>
+        <v>397.7362365722656</v>
       </c>
       <c r="JS3" t="n">
-        <v>474.2397766113281</v>
+        <v>398.0136108398438</v>
       </c>
       <c r="JT3" t="n">
-        <v>474.3403930664062</v>
+        <v>398.2961120605469</v>
       </c>
       <c r="JU3" t="n">
-        <v>474.2913818359375</v>
+        <v>398.5088500976562</v>
       </c>
       <c r="JV3" t="n">
-        <v>474.4030456542969</v>
+        <v>398.6058044433594</v>
       </c>
       <c r="JW3" t="n">
-        <v>474.427490234375</v>
+        <v>398.6903381347656</v>
       </c>
       <c r="JX3" t="n">
-        <v>474.445068359375</v>
+        <v>398.5134887695312</v>
       </c>
       <c r="JY3" t="n">
-        <v>473.6681213378906</v>
+        <v>398.9832153320312</v>
       </c>
       <c r="JZ3" t="n">
-        <v>475.1312561035156</v>
+        <v>399.4393920898438</v>
       </c>
       <c r="KA3" t="n">
-        <v>473.96826171875</v>
+        <v>399.4453735351562</v>
       </c>
       <c r="KB3" t="n">
-        <v>474.1182250976562</v>
+        <v>399.5332336425781</v>
       </c>
       <c r="KC3" t="n">
-        <v>474.1788940429688</v>
+        <v>398.6697082519531</v>
       </c>
       <c r="KD3" t="n">
-        <v>475.3091125488281</v>
+        <v>398.1651306152344</v>
       </c>
       <c r="KE3" t="n">
-        <v>474.9234619140625</v>
+        <v>398.4493713378906</v>
       </c>
       <c r="KF3" t="n">
-        <v>474.6739501953125</v>
+        <v>396.7926025390625</v>
       </c>
       <c r="KG3" t="n">
-        <v>473.0227355957031</v>
+        <v>396.6137390136719</v>
       </c>
       <c r="KH3" t="n">
-        <v>470.1278381347656</v>
+        <v>397.4172668457031</v>
       </c>
       <c r="KI3" t="n">
-        <v>470.8506774902344</v>
+        <v>397.7460327148438</v>
       </c>
       <c r="KJ3" t="n">
-        <v>472.1091613769531</v>
+        <v>397.5145568847656</v>
       </c>
       <c r="KK3" t="n">
-        <v>474.3815002441406</v>
+        <v>396.4954833984375</v>
       </c>
       <c r="KL3" t="n">
-        <v>481.2749328613281</v>
+        <v>396.4785766601562</v>
       </c>
       <c r="KM3" t="n">
-        <v>491.2084045410156</v>
+        <v>399.5639953613281</v>
       </c>
       <c r="KN3" t="n">
-        <v>503.071533203125</v>
+        <v>401.3630065917969</v>
       </c>
       <c r="KO3" t="n">
-        <v>511.2409362792969</v>
+        <v>400.7343139648438</v>
       </c>
       <c r="KP3" t="n">
-        <v>511.2122192382812</v>
+        <v>401.2162475585938</v>
       </c>
       <c r="KQ3" t="n">
-        <v>519.5127563476562</v>
+        <v>403.4443664550781</v>
       </c>
       <c r="KR3" t="n">
-        <v>523.6775512695312</v>
+        <v>406.8003234863281</v>
       </c>
       <c r="KS3" t="n">
-        <v>515.6814575195312</v>
+        <v>405.5951843261719</v>
       </c>
       <c r="KT3" t="n">
-        <v>521.1863403320312</v>
+        <v>403.3531188964844</v>
       </c>
       <c r="KU3" t="n">
-        <v>514.1868286132812</v>
+        <v>414.9484558105469</v>
       </c>
       <c r="KV3" t="n">
-        <v>537.3507690429688</v>
+        <v>427.9929504394531</v>
       </c>
       <c r="KW3" t="n">
-        <v>551.369140625</v>
+        <v>428.8692626953125</v>
       </c>
       <c r="KX3" t="n">
-        <v>568.4895629882812</v>
+        <v>451.1474304199219</v>
       </c>
       <c r="KY3" t="n">
-        <v>571.6732177734375</v>
+        <v>456.7242431640625</v>
       </c>
       <c r="KZ3" t="n">
-        <v>576.3390502929688</v>
+        <v>467.0079345703125</v>
       </c>
       <c r="LA3" t="n">
-        <v>582.2642211914062</v>
+        <v>483.7449035644531</v>
       </c>
       <c r="LB3" t="n">
-        <v>588.8937377929688</v>
+        <v>501.4459533691406</v>
       </c>
       <c r="LC3" t="n">
-        <v>594.0826416015625</v>
+        <v>527.9512329101562</v>
       </c>
       <c r="LD3" t="n">
-        <v>598.8839721679688</v>
+        <v>563.2214965820312</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>599.12646484375</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>630.6295166015625</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>656.0684204101562</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>714.7393798828125</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>768.3639526367188</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>847.326416015625</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>871.6505126953125</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>991.6456298828125</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>1090.170532226562</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>1045.110107421875</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>1182.29736328125</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>1204.990600585938</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>1209.08056640625</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>1216.899169921875</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>1392.77197265625</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>1117.712524414062</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>1117.589233398438</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>1114.790649414062</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>1114.330932617188</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>1085.44482421875</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>1088.370727539062</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>1093.656860351562</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>1105.7509765625</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>1143.312377929688</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>1202.359130859375</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>1203.336303710938</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>1349.85986328125</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>1172.436889648438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1035.3056640625</v>
+        <v>796.8727416992188</v>
       </c>
       <c r="B4" t="n">
-        <v>1021.543701171875</v>
+        <v>820.2067260742188</v>
       </c>
       <c r="C4" t="n">
-        <v>1019.28466796875</v>
+        <v>850.147216796875</v>
       </c>
       <c r="D4" t="n">
-        <v>1031.677001953125</v>
+        <v>883.1439819335938</v>
       </c>
       <c r="E4" t="n">
-        <v>1060.971435546875</v>
+        <v>924.2164306640625</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.07763671875</v>
+        <v>954.6326293945312</v>
       </c>
       <c r="G4" t="n">
-        <v>1108.552368164062</v>
+        <v>983.5200805664062</v>
       </c>
       <c r="H4" t="n">
-        <v>1120.811401367188</v>
+        <v>1029.153076171875</v>
       </c>
       <c r="I4" t="n">
-        <v>1139.537353515625</v>
+        <v>1063.988891601562</v>
       </c>
       <c r="J4" t="n">
-        <v>1167.230224609375</v>
+        <v>1089.5390625</v>
       </c>
       <c r="K4" t="n">
-        <v>1205.174560546875</v>
+        <v>1115.954467773438</v>
       </c>
       <c r="L4" t="n">
-        <v>1233.18017578125</v>
+        <v>1140.546020507812</v>
       </c>
       <c r="M4" t="n">
-        <v>1267.095947265625</v>
+        <v>1164.42822265625</v>
       </c>
       <c r="N4" t="n">
-        <v>1304.158203125</v>
+        <v>1195.36669921875</v>
       </c>
       <c r="O4" t="n">
-        <v>1331.8974609375</v>
+        <v>1217.000366210938</v>
       </c>
       <c r="P4" t="n">
-        <v>1355.473022460938</v>
+        <v>1244.5263671875</v>
       </c>
       <c r="Q4" t="n">
-        <v>1374.928466796875</v>
+        <v>1273.010498046875</v>
       </c>
       <c r="R4" t="n">
-        <v>1391.522827148438</v>
+        <v>1147.710571289062</v>
       </c>
       <c r="S4" t="n">
-        <v>1273.359985351562</v>
+        <v>1189.298828125</v>
       </c>
       <c r="T4" t="n">
-        <v>1285.476440429688</v>
+        <v>1224.526123046875</v>
       </c>
       <c r="U4" t="n">
-        <v>1313.96435546875</v>
+        <v>1236.797973632812</v>
       </c>
       <c r="V4" t="n">
-        <v>1335.966796875</v>
+        <v>1275.837646484375</v>
       </c>
       <c r="W4" t="n">
-        <v>1348.083984375</v>
+        <v>1321.1083984375</v>
       </c>
       <c r="X4" t="n">
-        <v>1362.189331054688</v>
+        <v>1385.412719726562</v>
       </c>
       <c r="Y4" t="n">
-        <v>1371.685913085938</v>
+        <v>1433.22412109375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1377.577514648438</v>
+        <v>1464.846435546875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1391.36572265625</v>
+        <v>1508.228637695312</v>
       </c>
       <c r="AB4" t="n">
-        <v>1417.892700195312</v>
+        <v>1610.46728515625</v>
       </c>
       <c r="AC4" t="n">
-        <v>1438.476196289062</v>
+        <v>1651.663452148438</v>
       </c>
       <c r="AD4" t="n">
-        <v>1472.089111328125</v>
+        <v>1681.669067382812</v>
       </c>
       <c r="AE4" t="n">
-        <v>1511.0146484375</v>
+        <v>1724.4912109375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1535.683349609375</v>
+        <v>1768.080322265625</v>
       </c>
       <c r="AG4" t="n">
-        <v>1556.428344726562</v>
+        <v>1786.74658203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1564.769653320312</v>
+        <v>1799.4609375</v>
       </c>
       <c r="AI4" t="n">
-        <v>1583.396240234375</v>
+        <v>1812.4052734375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1612.30419921875</v>
+        <v>1842.812377929688</v>
       </c>
       <c r="AK4" t="n">
-        <v>1635.025390625</v>
+        <v>1853.81005859375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1652.297607421875</v>
+        <v>1876.928955078125</v>
       </c>
       <c r="AM4" t="n">
-        <v>1673.94677734375</v>
+        <v>1909.101684570312</v>
       </c>
       <c r="AN4" t="n">
-        <v>1678.04296875</v>
+        <v>1924.970336914062</v>
       </c>
       <c r="AO4" t="n">
-        <v>1686.069091796875</v>
+        <v>1939.412841796875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1712.32958984375</v>
+        <v>1944.097900390625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1745.669067382812</v>
+        <v>1947.345825195312</v>
       </c>
       <c r="AR4" t="n">
-        <v>1778.818359375</v>
+        <v>1953.3271484375</v>
       </c>
       <c r="AS4" t="n">
-        <v>1794.160766601562</v>
+        <v>1959.41015625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1814.899047851562</v>
+        <v>1964.423828125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1819.659301757812</v>
+        <v>1975.705810546875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1829.393310546875</v>
+        <v>1990.999633789062</v>
       </c>
       <c r="AW4" t="n">
-        <v>1841.608520507812</v>
+        <v>2003.20263671875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1849.744750976562</v>
+        <v>2007.298095703125</v>
       </c>
       <c r="AY4" t="n">
-        <v>1848.30615234375</v>
+        <v>2011.85107421875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1845.424194335938</v>
+        <v>2018.025634765625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1843.08984375</v>
+        <v>2029.780029296875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1840.265869140625</v>
+        <v>2052.214111328125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1837.429443359375</v>
+        <v>2099.158447265625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1831.633422851562</v>
+        <v>2117.846435546875</v>
       </c>
       <c r="BE4" t="n">
-        <v>1830.560546875</v>
+        <v>2141.579833984375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1828.367431640625</v>
+        <v>2162.088623046875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1826.502197265625</v>
+        <v>2183.718994140625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1827.008544921875</v>
+        <v>2209.096435546875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1827.390747070312</v>
+        <v>2225.262939453125</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1827.619506835938</v>
+        <v>2232.48681640625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1828.193969726562</v>
+        <v>2254.724853515625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1826.775512695312</v>
+        <v>2268.880615234375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1825.468017578125</v>
+        <v>2268.130859375</v>
       </c>
       <c r="BN4" t="n">
-        <v>1825.219848632812</v>
+        <v>2270.907958984375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1826.25244140625</v>
+        <v>2285.17431640625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1826.318359375</v>
+        <v>2299.4306640625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1825.4140625</v>
+        <v>2302.458740234375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1824.8193359375</v>
+        <v>2306.830078125</v>
       </c>
       <c r="BS4" t="n">
-        <v>1824.203735351562</v>
+        <v>2304.668212890625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1823.771484375</v>
+        <v>2304.574951171875</v>
       </c>
       <c r="BU4" t="n">
-        <v>1823.30322265625</v>
+        <v>2304.123046875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1822.785400390625</v>
+        <v>2304.866943359375</v>
       </c>
       <c r="BW4" t="n">
-        <v>1822.23486328125</v>
+        <v>2307.140869140625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1821.6357421875</v>
+        <v>2309.733154296875</v>
       </c>
       <c r="BY4" t="n">
-        <v>1820.74658203125</v>
+        <v>2310.044189453125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1819.69287109375</v>
+        <v>2311.26708984375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1816.5927734375</v>
+        <v>2311.8291015625</v>
       </c>
       <c r="CB4" t="n">
-        <v>1815.428100585938</v>
+        <v>2315.690673828125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1813.838012695312</v>
+        <v>2318.6337890625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1812.473876953125</v>
+        <v>2300.481201171875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1811.038696289062</v>
+        <v>2302.62451171875</v>
       </c>
       <c r="CF4" t="n">
-        <v>1809.725952148438</v>
+        <v>2299.905029296875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1810.583618164062</v>
+        <v>2296.8359375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1810.287841796875</v>
+        <v>2293.65380859375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1810.2099609375</v>
+        <v>2294.199951171875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1810.231201171875</v>
+        <v>2293.4873046875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1810.353515625</v>
+        <v>2292.673583984375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1810.3291015625</v>
+        <v>2294.1396484375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1810.315185546875</v>
+        <v>2294.25341796875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1810.348999023438</v>
+        <v>2293.663330078125</v>
       </c>
       <c r="CO4" t="n">
-        <v>1810.513427734375</v>
+        <v>2292.74072265625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1810.625244140625</v>
+        <v>2288.234375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1811.063842773438</v>
+        <v>2289.651611328125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1811.05517578125</v>
+        <v>2288.910888671875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1811.091186523438</v>
+        <v>2289.181884765625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1810.965209960938</v>
+        <v>2289.365966796875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1811.283813476562</v>
+        <v>2289.912841796875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1811.691284179688</v>
+        <v>2289.948974609375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1811.586181640625</v>
+        <v>2288.19580078125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1811.67578125</v>
+        <v>2288.44580078125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1812.106323242188</v>
+        <v>2288.3525390625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1812.252197265625</v>
+        <v>2289.3017578125</v>
       </c>
       <c r="DA4" t="n">
-        <v>1812.281494140625</v>
+        <v>2291.119873046875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1812.97314453125</v>
+        <v>2290.515869140625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1813.818115234375</v>
+        <v>2289.413330078125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1814.332275390625</v>
+        <v>2288.240234375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1814.87548828125</v>
+        <v>2288.3076171875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1815.83349609375</v>
+        <v>2288.435791015625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1816.5205078125</v>
+        <v>2288.73193359375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1815.684814453125</v>
+        <v>2288.958984375</v>
       </c>
       <c r="DI4" t="n">
-        <v>1815.702026367188</v>
+        <v>2294.6337890625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1815.887573242188</v>
+        <v>2299.704345703125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1815.748657226562</v>
+        <v>2296.871826171875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1814.603515625</v>
+        <v>2294.559326171875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1814.019897460938</v>
+        <v>2313.155029296875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1814.34912109375</v>
+        <v>2302.1064453125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1813.37890625</v>
+        <v>2301.675537109375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1812.680053710938</v>
+        <v>2299.735595703125</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1813.498779296875</v>
+        <v>2298.52099609375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1813.956787109375</v>
+        <v>2299.349609375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1813.568115234375</v>
+        <v>2301.32177734375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1812.968994140625</v>
+        <v>2301.726806640625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1812.116821289062</v>
+        <v>2301.642822265625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1811.262573242188</v>
+        <v>2301.225341796875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1810.808715820312</v>
+        <v>2301.156494140625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1810.562866210938</v>
+        <v>2300.9091796875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1811.071411132812</v>
+        <v>2300.4736328125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1810.896606445312</v>
+        <v>2300.45361328125</v>
       </c>
       <c r="EA4" t="n">
-        <v>1810.709594726562</v>
+        <v>2299.549072265625</v>
       </c>
       <c r="EB4" t="n">
-        <v>1810.668579101562</v>
+        <v>2299.57470703125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1810.728881835938</v>
+        <v>2299.4052734375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1810.604858398438</v>
+        <v>2299.3134765625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1810.538330078125</v>
+        <v>2300.102294921875</v>
       </c>
       <c r="EF4" t="n">
-        <v>1811.420776367188</v>
+        <v>2301.28076171875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1810.711059570312</v>
+        <v>2300.453857421875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1809.896240234375</v>
+        <v>2298.13330078125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1809.692993164062</v>
+        <v>2300.482421875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1809.594116210938</v>
+        <v>2293.75634765625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1809.554321289062</v>
+        <v>2293.77294921875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1809.468872070312</v>
+        <v>2281.028564453125</v>
       </c>
       <c r="EM4" t="n">
-        <v>1808.965209960938</v>
+        <v>2281.55419921875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1808.860473632812</v>
+        <v>2282.8515625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1807.537231445312</v>
+        <v>2288.179931640625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1807.008056640625</v>
+        <v>2288.851806640625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1808.1435546875</v>
+        <v>2292.63037109375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1808.791137695312</v>
+        <v>2286.513916015625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1809.768432617188</v>
+        <v>2281.439453125</v>
       </c>
       <c r="ET4" t="n">
-        <v>1810.593139648438</v>
+        <v>2282.2900390625</v>
       </c>
       <c r="EU4" t="n">
-        <v>1810.392822265625</v>
+        <v>2290.182861328125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1810.135620117188</v>
+        <v>2289.771484375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1809.521850585938</v>
+        <v>2290.3515625</v>
       </c>
       <c r="EX4" t="n">
-        <v>1808.882202148438</v>
+        <v>2291.5478515625</v>
       </c>
       <c r="EY4" t="n">
-        <v>1808.760620117188</v>
+        <v>2291.333740234375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1808.484741210938</v>
+        <v>2290.583251953125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1808.847290039062</v>
+        <v>2289.156005859375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1809.330078125</v>
+        <v>2289.82373046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1809.7392578125</v>
+        <v>2292.39453125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1809.65625</v>
+        <v>2292.149169921875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1810.059326171875</v>
+        <v>2291.9453125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1810.388549804688</v>
+        <v>2292.015625</v>
       </c>
       <c r="FG4" t="n">
-        <v>1807.10546875</v>
+        <v>2292.017333984375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1807.033325195312</v>
+        <v>2292.01416015625</v>
       </c>
       <c r="FI4" t="n">
-        <v>1807.087646484375</v>
+        <v>2291.285888671875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1804.26513671875</v>
+        <v>2289.71142578125</v>
       </c>
       <c r="FK4" t="n">
-        <v>1802.048217773438</v>
+        <v>2289.806640625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1802.80224609375</v>
+        <v>2289.689453125</v>
       </c>
       <c r="FM4" t="n">
-        <v>1802.503051757812</v>
+        <v>2291.71875</v>
       </c>
       <c r="FN4" t="n">
-        <v>1800.95458984375</v>
+        <v>2296.407470703125</v>
       </c>
       <c r="FO4" t="n">
-        <v>1800.20703125</v>
+        <v>2297.738525390625</v>
       </c>
       <c r="FP4" t="n">
-        <v>1801.385009765625</v>
+        <v>2291.20751953125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1801.402587890625</v>
+        <v>2292.547119140625</v>
       </c>
       <c r="FR4" t="n">
-        <v>1798.152221679688</v>
+        <v>2308.297119140625</v>
       </c>
       <c r="FS4" t="n">
-        <v>1798.394287109375</v>
+        <v>2294.869384765625</v>
       </c>
       <c r="FT4" t="n">
-        <v>1799.284790039062</v>
+        <v>2307.55078125</v>
       </c>
       <c r="FU4" t="n">
-        <v>1798.686157226562</v>
+        <v>2299.52880859375</v>
       </c>
       <c r="FV4" t="n">
-        <v>1798.86279296875</v>
+        <v>2299.1787109375</v>
       </c>
       <c r="FW4" t="n">
-        <v>1798.947998046875</v>
+        <v>2298.890380859375</v>
       </c>
       <c r="FX4" t="n">
-        <v>1798.971069335938</v>
+        <v>2298.88818359375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1798.4658203125</v>
+        <v>2292.479248046875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1798.171997070312</v>
+        <v>2283.389892578125</v>
       </c>
       <c r="GA4" t="n">
-        <v>1798.7705078125</v>
+        <v>2281.828369140625</v>
       </c>
       <c r="GB4" t="n">
-        <v>1799.434814453125</v>
+        <v>2284.852783203125</v>
       </c>
       <c r="GC4" t="n">
-        <v>1798.540649414062</v>
+        <v>2297.364990234375</v>
       </c>
       <c r="GD4" t="n">
-        <v>1797.12939453125</v>
+        <v>2289.905517578125</v>
       </c>
       <c r="GE4" t="n">
-        <v>1796.784423828125</v>
+        <v>2292.007080078125</v>
       </c>
       <c r="GF4" t="n">
-        <v>1794.285400390625</v>
+        <v>2294.09912109375</v>
       </c>
       <c r="GG4" t="n">
-        <v>1793.61865234375</v>
+        <v>2293.708984375</v>
       </c>
       <c r="GH4" t="n">
-        <v>1795.191528320312</v>
+        <v>2298.35400390625</v>
       </c>
       <c r="GI4" t="n">
-        <v>1798.419921875</v>
+        <v>2301.3203125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1798.40673828125</v>
+        <v>2297.688720703125</v>
       </c>
       <c r="GK4" t="n">
-        <v>1796.055541992188</v>
+        <v>2305.110107421875</v>
       </c>
       <c r="GL4" t="n">
-        <v>1797.829833984375</v>
+        <v>2298.3037109375</v>
       </c>
       <c r="GM4" t="n">
-        <v>1802.631713867188</v>
+        <v>2293.34033203125</v>
       </c>
       <c r="GN4" t="n">
-        <v>1799.841918945312</v>
+        <v>2294.48388671875</v>
       </c>
       <c r="GO4" t="n">
-        <v>1797.980224609375</v>
+        <v>2295.704833984375</v>
       </c>
       <c r="GP4" t="n">
-        <v>1798.617553710938</v>
+        <v>2295.8984375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1797.992431640625</v>
+        <v>2293.62158203125</v>
       </c>
       <c r="GR4" t="n">
-        <v>1797.933349609375</v>
+        <v>2292.706787109375</v>
       </c>
       <c r="GS4" t="n">
-        <v>1797.741455078125</v>
+        <v>2288.766845703125</v>
       </c>
       <c r="GT4" t="n">
-        <v>1797.608642578125</v>
+        <v>2291.3623046875</v>
       </c>
       <c r="GU4" t="n">
-        <v>1797.135498046875</v>
+        <v>2292.904052734375</v>
       </c>
       <c r="GV4" t="n">
-        <v>1796.55810546875</v>
+        <v>2292.001708984375</v>
       </c>
       <c r="GW4" t="n">
-        <v>1796.070434570312</v>
+        <v>2290.87890625</v>
       </c>
       <c r="GX4" t="n">
-        <v>1794.930053710938</v>
+        <v>2291.68701171875</v>
       </c>
       <c r="GY4" t="n">
-        <v>1792.77685546875</v>
+        <v>2292.443115234375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1793.057373046875</v>
+        <v>2292.710205078125</v>
       </c>
       <c r="HA4" t="n">
-        <v>1793.019897460938</v>
+        <v>2290.856689453125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1792.966064453125</v>
+        <v>2288.833984375</v>
       </c>
       <c r="HC4" t="n">
-        <v>1792.50390625</v>
+        <v>2288.328857421875</v>
       </c>
       <c r="HD4" t="n">
-        <v>1792.718627929688</v>
+        <v>2292.844482421875</v>
       </c>
       <c r="HE4" t="n">
-        <v>1792.237426757812</v>
+        <v>2297.671142578125</v>
       </c>
       <c r="HF4" t="n">
-        <v>1791.952026367188</v>
+        <v>2295.875732421875</v>
       </c>
       <c r="HG4" t="n">
-        <v>1793.108276367188</v>
+        <v>2296.12255859375</v>
       </c>
       <c r="HH4" t="n">
-        <v>1795.88134765625</v>
+        <v>2296.136962890625</v>
       </c>
       <c r="HI4" t="n">
-        <v>1795.344116210938</v>
+        <v>2295.74853515625</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1796.094116210938</v>
+        <v>2295.37939453125</v>
       </c>
       <c r="HK4" t="n">
-        <v>1794.90283203125</v>
+        <v>2300.0283203125</v>
       </c>
       <c r="HL4" t="n">
-        <v>1795.010009765625</v>
+        <v>2312.691650390625</v>
       </c>
       <c r="HM4" t="n">
-        <v>1794.96484375</v>
+        <v>2303.688720703125</v>
       </c>
       <c r="HN4" t="n">
-        <v>1795.333618164062</v>
+        <v>2305.811767578125</v>
       </c>
       <c r="HO4" t="n">
-        <v>1796.608154296875</v>
+        <v>2307.43212890625</v>
       </c>
       <c r="HP4" t="n">
-        <v>1796.080688476562</v>
+        <v>2323.306640625</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1795.671875</v>
+        <v>2308.6435546875</v>
       </c>
       <c r="HR4" t="n">
-        <v>1794.11328125</v>
+        <v>2305.825439453125</v>
       </c>
       <c r="HS4" t="n">
-        <v>1794.273315429688</v>
+        <v>2292.2001953125</v>
       </c>
       <c r="HT4" t="n">
-        <v>1794.226684570312</v>
+        <v>2293.955078125</v>
       </c>
       <c r="HU4" t="n">
-        <v>1794.57421875</v>
+        <v>2306.076171875</v>
       </c>
       <c r="HV4" t="n">
-        <v>1794.40625</v>
+        <v>2304.84716796875</v>
       </c>
       <c r="HW4" t="n">
-        <v>1794.423095703125</v>
+        <v>2304.76123046875</v>
       </c>
       <c r="HX4" t="n">
-        <v>1794.64404296875</v>
+        <v>2299.593994140625</v>
       </c>
       <c r="HY4" t="n">
-        <v>1794.9052734375</v>
+        <v>2307.761474609375</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1793.550048828125</v>
+        <v>2301.586669921875</v>
       </c>
       <c r="IA4" t="n">
-        <v>1794.535766601562</v>
+        <v>2302.2607421875</v>
       </c>
       <c r="IB4" t="n">
-        <v>1794.775146484375</v>
+        <v>2302.27099609375</v>
       </c>
       <c r="IC4" t="n">
-        <v>1795.2333984375</v>
+        <v>2302.189697265625</v>
       </c>
       <c r="ID4" t="n">
-        <v>1794.566284179688</v>
+        <v>2302.083251953125</v>
       </c>
       <c r="IE4" t="n">
-        <v>1794.028930664062</v>
+        <v>2299.804443359375</v>
       </c>
       <c r="IF4" t="n">
-        <v>1793.829711914062</v>
+        <v>2294.433349609375</v>
       </c>
       <c r="IG4" t="n">
-        <v>1792.576171875</v>
+        <v>2304.365478515625</v>
       </c>
       <c r="IH4" t="n">
-        <v>1792.690307617188</v>
+        <v>2303.687255859375</v>
       </c>
       <c r="II4" t="n">
-        <v>1792.531494140625</v>
+        <v>2302.03173828125</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1792.488525390625</v>
+        <v>2301.51513671875</v>
       </c>
       <c r="IK4" t="n">
-        <v>1792.634765625</v>
+        <v>2301.468994140625</v>
       </c>
       <c r="IL4" t="n">
-        <v>1792.531494140625</v>
+        <v>2301.51025390625</v>
       </c>
       <c r="IM4" t="n">
-        <v>1792.186767578125</v>
+        <v>2301.641845703125</v>
       </c>
       <c r="IN4" t="n">
-        <v>1791.385009765625</v>
+        <v>2301.6220703125</v>
       </c>
       <c r="IO4" t="n">
-        <v>1791.076049804688</v>
+        <v>2300.38818359375</v>
       </c>
       <c r="IP4" t="n">
-        <v>1790.209838867188</v>
+        <v>2292.60791015625</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1790.326293945312</v>
+        <v>2299.1474609375</v>
       </c>
       <c r="IR4" t="n">
-        <v>1790.487060546875</v>
+        <v>2303.77294921875</v>
       </c>
       <c r="IS4" t="n">
-        <v>1790.950439453125</v>
+        <v>2302.886474609375</v>
       </c>
       <c r="IT4" t="n">
-        <v>1790.973510742188</v>
+        <v>2301.6923828125</v>
       </c>
       <c r="IU4" t="n">
-        <v>1791.609497070312</v>
+        <v>2301.21435546875</v>
       </c>
       <c r="IV4" t="n">
-        <v>1791.9638671875</v>
+        <v>2301.102294921875</v>
       </c>
       <c r="IW4" t="n">
-        <v>1792.772827148438</v>
+        <v>2300.760009765625</v>
       </c>
       <c r="IX4" t="n">
-        <v>1792.352294921875</v>
+        <v>2300.7314453125</v>
       </c>
       <c r="IY4" t="n">
-        <v>1792.179077148438</v>
+        <v>2300.166015625</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1792.200927734375</v>
+        <v>2297.061767578125</v>
       </c>
       <c r="JA4" t="n">
-        <v>1791.583740234375</v>
+        <v>2296.4912109375</v>
       </c>
       <c r="JB4" t="n">
-        <v>1790.2470703125</v>
+        <v>2297.603515625</v>
       </c>
       <c r="JC4" t="n">
-        <v>1790.674926757812</v>
+        <v>2302.832763671875</v>
       </c>
       <c r="JD4" t="n">
-        <v>1790.642456054688</v>
+        <v>2304.510009765625</v>
       </c>
       <c r="JE4" t="n">
-        <v>1790.092407226562</v>
+        <v>2301.66064453125</v>
       </c>
       <c r="JF4" t="n">
-        <v>1787.415649414062</v>
+        <v>2302.927001953125</v>
       </c>
       <c r="JG4" t="n">
-        <v>1786.910766601562</v>
+        <v>2304.059326171875</v>
       </c>
       <c r="JH4" t="n">
-        <v>1786.376708984375</v>
+        <v>2299.334228515625</v>
       </c>
       <c r="JI4" t="n">
-        <v>1787.179565429688</v>
+        <v>2287.7451171875</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1787.385864257812</v>
+        <v>2288.39697265625</v>
       </c>
       <c r="JK4" t="n">
-        <v>1787.518676757812</v>
+        <v>2286.35888671875</v>
       </c>
       <c r="JL4" t="n">
-        <v>1787.791259765625</v>
+        <v>2286.954345703125</v>
       </c>
       <c r="JM4" t="n">
-        <v>1789.06884765625</v>
+        <v>2286.41162109375</v>
       </c>
       <c r="JN4" t="n">
-        <v>1788.6474609375</v>
+        <v>2287.105224609375</v>
       </c>
       <c r="JO4" t="n">
-        <v>1788.96630859375</v>
+        <v>2289.191162109375</v>
       </c>
       <c r="JP4" t="n">
-        <v>1789.045654296875</v>
+        <v>2289.026123046875</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1789.530029296875</v>
+        <v>2288.873046875</v>
       </c>
       <c r="JR4" t="n">
-        <v>1789.1083984375</v>
+        <v>2288.83642578125</v>
       </c>
       <c r="JS4" t="n">
-        <v>1788.183227539062</v>
+        <v>2288.271484375</v>
       </c>
       <c r="JT4" t="n">
-        <v>1788.073364257812</v>
+        <v>2288.3837890625</v>
       </c>
       <c r="JU4" t="n">
-        <v>1788.182983398438</v>
+        <v>2289.19580078125</v>
       </c>
       <c r="JV4" t="n">
-        <v>1788.03466796875</v>
+        <v>2287.23974609375</v>
       </c>
       <c r="JW4" t="n">
-        <v>1788.041748046875</v>
+        <v>2286.88330078125</v>
       </c>
       <c r="JX4" t="n">
-        <v>1787.7763671875</v>
+        <v>2289.44970703125</v>
       </c>
       <c r="JY4" t="n">
-        <v>1787.201904296875</v>
+        <v>2295.321044921875</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1767.236450195312</v>
+        <v>2294.044921875</v>
       </c>
       <c r="KA4" t="n">
-        <v>1767.15771484375</v>
+        <v>2279.983642578125</v>
       </c>
       <c r="KB4" t="n">
-        <v>1766.9990234375</v>
+        <v>2278.1826171875</v>
       </c>
       <c r="KC4" t="n">
-        <v>1766.947265625</v>
+        <v>2290.7939453125</v>
       </c>
       <c r="KD4" t="n">
-        <v>1765.7412109375</v>
+        <v>2301.03759765625</v>
       </c>
       <c r="KE4" t="n">
-        <v>1763.221801757812</v>
+        <v>2300.64013671875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1740.857177734375</v>
+        <v>2300.732177734375</v>
       </c>
       <c r="KG4" t="n">
-        <v>1649.634643554688</v>
+        <v>2300.673828125</v>
       </c>
       <c r="KH4" t="n">
-        <v>1600.216552734375</v>
+        <v>2304.33642578125</v>
       </c>
       <c r="KI4" t="n">
-        <v>1565.010131835938</v>
+        <v>2304.649169921875</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1538.087646484375</v>
+        <v>2305.76806640625</v>
       </c>
       <c r="KK4" t="n">
-        <v>1504.42724609375</v>
+        <v>2307.87841796875</v>
       </c>
       <c r="KL4" t="n">
-        <v>1459.35791015625</v>
+        <v>2306.9765625</v>
       </c>
       <c r="KM4" t="n">
-        <v>1404.752075195312</v>
+        <v>2269.62939453125</v>
       </c>
       <c r="KN4" t="n">
-        <v>1345.635009765625</v>
+        <v>2237.765625</v>
       </c>
       <c r="KO4" t="n">
-        <v>1312.267822265625</v>
+        <v>2251.023681640625</v>
       </c>
       <c r="KP4" t="n">
-        <v>1313.076782226562</v>
+        <v>2239.73046875</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1274.496337890625</v>
+        <v>2230.64697265625</v>
       </c>
       <c r="KR4" t="n">
-        <v>1156.693603515625</v>
+        <v>2188.162841796875</v>
       </c>
       <c r="KS4" t="n">
-        <v>1019.9169921875</v>
+        <v>2140.9443359375</v>
       </c>
       <c r="KT4" t="n">
-        <v>977.8477783203125</v>
+        <v>2131.427978515625</v>
       </c>
       <c r="KU4" t="n">
-        <v>849.97216796875</v>
+        <v>2012.383422851562</v>
       </c>
       <c r="KV4" t="n">
-        <v>1164.509765625</v>
+        <v>1669.25732421875</v>
       </c>
       <c r="KW4" t="n">
-        <v>1117.571166992188</v>
+        <v>1568.9580078125</v>
       </c>
       <c r="KX4" t="n">
-        <v>1072.061767578125</v>
+        <v>1756.664184570312</v>
       </c>
       <c r="KY4" t="n">
-        <v>1050.54931640625</v>
+        <v>1676.605712890625</v>
       </c>
       <c r="KZ4" t="n">
-        <v>1026.668579101562</v>
+        <v>1548.850219726562</v>
       </c>
       <c r="LA4" t="n">
-        <v>999.8215942382812</v>
+        <v>1439.000366210938</v>
       </c>
       <c r="LB4" t="n">
-        <v>985.863525390625</v>
+        <v>1334.015258789062</v>
       </c>
       <c r="LC4" t="n">
-        <v>971.23046875</v>
+        <v>1192.22119140625</v>
       </c>
       <c r="LD4" t="n">
-        <v>950.262939453125</v>
+        <v>1057.996337890625</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>943.5116577148438</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>852.5845947265625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>793.37255859375</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>699.2757568359375</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>621.45068359375</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>547.82373046875</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>531.9771728515625</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>439.3985595703125</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>416.8210754394531</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>432.5205078125</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>327.641845703125</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>324.77734375</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>344.3993835449219</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>344.8642883300781</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>282.3178100585938</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>385.7994079589844</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>386.3327331542969</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>391.339111328125</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>392.45068359375</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>373.5081787109375</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>371.9581604003906</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>369.2918090820312</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>371.0319213867188</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>366.2626953125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>375.6268615722656</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>376.4258728027344</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>331.5254516601562</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>356.6087646484375</v>
       </c>
     </row>
   </sheetData>
